--- a/partes_interessadas_grupoC.xlsx
+++ b/partes_interessadas_grupoC.xlsx
@@ -161,7 +161,7 @@
     <t>Lista de atendimentos/clientes está num caderno</t>
   </si>
   <si>
-    <t>**Não foi considerada a recepcionista, dado que, apesar dela trabalhar na livraria, não é uma parte interessa no projeto</t>
+    <t>**Não foi considerada a recepcionista, dado que, apesar dela trabalhar na livraria, não é uma parte interessada no projeto</t>
   </si>
   <si>
     <t xml:space="preserve">**Não foi considerada a Livraria Resolve (instituição), pois dado o tamanho da empresa, podemos considerar que o dono a representa </t>

--- a/partes_interessadas_grupoC.xlsx
+++ b/partes_interessadas_grupoC.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="62">
   <si>
     <t>Parte Interessada</t>
   </si>
@@ -56,10 +56,13 @@
     <t>Dinheiro</t>
   </si>
   <si>
-    <t>MÉDIO</t>
+    <t>BAIXO</t>
   </si>
   <si>
     <t>ALTO</t>
+  </si>
+  <si>
+    <t>MÉDIO</t>
   </si>
   <si>
     <t>LIDERA</t>
@@ -75,9 +78,6 @@
   </si>
   <si>
     <t>Impecilho com boletos</t>
-  </si>
-  <si>
-    <t>BAIXO</t>
   </si>
   <si>
     <t>DESCONHECE</t>
@@ -423,20 +423,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A2:J25" displayName="Table_1" name="Table_1" id="1">
-  <tableColumns count="10">
-    <tableColumn name="Parte Interessada" id="1"/>
-    <tableColumn name="Nome " id="2"/>
-    <tableColumn name="Necessidades (What)" id="3"/>
-    <tableColumn name="Motivações (Why)" id="4"/>
-    <tableColumn name="Poder" id="5"/>
-    <tableColumn name="Influência" id="6"/>
-    <tableColumn name="Legitimidade" id="7"/>
-    <tableColumn name="Urgência" id="8"/>
-    <tableColumn name="Interesse" id="9"/>
-    <tableColumn name="Engajamento" id="10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A2:K25" displayName="Table_1" name="Table_1" id="1">
+  <tableColumns count="11">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+    <tableColumn name="Column4" id="4"/>
+    <tableColumn name="Column5" id="5"/>
+    <tableColumn name="Column6" id="6"/>
+    <tableColumn name="Column7" id="7"/>
+    <tableColumn name="Column8" id="8"/>
+    <tableColumn name="Column9" id="9"/>
+    <tableColumn name="Column10" id="10"/>
+    <tableColumn name="Column11" id="11"/>
   </tableColumns>
   <tableStyleInfo name="T1 Partes Interessadas-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" headerRowCount="1"/>
+    </ext>
+  </extLst>
 </table>
 </file>
 
@@ -663,15 +669,15 @@
     <col customWidth="1" min="3" max="4" width="51.88"/>
     <col customWidth="1" min="5" max="5" width="6.5"/>
     <col customWidth="1" min="6" max="6" width="8.75"/>
-    <col customWidth="1" min="7" max="7" width="11.25"/>
-    <col customWidth="1" min="8" max="8" width="8.13"/>
-    <col customWidth="1" min="9" max="9" width="8.38"/>
-    <col customWidth="1" min="10" max="10" width="12.75"/>
+    <col customWidth="1" min="7" max="7" width="6.5"/>
+    <col customWidth="1" min="8" max="8" width="11.25"/>
+    <col customWidth="1" min="9" max="9" width="8.13"/>
+    <col customWidth="1" min="10" max="10" width="8.38"/>
+    <col customWidth="1" min="11" max="11" width="12.75"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1"/>
-      <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -685,6 +691,7 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
@@ -706,18 +713,20 @@
         <v>5</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -731,6 +740,7 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
     </row>
     <row r="3" ht="31.5" customHeight="1">
       <c r="A3" s="4" t="s">
@@ -751,19 +761,21 @@
       <c r="F3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>15</v>
+      <c r="G3" s="4" t="s">
+        <v>16</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="6" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
-      <c r="K3" s="2"/>
+      <c r="K3" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -777,39 +789,42 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
     </row>
     <row r="4" ht="31.5" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="I4" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -823,6 +838,7 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
     </row>
     <row r="5" ht="31.5" customHeight="1">
       <c r="A5" s="4" t="s">
@@ -843,19 +859,21 @@
       <c r="F5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>14</v>
+      <c r="H5" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -869,6 +887,7 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
     </row>
     <row r="6" ht="31.5" customHeight="1">
       <c r="A6" s="4" t="s">
@@ -884,24 +903,26 @@
         <v>31</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>14</v>
+      <c r="G6" s="4" t="s">
+        <v>16</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>15</v>
+      <c r="H6" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -915,6 +936,7 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
     </row>
     <row r="7" ht="31.5" customHeight="1">
       <c r="A7" s="4" t="s">
@@ -930,24 +952,26 @@
         <v>35</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>21</v>
+      <c r="J7" s="4" t="s">
+        <v>14</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -961,6 +985,7 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
     </row>
     <row r="8" ht="31.5" customHeight="1">
       <c r="A8" s="4" t="s">
@@ -976,24 +1001,26 @@
         <v>40</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>21</v>
+      <c r="G8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1007,6 +1034,7 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
     </row>
     <row r="9" ht="31.5" customHeight="1">
       <c r="A9" s="4" t="s">
@@ -1022,24 +1050,26 @@
         <v>44</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>15</v>
+      <c r="G9" s="4" t="s">
+        <v>14</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1053,6 +1083,7 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
     </row>
     <row r="10" ht="31.5" customHeight="1">
       <c r="A10" s="4" t="s">
@@ -1068,24 +1099,26 @@
         <v>48</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>15</v>
+      <c r="G10" s="4" t="s">
+        <v>14</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1099,6 +1132,7 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="4"/>
@@ -1111,7 +1145,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="2"/>
+      <c r="K11" s="4"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1125,6 +1159,7 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="9"/>
@@ -1137,7 +1172,7 @@
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
-      <c r="K12" s="2"/>
+      <c r="K12" s="9"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1151,6 +1186,7 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="11" t="s">
@@ -1165,7 +1201,7 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="2"/>
+      <c r="K13" s="9"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1179,6 +1215,7 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" s="11" t="s">
@@ -1193,7 +1230,7 @@
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
-      <c r="K14" s="2"/>
+      <c r="K14" s="9"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1207,6 +1244,7 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" s="9"/>
@@ -1219,7 +1257,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
-      <c r="K15" s="2"/>
+      <c r="K15" s="9"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1233,6 +1271,7 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" s="9"/>
@@ -1245,7 +1284,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="2"/>
+      <c r="K16" s="9"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -1259,6 +1298,7 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" s="9"/>
@@ -1271,7 +1311,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
-      <c r="K17" s="2"/>
+      <c r="K17" s="9"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1285,6 +1325,7 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" s="9"/>
@@ -1297,7 +1338,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="2"/>
+      <c r="K18" s="9"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -1311,6 +1352,7 @@
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" s="9"/>
@@ -1323,7 +1365,7 @@
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="2"/>
+      <c r="K19" s="9"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -1337,6 +1379,7 @@
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" s="9"/>
@@ -1349,7 +1392,7 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
-      <c r="K20" s="2"/>
+      <c r="K20" s="9"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -1363,6 +1406,7 @@
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" s="9"/>
@@ -1375,7 +1419,7 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
-      <c r="K21" s="2"/>
+      <c r="K21" s="9"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1389,6 +1433,7 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" s="9"/>
@@ -1401,7 +1446,7 @@
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
-      <c r="K22" s="2"/>
+      <c r="K22" s="9"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1415,6 +1460,7 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" s="9"/>
@@ -1427,7 +1473,7 @@
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="2"/>
+      <c r="K23" s="9"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -1441,6 +1487,7 @@
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" s="9"/>
@@ -1453,7 +1500,7 @@
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
-      <c r="K24" s="2"/>
+      <c r="K24" s="9"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -1467,6 +1514,7 @@
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" s="9"/>
@@ -1479,7 +1527,7 @@
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="2"/>
+      <c r="K25" s="9"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -1493,6 +1541,7 @@
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" s="2"/>
@@ -1519,6 +1568,7 @@
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" s="2"/>
@@ -1545,6 +1595,7 @@
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" s="2"/>
@@ -1571,6 +1622,7 @@
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" s="2"/>
@@ -1597,6 +1649,7 @@
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" s="2"/>
@@ -1623,6 +1676,7 @@
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" s="2"/>
@@ -1649,6 +1703,7 @@
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" s="2"/>
@@ -1675,6 +1730,7 @@
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" s="2"/>
@@ -1701,6 +1757,7 @@
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" s="2"/>
@@ -1727,6 +1784,7 @@
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" s="2"/>
@@ -1753,6 +1811,7 @@
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" s="2"/>
@@ -1779,6 +1838,7 @@
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" s="2"/>
@@ -1805,6 +1865,7 @@
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" s="2"/>
@@ -1831,6 +1892,7 @@
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" s="2"/>
@@ -1857,6 +1919,7 @@
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" s="2"/>
@@ -1883,6 +1946,7 @@
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" s="2"/>
@@ -1909,6 +1973,7 @@
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" s="2"/>
@@ -1935,6 +2000,7 @@
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" s="2"/>
@@ -1961,6 +2027,7 @@
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" s="2"/>
@@ -1987,6 +2054,7 @@
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" s="2"/>
@@ -2013,6 +2081,7 @@
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
       <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" s="2"/>
@@ -2039,6 +2108,7 @@
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
+      <c r="Y46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" s="2"/>
@@ -2065,6 +2135,7 @@
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
       <c r="X47" s="2"/>
+      <c r="Y47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" s="2"/>
@@ -2091,6 +2162,7 @@
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
       <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" s="2"/>
@@ -2117,6 +2189,7 @@
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
       <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" s="2"/>
@@ -2143,6 +2216,7 @@
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
       <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" s="2"/>
@@ -2169,6 +2243,7 @@
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
       <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" s="2"/>
@@ -2195,6 +2270,7 @@
       <c r="V52" s="2"/>
       <c r="W52" s="2"/>
       <c r="X52" s="2"/>
+      <c r="Y52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" s="2"/>
@@ -2221,6 +2297,7 @@
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
       <c r="X53" s="2"/>
+      <c r="Y53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" s="2"/>
@@ -2247,6 +2324,7 @@
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
       <c r="X54" s="2"/>
+      <c r="Y54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" s="2"/>
@@ -2273,6 +2351,7 @@
       <c r="V55" s="2"/>
       <c r="W55" s="2"/>
       <c r="X55" s="2"/>
+      <c r="Y55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" s="2"/>
@@ -2299,6 +2378,7 @@
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
       <c r="X56" s="2"/>
+      <c r="Y56" s="2"/>
     </row>
     <row r="57">
       <c r="A57" s="2"/>
@@ -2325,6 +2405,7 @@
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
       <c r="X57" s="2"/>
+      <c r="Y57" s="2"/>
     </row>
     <row r="58">
       <c r="A58" s="2"/>
@@ -2351,6 +2432,7 @@
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
       <c r="X58" s="2"/>
+      <c r="Y58" s="2"/>
     </row>
     <row r="59">
       <c r="A59" s="2"/>
@@ -2377,6 +2459,7 @@
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
       <c r="X59" s="2"/>
+      <c r="Y59" s="2"/>
     </row>
     <row r="60">
       <c r="A60" s="2"/>
@@ -2403,6 +2486,7 @@
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
       <c r="X60" s="2"/>
+      <c r="Y60" s="2"/>
     </row>
     <row r="61">
       <c r="A61" s="2"/>
@@ -2429,6 +2513,7 @@
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
       <c r="X61" s="2"/>
+      <c r="Y61" s="2"/>
     </row>
     <row r="62">
       <c r="A62" s="2"/>
@@ -2455,6 +2540,7 @@
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
       <c r="X62" s="2"/>
+      <c r="Y62" s="2"/>
     </row>
     <row r="63">
       <c r="A63" s="2"/>
@@ -2481,6 +2567,7 @@
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
       <c r="X63" s="2"/>
+      <c r="Y63" s="2"/>
     </row>
     <row r="64">
       <c r="A64" s="2"/>
@@ -2507,6 +2594,7 @@
       <c r="V64" s="2"/>
       <c r="W64" s="2"/>
       <c r="X64" s="2"/>
+      <c r="Y64" s="2"/>
     </row>
     <row r="65">
       <c r="A65" s="2"/>
@@ -2533,6 +2621,7 @@
       <c r="V65" s="2"/>
       <c r="W65" s="2"/>
       <c r="X65" s="2"/>
+      <c r="Y65" s="2"/>
     </row>
     <row r="66">
       <c r="A66" s="2"/>
@@ -2559,6 +2648,7 @@
       <c r="V66" s="2"/>
       <c r="W66" s="2"/>
       <c r="X66" s="2"/>
+      <c r="Y66" s="2"/>
     </row>
     <row r="67">
       <c r="A67" s="2"/>
@@ -2585,6 +2675,7 @@
       <c r="V67" s="2"/>
       <c r="W67" s="2"/>
       <c r="X67" s="2"/>
+      <c r="Y67" s="2"/>
     </row>
     <row r="68">
       <c r="A68" s="2"/>
@@ -2611,6 +2702,7 @@
       <c r="V68" s="2"/>
       <c r="W68" s="2"/>
       <c r="X68" s="2"/>
+      <c r="Y68" s="2"/>
     </row>
     <row r="69">
       <c r="A69" s="2"/>
@@ -2637,6 +2729,7 @@
       <c r="V69" s="2"/>
       <c r="W69" s="2"/>
       <c r="X69" s="2"/>
+      <c r="Y69" s="2"/>
     </row>
     <row r="70">
       <c r="A70" s="2"/>
@@ -2663,6 +2756,7 @@
       <c r="V70" s="2"/>
       <c r="W70" s="2"/>
       <c r="X70" s="2"/>
+      <c r="Y70" s="2"/>
     </row>
     <row r="71">
       <c r="A71" s="2"/>
@@ -2689,6 +2783,7 @@
       <c r="V71" s="2"/>
       <c r="W71" s="2"/>
       <c r="X71" s="2"/>
+      <c r="Y71" s="2"/>
     </row>
     <row r="72">
       <c r="A72" s="2"/>
@@ -2715,6 +2810,7 @@
       <c r="V72" s="2"/>
       <c r="W72" s="2"/>
       <c r="X72" s="2"/>
+      <c r="Y72" s="2"/>
     </row>
     <row r="73">
       <c r="A73" s="2"/>
@@ -2741,6 +2837,7 @@
       <c r="V73" s="2"/>
       <c r="W73" s="2"/>
       <c r="X73" s="2"/>
+      <c r="Y73" s="2"/>
     </row>
     <row r="74">
       <c r="A74" s="2"/>
@@ -2767,6 +2864,7 @@
       <c r="V74" s="2"/>
       <c r="W74" s="2"/>
       <c r="X74" s="2"/>
+      <c r="Y74" s="2"/>
     </row>
     <row r="75">
       <c r="A75" s="2"/>
@@ -2793,6 +2891,7 @@
       <c r="V75" s="2"/>
       <c r="W75" s="2"/>
       <c r="X75" s="2"/>
+      <c r="Y75" s="2"/>
     </row>
     <row r="76">
       <c r="A76" s="2"/>
@@ -2819,6 +2918,7 @@
       <c r="V76" s="2"/>
       <c r="W76" s="2"/>
       <c r="X76" s="2"/>
+      <c r="Y76" s="2"/>
     </row>
     <row r="77">
       <c r="A77" s="2"/>
@@ -2845,6 +2945,7 @@
       <c r="V77" s="2"/>
       <c r="W77" s="2"/>
       <c r="X77" s="2"/>
+      <c r="Y77" s="2"/>
     </row>
     <row r="78">
       <c r="A78" s="2"/>
@@ -2871,6 +2972,7 @@
       <c r="V78" s="2"/>
       <c r="W78" s="2"/>
       <c r="X78" s="2"/>
+      <c r="Y78" s="2"/>
     </row>
     <row r="79">
       <c r="A79" s="2"/>
@@ -2897,6 +2999,7 @@
       <c r="V79" s="2"/>
       <c r="W79" s="2"/>
       <c r="X79" s="2"/>
+      <c r="Y79" s="2"/>
     </row>
     <row r="80">
       <c r="A80" s="2"/>
@@ -2923,6 +3026,7 @@
       <c r="V80" s="2"/>
       <c r="W80" s="2"/>
       <c r="X80" s="2"/>
+      <c r="Y80" s="2"/>
     </row>
     <row r="81">
       <c r="A81" s="2"/>
@@ -2949,6 +3053,7 @@
       <c r="V81" s="2"/>
       <c r="W81" s="2"/>
       <c r="X81" s="2"/>
+      <c r="Y81" s="2"/>
     </row>
     <row r="82">
       <c r="A82" s="2"/>
@@ -2975,6 +3080,7 @@
       <c r="V82" s="2"/>
       <c r="W82" s="2"/>
       <c r="X82" s="2"/>
+      <c r="Y82" s="2"/>
     </row>
     <row r="83">
       <c r="A83" s="2"/>
@@ -3001,6 +3107,7 @@
       <c r="V83" s="2"/>
       <c r="W83" s="2"/>
       <c r="X83" s="2"/>
+      <c r="Y83" s="2"/>
     </row>
     <row r="84">
       <c r="A84" s="2"/>
@@ -3027,6 +3134,7 @@
       <c r="V84" s="2"/>
       <c r="W84" s="2"/>
       <c r="X84" s="2"/>
+      <c r="Y84" s="2"/>
     </row>
     <row r="85">
       <c r="A85" s="2"/>
@@ -3053,6 +3161,7 @@
       <c r="V85" s="2"/>
       <c r="W85" s="2"/>
       <c r="X85" s="2"/>
+      <c r="Y85" s="2"/>
     </row>
     <row r="86">
       <c r="A86" s="2"/>
@@ -3079,6 +3188,7 @@
       <c r="V86" s="2"/>
       <c r="W86" s="2"/>
       <c r="X86" s="2"/>
+      <c r="Y86" s="2"/>
     </row>
     <row r="87">
       <c r="A87" s="2"/>
@@ -3105,6 +3215,7 @@
       <c r="V87" s="2"/>
       <c r="W87" s="2"/>
       <c r="X87" s="2"/>
+      <c r="Y87" s="2"/>
     </row>
     <row r="88">
       <c r="A88" s="2"/>
@@ -3131,6 +3242,7 @@
       <c r="V88" s="2"/>
       <c r="W88" s="2"/>
       <c r="X88" s="2"/>
+      <c r="Y88" s="2"/>
     </row>
     <row r="89">
       <c r="A89" s="2"/>
@@ -3157,6 +3269,7 @@
       <c r="V89" s="2"/>
       <c r="W89" s="2"/>
       <c r="X89" s="2"/>
+      <c r="Y89" s="2"/>
     </row>
     <row r="90">
       <c r="A90" s="2"/>
@@ -3183,6 +3296,7 @@
       <c r="V90" s="2"/>
       <c r="W90" s="2"/>
       <c r="X90" s="2"/>
+      <c r="Y90" s="2"/>
     </row>
     <row r="91">
       <c r="A91" s="2"/>
@@ -3209,6 +3323,7 @@
       <c r="V91" s="2"/>
       <c r="W91" s="2"/>
       <c r="X91" s="2"/>
+      <c r="Y91" s="2"/>
     </row>
     <row r="92">
       <c r="A92" s="2"/>
@@ -3235,6 +3350,7 @@
       <c r="V92" s="2"/>
       <c r="W92" s="2"/>
       <c r="X92" s="2"/>
+      <c r="Y92" s="2"/>
     </row>
     <row r="93">
       <c r="A93" s="2"/>
@@ -3261,6 +3377,7 @@
       <c r="V93" s="2"/>
       <c r="W93" s="2"/>
       <c r="X93" s="2"/>
+      <c r="Y93" s="2"/>
     </row>
     <row r="94">
       <c r="A94" s="2"/>
@@ -3287,6 +3404,7 @@
       <c r="V94" s="2"/>
       <c r="W94" s="2"/>
       <c r="X94" s="2"/>
+      <c r="Y94" s="2"/>
     </row>
     <row r="95">
       <c r="A95" s="2"/>
@@ -3313,6 +3431,7 @@
       <c r="V95" s="2"/>
       <c r="W95" s="2"/>
       <c r="X95" s="2"/>
+      <c r="Y95" s="2"/>
     </row>
     <row r="96">
       <c r="A96" s="2"/>
@@ -3339,6 +3458,7 @@
       <c r="V96" s="2"/>
       <c r="W96" s="2"/>
       <c r="X96" s="2"/>
+      <c r="Y96" s="2"/>
     </row>
     <row r="97">
       <c r="A97" s="2"/>
@@ -3365,6 +3485,7 @@
       <c r="V97" s="2"/>
       <c r="W97" s="2"/>
       <c r="X97" s="2"/>
+      <c r="Y97" s="2"/>
     </row>
     <row r="98">
       <c r="A98" s="2"/>
@@ -3391,6 +3512,7 @@
       <c r="V98" s="2"/>
       <c r="W98" s="2"/>
       <c r="X98" s="2"/>
+      <c r="Y98" s="2"/>
     </row>
     <row r="99">
       <c r="A99" s="2"/>
@@ -3417,6 +3539,7 @@
       <c r="V99" s="2"/>
       <c r="W99" s="2"/>
       <c r="X99" s="2"/>
+      <c r="Y99" s="2"/>
     </row>
     <row r="100">
       <c r="A100" s="2"/>
@@ -3443,6 +3566,7 @@
       <c r="V100" s="2"/>
       <c r="W100" s="2"/>
       <c r="X100" s="2"/>
+      <c r="Y100" s="2"/>
     </row>
     <row r="101">
       <c r="A101" s="2"/>
@@ -3469,6 +3593,7 @@
       <c r="V101" s="2"/>
       <c r="W101" s="2"/>
       <c r="X101" s="2"/>
+      <c r="Y101" s="2"/>
     </row>
     <row r="102">
       <c r="A102" s="2"/>
@@ -3495,6 +3620,7 @@
       <c r="V102" s="2"/>
       <c r="W102" s="2"/>
       <c r="X102" s="2"/>
+      <c r="Y102" s="2"/>
     </row>
     <row r="103">
       <c r="A103" s="2"/>
@@ -3521,6 +3647,7 @@
       <c r="V103" s="2"/>
       <c r="W103" s="2"/>
       <c r="X103" s="2"/>
+      <c r="Y103" s="2"/>
     </row>
     <row r="104">
       <c r="A104" s="2"/>
@@ -3547,6 +3674,7 @@
       <c r="V104" s="2"/>
       <c r="W104" s="2"/>
       <c r="X104" s="2"/>
+      <c r="Y104" s="2"/>
     </row>
     <row r="105">
       <c r="A105" s="2"/>
@@ -3573,6 +3701,7 @@
       <c r="V105" s="2"/>
       <c r="W105" s="2"/>
       <c r="X105" s="2"/>
+      <c r="Y105" s="2"/>
     </row>
     <row r="106">
       <c r="A106" s="2"/>
@@ -3599,6 +3728,7 @@
       <c r="V106" s="2"/>
       <c r="W106" s="2"/>
       <c r="X106" s="2"/>
+      <c r="Y106" s="2"/>
     </row>
     <row r="107">
       <c r="A107" s="2"/>
@@ -3625,6 +3755,7 @@
       <c r="V107" s="2"/>
       <c r="W107" s="2"/>
       <c r="X107" s="2"/>
+      <c r="Y107" s="2"/>
     </row>
     <row r="108">
       <c r="A108" s="2"/>
@@ -3651,6 +3782,7 @@
       <c r="V108" s="2"/>
       <c r="W108" s="2"/>
       <c r="X108" s="2"/>
+      <c r="Y108" s="2"/>
     </row>
     <row r="109">
       <c r="A109" s="2"/>
@@ -3677,6 +3809,7 @@
       <c r="V109" s="2"/>
       <c r="W109" s="2"/>
       <c r="X109" s="2"/>
+      <c r="Y109" s="2"/>
     </row>
     <row r="110">
       <c r="A110" s="2"/>
@@ -3703,6 +3836,7 @@
       <c r="V110" s="2"/>
       <c r="W110" s="2"/>
       <c r="X110" s="2"/>
+      <c r="Y110" s="2"/>
     </row>
     <row r="111">
       <c r="A111" s="2"/>
@@ -3729,6 +3863,7 @@
       <c r="V111" s="2"/>
       <c r="W111" s="2"/>
       <c r="X111" s="2"/>
+      <c r="Y111" s="2"/>
     </row>
     <row r="112">
       <c r="A112" s="2"/>
@@ -3755,6 +3890,7 @@
       <c r="V112" s="2"/>
       <c r="W112" s="2"/>
       <c r="X112" s="2"/>
+      <c r="Y112" s="2"/>
     </row>
     <row r="113">
       <c r="A113" s="2"/>
@@ -3781,6 +3917,7 @@
       <c r="V113" s="2"/>
       <c r="W113" s="2"/>
       <c r="X113" s="2"/>
+      <c r="Y113" s="2"/>
     </row>
     <row r="114">
       <c r="A114" s="2"/>
@@ -3807,6 +3944,7 @@
       <c r="V114" s="2"/>
       <c r="W114" s="2"/>
       <c r="X114" s="2"/>
+      <c r="Y114" s="2"/>
     </row>
     <row r="115">
       <c r="A115" s="2"/>
@@ -3833,6 +3971,7 @@
       <c r="V115" s="2"/>
       <c r="W115" s="2"/>
       <c r="X115" s="2"/>
+      <c r="Y115" s="2"/>
     </row>
     <row r="116">
       <c r="A116" s="2"/>
@@ -3859,6 +3998,7 @@
       <c r="V116" s="2"/>
       <c r="W116" s="2"/>
       <c r="X116" s="2"/>
+      <c r="Y116" s="2"/>
     </row>
     <row r="117">
       <c r="A117" s="2"/>
@@ -3885,6 +4025,7 @@
       <c r="V117" s="2"/>
       <c r="W117" s="2"/>
       <c r="X117" s="2"/>
+      <c r="Y117" s="2"/>
     </row>
     <row r="118">
       <c r="A118" s="2"/>
@@ -3911,6 +4052,7 @@
       <c r="V118" s="2"/>
       <c r="W118" s="2"/>
       <c r="X118" s="2"/>
+      <c r="Y118" s="2"/>
     </row>
     <row r="119">
       <c r="A119" s="2"/>
@@ -3937,6 +4079,7 @@
       <c r="V119" s="2"/>
       <c r="W119" s="2"/>
       <c r="X119" s="2"/>
+      <c r="Y119" s="2"/>
     </row>
     <row r="120">
       <c r="A120" s="2"/>
@@ -3963,6 +4106,7 @@
       <c r="V120" s="2"/>
       <c r="W120" s="2"/>
       <c r="X120" s="2"/>
+      <c r="Y120" s="2"/>
     </row>
     <row r="121">
       <c r="A121" s="2"/>
@@ -3989,6 +4133,7 @@
       <c r="V121" s="2"/>
       <c r="W121" s="2"/>
       <c r="X121" s="2"/>
+      <c r="Y121" s="2"/>
     </row>
     <row r="122">
       <c r="A122" s="2"/>
@@ -4015,6 +4160,7 @@
       <c r="V122" s="2"/>
       <c r="W122" s="2"/>
       <c r="X122" s="2"/>
+      <c r="Y122" s="2"/>
     </row>
     <row r="123">
       <c r="A123" s="2"/>
@@ -4041,6 +4187,7 @@
       <c r="V123" s="2"/>
       <c r="W123" s="2"/>
       <c r="X123" s="2"/>
+      <c r="Y123" s="2"/>
     </row>
     <row r="124">
       <c r="A124" s="2"/>
@@ -4067,6 +4214,7 @@
       <c r="V124" s="2"/>
       <c r="W124" s="2"/>
       <c r="X124" s="2"/>
+      <c r="Y124" s="2"/>
     </row>
     <row r="125">
       <c r="A125" s="2"/>
@@ -4093,6 +4241,7 @@
       <c r="V125" s="2"/>
       <c r="W125" s="2"/>
       <c r="X125" s="2"/>
+      <c r="Y125" s="2"/>
     </row>
     <row r="126">
       <c r="A126" s="2"/>
@@ -4119,6 +4268,7 @@
       <c r="V126" s="2"/>
       <c r="W126" s="2"/>
       <c r="X126" s="2"/>
+      <c r="Y126" s="2"/>
     </row>
     <row r="127">
       <c r="A127" s="2"/>
@@ -4145,6 +4295,7 @@
       <c r="V127" s="2"/>
       <c r="W127" s="2"/>
       <c r="X127" s="2"/>
+      <c r="Y127" s="2"/>
     </row>
     <row r="128">
       <c r="A128" s="2"/>
@@ -4171,6 +4322,7 @@
       <c r="V128" s="2"/>
       <c r="W128" s="2"/>
       <c r="X128" s="2"/>
+      <c r="Y128" s="2"/>
     </row>
     <row r="129">
       <c r="A129" s="2"/>
@@ -4197,6 +4349,7 @@
       <c r="V129" s="2"/>
       <c r="W129" s="2"/>
       <c r="X129" s="2"/>
+      <c r="Y129" s="2"/>
     </row>
     <row r="130">
       <c r="A130" s="2"/>
@@ -4223,6 +4376,7 @@
       <c r="V130" s="2"/>
       <c r="W130" s="2"/>
       <c r="X130" s="2"/>
+      <c r="Y130" s="2"/>
     </row>
     <row r="131">
       <c r="A131" s="2"/>
@@ -4249,6 +4403,7 @@
       <c r="V131" s="2"/>
       <c r="W131" s="2"/>
       <c r="X131" s="2"/>
+      <c r="Y131" s="2"/>
     </row>
     <row r="132">
       <c r="A132" s="2"/>
@@ -4275,6 +4430,7 @@
       <c r="V132" s="2"/>
       <c r="W132" s="2"/>
       <c r="X132" s="2"/>
+      <c r="Y132" s="2"/>
     </row>
     <row r="133">
       <c r="A133" s="2"/>
@@ -4301,6 +4457,7 @@
       <c r="V133" s="2"/>
       <c r="W133" s="2"/>
       <c r="X133" s="2"/>
+      <c r="Y133" s="2"/>
     </row>
     <row r="134">
       <c r="A134" s="2"/>
@@ -4327,6 +4484,7 @@
       <c r="V134" s="2"/>
       <c r="W134" s="2"/>
       <c r="X134" s="2"/>
+      <c r="Y134" s="2"/>
     </row>
     <row r="135">
       <c r="A135" s="2"/>
@@ -4353,6 +4511,7 @@
       <c r="V135" s="2"/>
       <c r="W135" s="2"/>
       <c r="X135" s="2"/>
+      <c r="Y135" s="2"/>
     </row>
     <row r="136">
       <c r="A136" s="2"/>
@@ -4379,6 +4538,7 @@
       <c r="V136" s="2"/>
       <c r="W136" s="2"/>
       <c r="X136" s="2"/>
+      <c r="Y136" s="2"/>
     </row>
     <row r="137">
       <c r="A137" s="2"/>
@@ -4405,6 +4565,7 @@
       <c r="V137" s="2"/>
       <c r="W137" s="2"/>
       <c r="X137" s="2"/>
+      <c r="Y137" s="2"/>
     </row>
     <row r="138">
       <c r="A138" s="2"/>
@@ -4431,6 +4592,7 @@
       <c r="V138" s="2"/>
       <c r="W138" s="2"/>
       <c r="X138" s="2"/>
+      <c r="Y138" s="2"/>
     </row>
     <row r="139">
       <c r="A139" s="2"/>
@@ -4457,6 +4619,7 @@
       <c r="V139" s="2"/>
       <c r="W139" s="2"/>
       <c r="X139" s="2"/>
+      <c r="Y139" s="2"/>
     </row>
     <row r="140">
       <c r="A140" s="2"/>
@@ -4483,6 +4646,7 @@
       <c r="V140" s="2"/>
       <c r="W140" s="2"/>
       <c r="X140" s="2"/>
+      <c r="Y140" s="2"/>
     </row>
     <row r="141">
       <c r="A141" s="2"/>
@@ -4509,6 +4673,7 @@
       <c r="V141" s="2"/>
       <c r="W141" s="2"/>
       <c r="X141" s="2"/>
+      <c r="Y141" s="2"/>
     </row>
     <row r="142">
       <c r="A142" s="2"/>
@@ -4535,6 +4700,7 @@
       <c r="V142" s="2"/>
       <c r="W142" s="2"/>
       <c r="X142" s="2"/>
+      <c r="Y142" s="2"/>
     </row>
     <row r="143">
       <c r="A143" s="2"/>
@@ -4561,6 +4727,7 @@
       <c r="V143" s="2"/>
       <c r="W143" s="2"/>
       <c r="X143" s="2"/>
+      <c r="Y143" s="2"/>
     </row>
     <row r="144">
       <c r="A144" s="2"/>
@@ -4587,6 +4754,7 @@
       <c r="V144" s="2"/>
       <c r="W144" s="2"/>
       <c r="X144" s="2"/>
+      <c r="Y144" s="2"/>
     </row>
     <row r="145">
       <c r="A145" s="2"/>
@@ -4613,6 +4781,7 @@
       <c r="V145" s="2"/>
       <c r="W145" s="2"/>
       <c r="X145" s="2"/>
+      <c r="Y145" s="2"/>
     </row>
     <row r="146">
       <c r="A146" s="2"/>
@@ -4639,6 +4808,7 @@
       <c r="V146" s="2"/>
       <c r="W146" s="2"/>
       <c r="X146" s="2"/>
+      <c r="Y146" s="2"/>
     </row>
     <row r="147">
       <c r="A147" s="2"/>
@@ -4665,6 +4835,7 @@
       <c r="V147" s="2"/>
       <c r="W147" s="2"/>
       <c r="X147" s="2"/>
+      <c r="Y147" s="2"/>
     </row>
     <row r="148">
       <c r="A148" s="2"/>
@@ -4691,6 +4862,7 @@
       <c r="V148" s="2"/>
       <c r="W148" s="2"/>
       <c r="X148" s="2"/>
+      <c r="Y148" s="2"/>
     </row>
     <row r="149">
       <c r="A149" s="2"/>
@@ -4717,6 +4889,7 @@
       <c r="V149" s="2"/>
       <c r="W149" s="2"/>
       <c r="X149" s="2"/>
+      <c r="Y149" s="2"/>
     </row>
     <row r="150">
       <c r="A150" s="2"/>
@@ -4743,6 +4916,7 @@
       <c r="V150" s="2"/>
       <c r="W150" s="2"/>
       <c r="X150" s="2"/>
+      <c r="Y150" s="2"/>
     </row>
     <row r="151">
       <c r="A151" s="2"/>
@@ -4769,6 +4943,7 @@
       <c r="V151" s="2"/>
       <c r="W151" s="2"/>
       <c r="X151" s="2"/>
+      <c r="Y151" s="2"/>
     </row>
     <row r="152">
       <c r="A152" s="2"/>
@@ -4795,6 +4970,7 @@
       <c r="V152" s="2"/>
       <c r="W152" s="2"/>
       <c r="X152" s="2"/>
+      <c r="Y152" s="2"/>
     </row>
     <row r="153">
       <c r="A153" s="2"/>
@@ -4821,6 +4997,7 @@
       <c r="V153" s="2"/>
       <c r="W153" s="2"/>
       <c r="X153" s="2"/>
+      <c r="Y153" s="2"/>
     </row>
     <row r="154">
       <c r="A154" s="2"/>
@@ -4847,6 +5024,7 @@
       <c r="V154" s="2"/>
       <c r="W154" s="2"/>
       <c r="X154" s="2"/>
+      <c r="Y154" s="2"/>
     </row>
     <row r="155">
       <c r="A155" s="2"/>
@@ -4873,6 +5051,7 @@
       <c r="V155" s="2"/>
       <c r="W155" s="2"/>
       <c r="X155" s="2"/>
+      <c r="Y155" s="2"/>
     </row>
     <row r="156">
       <c r="A156" s="2"/>
@@ -4899,6 +5078,7 @@
       <c r="V156" s="2"/>
       <c r="W156" s="2"/>
       <c r="X156" s="2"/>
+      <c r="Y156" s="2"/>
     </row>
     <row r="157">
       <c r="A157" s="2"/>
@@ -4925,6 +5105,7 @@
       <c r="V157" s="2"/>
       <c r="W157" s="2"/>
       <c r="X157" s="2"/>
+      <c r="Y157" s="2"/>
     </row>
     <row r="158">
       <c r="A158" s="2"/>
@@ -4951,6 +5132,7 @@
       <c r="V158" s="2"/>
       <c r="W158" s="2"/>
       <c r="X158" s="2"/>
+      <c r="Y158" s="2"/>
     </row>
     <row r="159">
       <c r="A159" s="2"/>
@@ -4977,6 +5159,7 @@
       <c r="V159" s="2"/>
       <c r="W159" s="2"/>
       <c r="X159" s="2"/>
+      <c r="Y159" s="2"/>
     </row>
     <row r="160">
       <c r="A160" s="2"/>
@@ -5003,6 +5186,7 @@
       <c r="V160" s="2"/>
       <c r="W160" s="2"/>
       <c r="X160" s="2"/>
+      <c r="Y160" s="2"/>
     </row>
     <row r="161">
       <c r="A161" s="2"/>
@@ -5029,6 +5213,7 @@
       <c r="V161" s="2"/>
       <c r="W161" s="2"/>
       <c r="X161" s="2"/>
+      <c r="Y161" s="2"/>
     </row>
     <row r="162">
       <c r="A162" s="2"/>
@@ -5055,6 +5240,7 @@
       <c r="V162" s="2"/>
       <c r="W162" s="2"/>
       <c r="X162" s="2"/>
+      <c r="Y162" s="2"/>
     </row>
     <row r="163">
       <c r="A163" s="2"/>
@@ -5081,6 +5267,7 @@
       <c r="V163" s="2"/>
       <c r="W163" s="2"/>
       <c r="X163" s="2"/>
+      <c r="Y163" s="2"/>
     </row>
     <row r="164">
       <c r="A164" s="2"/>
@@ -5107,6 +5294,7 @@
       <c r="V164" s="2"/>
       <c r="W164" s="2"/>
       <c r="X164" s="2"/>
+      <c r="Y164" s="2"/>
     </row>
     <row r="165">
       <c r="A165" s="2"/>
@@ -5133,6 +5321,7 @@
       <c r="V165" s="2"/>
       <c r="W165" s="2"/>
       <c r="X165" s="2"/>
+      <c r="Y165" s="2"/>
     </row>
     <row r="166">
       <c r="A166" s="2"/>
@@ -5159,6 +5348,7 @@
       <c r="V166" s="2"/>
       <c r="W166" s="2"/>
       <c r="X166" s="2"/>
+      <c r="Y166" s="2"/>
     </row>
     <row r="167">
       <c r="A167" s="2"/>
@@ -5185,6 +5375,7 @@
       <c r="V167" s="2"/>
       <c r="W167" s="2"/>
       <c r="X167" s="2"/>
+      <c r="Y167" s="2"/>
     </row>
     <row r="168">
       <c r="A168" s="2"/>
@@ -5211,6 +5402,7 @@
       <c r="V168" s="2"/>
       <c r="W168" s="2"/>
       <c r="X168" s="2"/>
+      <c r="Y168" s="2"/>
     </row>
     <row r="169">
       <c r="A169" s="2"/>
@@ -5237,6 +5429,7 @@
       <c r="V169" s="2"/>
       <c r="W169" s="2"/>
       <c r="X169" s="2"/>
+      <c r="Y169" s="2"/>
     </row>
     <row r="170">
       <c r="A170" s="2"/>
@@ -5263,6 +5456,7 @@
       <c r="V170" s="2"/>
       <c r="W170" s="2"/>
       <c r="X170" s="2"/>
+      <c r="Y170" s="2"/>
     </row>
     <row r="171">
       <c r="A171" s="2"/>
@@ -5289,6 +5483,7 @@
       <c r="V171" s="2"/>
       <c r="W171" s="2"/>
       <c r="X171" s="2"/>
+      <c r="Y171" s="2"/>
     </row>
     <row r="172">
       <c r="A172" s="2"/>
@@ -5315,6 +5510,7 @@
       <c r="V172" s="2"/>
       <c r="W172" s="2"/>
       <c r="X172" s="2"/>
+      <c r="Y172" s="2"/>
     </row>
     <row r="173">
       <c r="A173" s="2"/>
@@ -5341,6 +5537,7 @@
       <c r="V173" s="2"/>
       <c r="W173" s="2"/>
       <c r="X173" s="2"/>
+      <c r="Y173" s="2"/>
     </row>
     <row r="174">
       <c r="A174" s="2"/>
@@ -5367,6 +5564,7 @@
       <c r="V174" s="2"/>
       <c r="W174" s="2"/>
       <c r="X174" s="2"/>
+      <c r="Y174" s="2"/>
     </row>
     <row r="175">
       <c r="A175" s="2"/>
@@ -5393,6 +5591,7 @@
       <c r="V175" s="2"/>
       <c r="W175" s="2"/>
       <c r="X175" s="2"/>
+      <c r="Y175" s="2"/>
     </row>
     <row r="176">
       <c r="A176" s="2"/>
@@ -5419,6 +5618,7 @@
       <c r="V176" s="2"/>
       <c r="W176" s="2"/>
       <c r="X176" s="2"/>
+      <c r="Y176" s="2"/>
     </row>
     <row r="177">
       <c r="A177" s="2"/>
@@ -5445,6 +5645,7 @@
       <c r="V177" s="2"/>
       <c r="W177" s="2"/>
       <c r="X177" s="2"/>
+      <c r="Y177" s="2"/>
     </row>
     <row r="178">
       <c r="A178" s="2"/>
@@ -5471,6 +5672,7 @@
       <c r="V178" s="2"/>
       <c r="W178" s="2"/>
       <c r="X178" s="2"/>
+      <c r="Y178" s="2"/>
     </row>
     <row r="179">
       <c r="A179" s="2"/>
@@ -5497,6 +5699,7 @@
       <c r="V179" s="2"/>
       <c r="W179" s="2"/>
       <c r="X179" s="2"/>
+      <c r="Y179" s="2"/>
     </row>
     <row r="180">
       <c r="A180" s="2"/>
@@ -5523,6 +5726,7 @@
       <c r="V180" s="2"/>
       <c r="W180" s="2"/>
       <c r="X180" s="2"/>
+      <c r="Y180" s="2"/>
     </row>
     <row r="181">
       <c r="A181" s="2"/>
@@ -5549,6 +5753,7 @@
       <c r="V181" s="2"/>
       <c r="W181" s="2"/>
       <c r="X181" s="2"/>
+      <c r="Y181" s="2"/>
     </row>
     <row r="182">
       <c r="A182" s="2"/>
@@ -5575,6 +5780,7 @@
       <c r="V182" s="2"/>
       <c r="W182" s="2"/>
       <c r="X182" s="2"/>
+      <c r="Y182" s="2"/>
     </row>
     <row r="183">
       <c r="A183" s="2"/>
@@ -5601,6 +5807,7 @@
       <c r="V183" s="2"/>
       <c r="W183" s="2"/>
       <c r="X183" s="2"/>
+      <c r="Y183" s="2"/>
     </row>
     <row r="184">
       <c r="A184" s="2"/>
@@ -5627,6 +5834,7 @@
       <c r="V184" s="2"/>
       <c r="W184" s="2"/>
       <c r="X184" s="2"/>
+      <c r="Y184" s="2"/>
     </row>
     <row r="185">
       <c r="A185" s="2"/>
@@ -5653,6 +5861,7 @@
       <c r="V185" s="2"/>
       <c r="W185" s="2"/>
       <c r="X185" s="2"/>
+      <c r="Y185" s="2"/>
     </row>
     <row r="186">
       <c r="A186" s="2"/>
@@ -5679,6 +5888,7 @@
       <c r="V186" s="2"/>
       <c r="W186" s="2"/>
       <c r="X186" s="2"/>
+      <c r="Y186" s="2"/>
     </row>
     <row r="187">
       <c r="A187" s="2"/>
@@ -5705,6 +5915,7 @@
       <c r="V187" s="2"/>
       <c r="W187" s="2"/>
       <c r="X187" s="2"/>
+      <c r="Y187" s="2"/>
     </row>
     <row r="188">
       <c r="A188" s="2"/>
@@ -5731,6 +5942,7 @@
       <c r="V188" s="2"/>
       <c r="W188" s="2"/>
       <c r="X188" s="2"/>
+      <c r="Y188" s="2"/>
     </row>
     <row r="189">
       <c r="A189" s="2"/>
@@ -5757,6 +5969,7 @@
       <c r="V189" s="2"/>
       <c r="W189" s="2"/>
       <c r="X189" s="2"/>
+      <c r="Y189" s="2"/>
     </row>
     <row r="190">
       <c r="A190" s="2"/>
@@ -5783,6 +5996,7 @@
       <c r="V190" s="2"/>
       <c r="W190" s="2"/>
       <c r="X190" s="2"/>
+      <c r="Y190" s="2"/>
     </row>
     <row r="191">
       <c r="A191" s="2"/>
@@ -5809,6 +6023,7 @@
       <c r="V191" s="2"/>
       <c r="W191" s="2"/>
       <c r="X191" s="2"/>
+      <c r="Y191" s="2"/>
     </row>
     <row r="192">
       <c r="A192" s="2"/>
@@ -5835,6 +6050,7 @@
       <c r="V192" s="2"/>
       <c r="W192" s="2"/>
       <c r="X192" s="2"/>
+      <c r="Y192" s="2"/>
     </row>
     <row r="193">
       <c r="A193" s="2"/>
@@ -5861,6 +6077,7 @@
       <c r="V193" s="2"/>
       <c r="W193" s="2"/>
       <c r="X193" s="2"/>
+      <c r="Y193" s="2"/>
     </row>
     <row r="194">
       <c r="A194" s="2"/>
@@ -5887,6 +6104,7 @@
       <c r="V194" s="2"/>
       <c r="W194" s="2"/>
       <c r="X194" s="2"/>
+      <c r="Y194" s="2"/>
     </row>
     <row r="195">
       <c r="A195" s="2"/>
@@ -5913,6 +6131,7 @@
       <c r="V195" s="2"/>
       <c r="W195" s="2"/>
       <c r="X195" s="2"/>
+      <c r="Y195" s="2"/>
     </row>
     <row r="196">
       <c r="A196" s="2"/>
@@ -5939,6 +6158,7 @@
       <c r="V196" s="2"/>
       <c r="W196" s="2"/>
       <c r="X196" s="2"/>
+      <c r="Y196" s="2"/>
     </row>
     <row r="197">
       <c r="A197" s="2"/>
@@ -5965,6 +6185,7 @@
       <c r="V197" s="2"/>
       <c r="W197" s="2"/>
       <c r="X197" s="2"/>
+      <c r="Y197" s="2"/>
     </row>
     <row r="198">
       <c r="A198" s="2"/>
@@ -5991,6 +6212,7 @@
       <c r="V198" s="2"/>
       <c r="W198" s="2"/>
       <c r="X198" s="2"/>
+      <c r="Y198" s="2"/>
     </row>
     <row r="199">
       <c r="A199" s="2"/>
@@ -6017,6 +6239,7 @@
       <c r="V199" s="2"/>
       <c r="W199" s="2"/>
       <c r="X199" s="2"/>
+      <c r="Y199" s="2"/>
     </row>
     <row r="200">
       <c r="A200" s="2"/>
@@ -6043,6 +6266,7 @@
       <c r="V200" s="2"/>
       <c r="W200" s="2"/>
       <c r="X200" s="2"/>
+      <c r="Y200" s="2"/>
     </row>
     <row r="201">
       <c r="A201" s="2"/>
@@ -6069,6 +6293,7 @@
       <c r="V201" s="2"/>
       <c r="W201" s="2"/>
       <c r="X201" s="2"/>
+      <c r="Y201" s="2"/>
     </row>
     <row r="202">
       <c r="A202" s="2"/>
@@ -6095,6 +6320,7 @@
       <c r="V202" s="2"/>
       <c r="W202" s="2"/>
       <c r="X202" s="2"/>
+      <c r="Y202" s="2"/>
     </row>
     <row r="203">
       <c r="A203" s="2"/>
@@ -6121,6 +6347,7 @@
       <c r="V203" s="2"/>
       <c r="W203" s="2"/>
       <c r="X203" s="2"/>
+      <c r="Y203" s="2"/>
     </row>
     <row r="204">
       <c r="A204" s="2"/>
@@ -6147,6 +6374,7 @@
       <c r="V204" s="2"/>
       <c r="W204" s="2"/>
       <c r="X204" s="2"/>
+      <c r="Y204" s="2"/>
     </row>
     <row r="205">
       <c r="A205" s="2"/>
@@ -6173,6 +6401,7 @@
       <c r="V205" s="2"/>
       <c r="W205" s="2"/>
       <c r="X205" s="2"/>
+      <c r="Y205" s="2"/>
     </row>
     <row r="206">
       <c r="A206" s="2"/>
@@ -6199,6 +6428,7 @@
       <c r="V206" s="2"/>
       <c r="W206" s="2"/>
       <c r="X206" s="2"/>
+      <c r="Y206" s="2"/>
     </row>
     <row r="207">
       <c r="A207" s="2"/>
@@ -6225,6 +6455,7 @@
       <c r="V207" s="2"/>
       <c r="W207" s="2"/>
       <c r="X207" s="2"/>
+      <c r="Y207" s="2"/>
     </row>
     <row r="208">
       <c r="A208" s="2"/>
@@ -6251,6 +6482,7 @@
       <c r="V208" s="2"/>
       <c r="W208" s="2"/>
       <c r="X208" s="2"/>
+      <c r="Y208" s="2"/>
     </row>
     <row r="209">
       <c r="A209" s="2"/>
@@ -6277,6 +6509,7 @@
       <c r="V209" s="2"/>
       <c r="W209" s="2"/>
       <c r="X209" s="2"/>
+      <c r="Y209" s="2"/>
     </row>
     <row r="210">
       <c r="A210" s="2"/>
@@ -6303,6 +6536,7 @@
       <c r="V210" s="2"/>
       <c r="W210" s="2"/>
       <c r="X210" s="2"/>
+      <c r="Y210" s="2"/>
     </row>
     <row r="211">
       <c r="A211" s="2"/>
@@ -6329,6 +6563,7 @@
       <c r="V211" s="2"/>
       <c r="W211" s="2"/>
       <c r="X211" s="2"/>
+      <c r="Y211" s="2"/>
     </row>
     <row r="212">
       <c r="A212" s="2"/>
@@ -6355,6 +6590,7 @@
       <c r="V212" s="2"/>
       <c r="W212" s="2"/>
       <c r="X212" s="2"/>
+      <c r="Y212" s="2"/>
     </row>
     <row r="213">
       <c r="A213" s="2"/>
@@ -6381,6 +6617,7 @@
       <c r="V213" s="2"/>
       <c r="W213" s="2"/>
       <c r="X213" s="2"/>
+      <c r="Y213" s="2"/>
     </row>
     <row r="214">
       <c r="A214" s="2"/>
@@ -6407,6 +6644,7 @@
       <c r="V214" s="2"/>
       <c r="W214" s="2"/>
       <c r="X214" s="2"/>
+      <c r="Y214" s="2"/>
     </row>
     <row r="215">
       <c r="A215" s="2"/>
@@ -6433,6 +6671,7 @@
       <c r="V215" s="2"/>
       <c r="W215" s="2"/>
       <c r="X215" s="2"/>
+      <c r="Y215" s="2"/>
     </row>
     <row r="216">
       <c r="A216" s="2"/>
@@ -6459,6 +6698,7 @@
       <c r="V216" s="2"/>
       <c r="W216" s="2"/>
       <c r="X216" s="2"/>
+      <c r="Y216" s="2"/>
     </row>
     <row r="217">
       <c r="A217" s="2"/>
@@ -6485,6 +6725,7 @@
       <c r="V217" s="2"/>
       <c r="W217" s="2"/>
       <c r="X217" s="2"/>
+      <c r="Y217" s="2"/>
     </row>
     <row r="218">
       <c r="A218" s="2"/>
@@ -6511,6 +6752,7 @@
       <c r="V218" s="2"/>
       <c r="W218" s="2"/>
       <c r="X218" s="2"/>
+      <c r="Y218" s="2"/>
     </row>
     <row r="219">
       <c r="A219" s="2"/>
@@ -6537,6 +6779,7 @@
       <c r="V219" s="2"/>
       <c r="W219" s="2"/>
       <c r="X219" s="2"/>
+      <c r="Y219" s="2"/>
     </row>
     <row r="220">
       <c r="A220" s="2"/>
@@ -6563,6 +6806,7 @@
       <c r="V220" s="2"/>
       <c r="W220" s="2"/>
       <c r="X220" s="2"/>
+      <c r="Y220" s="2"/>
     </row>
     <row r="221">
       <c r="A221" s="2"/>
@@ -6589,6 +6833,7 @@
       <c r="V221" s="2"/>
       <c r="W221" s="2"/>
       <c r="X221" s="2"/>
+      <c r="Y221" s="2"/>
     </row>
     <row r="222">
       <c r="A222" s="2"/>
@@ -6615,6 +6860,7 @@
       <c r="V222" s="2"/>
       <c r="W222" s="2"/>
       <c r="X222" s="2"/>
+      <c r="Y222" s="2"/>
     </row>
     <row r="223">
       <c r="A223" s="2"/>
@@ -6641,6 +6887,7 @@
       <c r="V223" s="2"/>
       <c r="W223" s="2"/>
       <c r="X223" s="2"/>
+      <c r="Y223" s="2"/>
     </row>
     <row r="224">
       <c r="A224" s="2"/>
@@ -6667,6 +6914,7 @@
       <c r="V224" s="2"/>
       <c r="W224" s="2"/>
       <c r="X224" s="2"/>
+      <c r="Y224" s="2"/>
     </row>
     <row r="225">
       <c r="A225" s="2"/>
@@ -6693,6 +6941,7 @@
       <c r="V225" s="2"/>
       <c r="W225" s="2"/>
       <c r="X225" s="2"/>
+      <c r="Y225" s="2"/>
     </row>
     <row r="226">
       <c r="A226" s="2"/>
@@ -6719,6 +6968,7 @@
       <c r="V226" s="2"/>
       <c r="W226" s="2"/>
       <c r="X226" s="2"/>
+      <c r="Y226" s="2"/>
     </row>
     <row r="227">
       <c r="A227" s="2"/>
@@ -6745,6 +6995,7 @@
       <c r="V227" s="2"/>
       <c r="W227" s="2"/>
       <c r="X227" s="2"/>
+      <c r="Y227" s="2"/>
     </row>
     <row r="228">
       <c r="A228" s="2"/>
@@ -6771,6 +7022,7 @@
       <c r="V228" s="2"/>
       <c r="W228" s="2"/>
       <c r="X228" s="2"/>
+      <c r="Y228" s="2"/>
     </row>
     <row r="229">
       <c r="A229" s="2"/>
@@ -6797,6 +7049,7 @@
       <c r="V229" s="2"/>
       <c r="W229" s="2"/>
       <c r="X229" s="2"/>
+      <c r="Y229" s="2"/>
     </row>
     <row r="230">
       <c r="A230" s="2"/>
@@ -6823,6 +7076,7 @@
       <c r="V230" s="2"/>
       <c r="W230" s="2"/>
       <c r="X230" s="2"/>
+      <c r="Y230" s="2"/>
     </row>
     <row r="231">
       <c r="A231" s="2"/>
@@ -6849,6 +7103,7 @@
       <c r="V231" s="2"/>
       <c r="W231" s="2"/>
       <c r="X231" s="2"/>
+      <c r="Y231" s="2"/>
     </row>
     <row r="232">
       <c r="A232" s="2"/>
@@ -6875,6 +7130,7 @@
       <c r="V232" s="2"/>
       <c r="W232" s="2"/>
       <c r="X232" s="2"/>
+      <c r="Y232" s="2"/>
     </row>
     <row r="233">
       <c r="A233" s="2"/>
@@ -6901,6 +7157,7 @@
       <c r="V233" s="2"/>
       <c r="W233" s="2"/>
       <c r="X233" s="2"/>
+      <c r="Y233" s="2"/>
     </row>
     <row r="234">
       <c r="A234" s="2"/>
@@ -6927,6 +7184,7 @@
       <c r="V234" s="2"/>
       <c r="W234" s="2"/>
       <c r="X234" s="2"/>
+      <c r="Y234" s="2"/>
     </row>
     <row r="235">
       <c r="A235" s="2"/>
@@ -6953,6 +7211,7 @@
       <c r="V235" s="2"/>
       <c r="W235" s="2"/>
       <c r="X235" s="2"/>
+      <c r="Y235" s="2"/>
     </row>
     <row r="236">
       <c r="A236" s="2"/>
@@ -6979,6 +7238,7 @@
       <c r="V236" s="2"/>
       <c r="W236" s="2"/>
       <c r="X236" s="2"/>
+      <c r="Y236" s="2"/>
     </row>
     <row r="237">
       <c r="A237" s="2"/>
@@ -7005,6 +7265,7 @@
       <c r="V237" s="2"/>
       <c r="W237" s="2"/>
       <c r="X237" s="2"/>
+      <c r="Y237" s="2"/>
     </row>
     <row r="238">
       <c r="A238" s="2"/>
@@ -7031,6 +7292,7 @@
       <c r="V238" s="2"/>
       <c r="W238" s="2"/>
       <c r="X238" s="2"/>
+      <c r="Y238" s="2"/>
     </row>
     <row r="239">
       <c r="A239" s="2"/>
@@ -7057,6 +7319,7 @@
       <c r="V239" s="2"/>
       <c r="W239" s="2"/>
       <c r="X239" s="2"/>
+      <c r="Y239" s="2"/>
     </row>
     <row r="240">
       <c r="A240" s="2"/>
@@ -7083,6 +7346,7 @@
       <c r="V240" s="2"/>
       <c r="W240" s="2"/>
       <c r="X240" s="2"/>
+      <c r="Y240" s="2"/>
     </row>
     <row r="241">
       <c r="A241" s="2"/>
@@ -7109,6 +7373,7 @@
       <c r="V241" s="2"/>
       <c r="W241" s="2"/>
       <c r="X241" s="2"/>
+      <c r="Y241" s="2"/>
     </row>
     <row r="242">
       <c r="A242" s="2"/>
@@ -7135,6 +7400,7 @@
       <c r="V242" s="2"/>
       <c r="W242" s="2"/>
       <c r="X242" s="2"/>
+      <c r="Y242" s="2"/>
     </row>
     <row r="243">
       <c r="A243" s="2"/>
@@ -7161,6 +7427,7 @@
       <c r="V243" s="2"/>
       <c r="W243" s="2"/>
       <c r="X243" s="2"/>
+      <c r="Y243" s="2"/>
     </row>
     <row r="244">
       <c r="A244" s="2"/>
@@ -7187,6 +7454,7 @@
       <c r="V244" s="2"/>
       <c r="W244" s="2"/>
       <c r="X244" s="2"/>
+      <c r="Y244" s="2"/>
     </row>
     <row r="245">
       <c r="A245" s="2"/>
@@ -7213,6 +7481,7 @@
       <c r="V245" s="2"/>
       <c r="W245" s="2"/>
       <c r="X245" s="2"/>
+      <c r="Y245" s="2"/>
     </row>
     <row r="246">
       <c r="A246" s="2"/>
@@ -7239,6 +7508,7 @@
       <c r="V246" s="2"/>
       <c r="W246" s="2"/>
       <c r="X246" s="2"/>
+      <c r="Y246" s="2"/>
     </row>
     <row r="247">
       <c r="A247" s="2"/>
@@ -7265,6 +7535,7 @@
       <c r="V247" s="2"/>
       <c r="W247" s="2"/>
       <c r="X247" s="2"/>
+      <c r="Y247" s="2"/>
     </row>
     <row r="248">
       <c r="A248" s="2"/>
@@ -7291,6 +7562,7 @@
       <c r="V248" s="2"/>
       <c r="W248" s="2"/>
       <c r="X248" s="2"/>
+      <c r="Y248" s="2"/>
     </row>
     <row r="249">
       <c r="A249" s="2"/>
@@ -7317,6 +7589,7 @@
       <c r="V249" s="2"/>
       <c r="W249" s="2"/>
       <c r="X249" s="2"/>
+      <c r="Y249" s="2"/>
     </row>
     <row r="250">
       <c r="A250" s="2"/>
@@ -7343,6 +7616,7 @@
       <c r="V250" s="2"/>
       <c r="W250" s="2"/>
       <c r="X250" s="2"/>
+      <c r="Y250" s="2"/>
     </row>
     <row r="251">
       <c r="A251" s="2"/>
@@ -7369,6 +7643,7 @@
       <c r="V251" s="2"/>
       <c r="W251" s="2"/>
       <c r="X251" s="2"/>
+      <c r="Y251" s="2"/>
     </row>
     <row r="252">
       <c r="A252" s="2"/>
@@ -7395,6 +7670,7 @@
       <c r="V252" s="2"/>
       <c r="W252" s="2"/>
       <c r="X252" s="2"/>
+      <c r="Y252" s="2"/>
     </row>
     <row r="253">
       <c r="A253" s="2"/>
@@ -7421,6 +7697,7 @@
       <c r="V253" s="2"/>
       <c r="W253" s="2"/>
       <c r="X253" s="2"/>
+      <c r="Y253" s="2"/>
     </row>
     <row r="254">
       <c r="A254" s="2"/>
@@ -7447,6 +7724,7 @@
       <c r="V254" s="2"/>
       <c r="W254" s="2"/>
       <c r="X254" s="2"/>
+      <c r="Y254" s="2"/>
     </row>
     <row r="255">
       <c r="A255" s="2"/>
@@ -7473,6 +7751,7 @@
       <c r="V255" s="2"/>
       <c r="W255" s="2"/>
       <c r="X255" s="2"/>
+      <c r="Y255" s="2"/>
     </row>
     <row r="256">
       <c r="A256" s="2"/>
@@ -7499,6 +7778,7 @@
       <c r="V256" s="2"/>
       <c r="W256" s="2"/>
       <c r="X256" s="2"/>
+      <c r="Y256" s="2"/>
     </row>
     <row r="257">
       <c r="A257" s="2"/>
@@ -7525,6 +7805,7 @@
       <c r="V257" s="2"/>
       <c r="W257" s="2"/>
       <c r="X257" s="2"/>
+      <c r="Y257" s="2"/>
     </row>
     <row r="258">
       <c r="A258" s="2"/>
@@ -7551,6 +7832,7 @@
       <c r="V258" s="2"/>
       <c r="W258" s="2"/>
       <c r="X258" s="2"/>
+      <c r="Y258" s="2"/>
     </row>
     <row r="259">
       <c r="A259" s="2"/>
@@ -7577,6 +7859,7 @@
       <c r="V259" s="2"/>
       <c r="W259" s="2"/>
       <c r="X259" s="2"/>
+      <c r="Y259" s="2"/>
     </row>
     <row r="260">
       <c r="A260" s="2"/>
@@ -7603,6 +7886,7 @@
       <c r="V260" s="2"/>
       <c r="W260" s="2"/>
       <c r="X260" s="2"/>
+      <c r="Y260" s="2"/>
     </row>
     <row r="261">
       <c r="A261" s="2"/>
@@ -7629,6 +7913,7 @@
       <c r="V261" s="2"/>
       <c r="W261" s="2"/>
       <c r="X261" s="2"/>
+      <c r="Y261" s="2"/>
     </row>
     <row r="262">
       <c r="A262" s="2"/>
@@ -7655,6 +7940,7 @@
       <c r="V262" s="2"/>
       <c r="W262" s="2"/>
       <c r="X262" s="2"/>
+      <c r="Y262" s="2"/>
     </row>
     <row r="263">
       <c r="A263" s="2"/>
@@ -7681,6 +7967,7 @@
       <c r="V263" s="2"/>
       <c r="W263" s="2"/>
       <c r="X263" s="2"/>
+      <c r="Y263" s="2"/>
     </row>
     <row r="264">
       <c r="A264" s="2"/>
@@ -7707,6 +7994,7 @@
       <c r="V264" s="2"/>
       <c r="W264" s="2"/>
       <c r="X264" s="2"/>
+      <c r="Y264" s="2"/>
     </row>
     <row r="265">
       <c r="A265" s="2"/>
@@ -7733,6 +8021,7 @@
       <c r="V265" s="2"/>
       <c r="W265" s="2"/>
       <c r="X265" s="2"/>
+      <c r="Y265" s="2"/>
     </row>
     <row r="266">
       <c r="A266" s="2"/>
@@ -7759,6 +8048,7 @@
       <c r="V266" s="2"/>
       <c r="W266" s="2"/>
       <c r="X266" s="2"/>
+      <c r="Y266" s="2"/>
     </row>
     <row r="267">
       <c r="A267" s="2"/>
@@ -7785,6 +8075,7 @@
       <c r="V267" s="2"/>
       <c r="W267" s="2"/>
       <c r="X267" s="2"/>
+      <c r="Y267" s="2"/>
     </row>
     <row r="268">
       <c r="A268" s="2"/>
@@ -7811,6 +8102,7 @@
       <c r="V268" s="2"/>
       <c r="W268" s="2"/>
       <c r="X268" s="2"/>
+      <c r="Y268" s="2"/>
     </row>
     <row r="269">
       <c r="A269" s="2"/>
@@ -7837,6 +8129,7 @@
       <c r="V269" s="2"/>
       <c r="W269" s="2"/>
       <c r="X269" s="2"/>
+      <c r="Y269" s="2"/>
     </row>
     <row r="270">
       <c r="A270" s="2"/>
@@ -7863,6 +8156,7 @@
       <c r="V270" s="2"/>
       <c r="W270" s="2"/>
       <c r="X270" s="2"/>
+      <c r="Y270" s="2"/>
     </row>
     <row r="271">
       <c r="A271" s="2"/>
@@ -7889,6 +8183,7 @@
       <c r="V271" s="2"/>
       <c r="W271" s="2"/>
       <c r="X271" s="2"/>
+      <c r="Y271" s="2"/>
     </row>
     <row r="272">
       <c r="A272" s="2"/>
@@ -7915,6 +8210,7 @@
       <c r="V272" s="2"/>
       <c r="W272" s="2"/>
       <c r="X272" s="2"/>
+      <c r="Y272" s="2"/>
     </row>
     <row r="273">
       <c r="A273" s="2"/>
@@ -7941,6 +8237,7 @@
       <c r="V273" s="2"/>
       <c r="W273" s="2"/>
       <c r="X273" s="2"/>
+      <c r="Y273" s="2"/>
     </row>
     <row r="274">
       <c r="A274" s="2"/>
@@ -7967,6 +8264,7 @@
       <c r="V274" s="2"/>
       <c r="W274" s="2"/>
       <c r="X274" s="2"/>
+      <c r="Y274" s="2"/>
     </row>
     <row r="275">
       <c r="A275" s="2"/>
@@ -7993,6 +8291,7 @@
       <c r="V275" s="2"/>
       <c r="W275" s="2"/>
       <c r="X275" s="2"/>
+      <c r="Y275" s="2"/>
     </row>
     <row r="276">
       <c r="A276" s="2"/>
@@ -8019,6 +8318,7 @@
       <c r="V276" s="2"/>
       <c r="W276" s="2"/>
       <c r="X276" s="2"/>
+      <c r="Y276" s="2"/>
     </row>
     <row r="277">
       <c r="A277" s="2"/>
@@ -8045,6 +8345,7 @@
       <c r="V277" s="2"/>
       <c r="W277" s="2"/>
       <c r="X277" s="2"/>
+      <c r="Y277" s="2"/>
     </row>
     <row r="278">
       <c r="A278" s="2"/>
@@ -8071,6 +8372,7 @@
       <c r="V278" s="2"/>
       <c r="W278" s="2"/>
       <c r="X278" s="2"/>
+      <c r="Y278" s="2"/>
     </row>
     <row r="279">
       <c r="A279" s="2"/>
@@ -8097,6 +8399,7 @@
       <c r="V279" s="2"/>
       <c r="W279" s="2"/>
       <c r="X279" s="2"/>
+      <c r="Y279" s="2"/>
     </row>
     <row r="280">
       <c r="A280" s="2"/>
@@ -8123,6 +8426,7 @@
       <c r="V280" s="2"/>
       <c r="W280" s="2"/>
       <c r="X280" s="2"/>
+      <c r="Y280" s="2"/>
     </row>
     <row r="281">
       <c r="A281" s="2"/>
@@ -8149,6 +8453,7 @@
       <c r="V281" s="2"/>
       <c r="W281" s="2"/>
       <c r="X281" s="2"/>
+      <c r="Y281" s="2"/>
     </row>
     <row r="282">
       <c r="A282" s="2"/>
@@ -8175,6 +8480,7 @@
       <c r="V282" s="2"/>
       <c r="W282" s="2"/>
       <c r="X282" s="2"/>
+      <c r="Y282" s="2"/>
     </row>
     <row r="283">
       <c r="A283" s="2"/>
@@ -8201,6 +8507,7 @@
       <c r="V283" s="2"/>
       <c r="W283" s="2"/>
       <c r="X283" s="2"/>
+      <c r="Y283" s="2"/>
     </row>
     <row r="284">
       <c r="A284" s="2"/>
@@ -8227,6 +8534,7 @@
       <c r="V284" s="2"/>
       <c r="W284" s="2"/>
       <c r="X284" s="2"/>
+      <c r="Y284" s="2"/>
     </row>
     <row r="285">
       <c r="A285" s="2"/>
@@ -8253,6 +8561,7 @@
       <c r="V285" s="2"/>
       <c r="W285" s="2"/>
       <c r="X285" s="2"/>
+      <c r="Y285" s="2"/>
     </row>
     <row r="286">
       <c r="A286" s="2"/>
@@ -8279,6 +8588,7 @@
       <c r="V286" s="2"/>
       <c r="W286" s="2"/>
       <c r="X286" s="2"/>
+      <c r="Y286" s="2"/>
     </row>
     <row r="287">
       <c r="A287" s="2"/>
@@ -8305,6 +8615,7 @@
       <c r="V287" s="2"/>
       <c r="W287" s="2"/>
       <c r="X287" s="2"/>
+      <c r="Y287" s="2"/>
     </row>
     <row r="288">
       <c r="A288" s="2"/>
@@ -8331,6 +8642,7 @@
       <c r="V288" s="2"/>
       <c r="W288" s="2"/>
       <c r="X288" s="2"/>
+      <c r="Y288" s="2"/>
     </row>
     <row r="289">
       <c r="A289" s="2"/>
@@ -8357,6 +8669,7 @@
       <c r="V289" s="2"/>
       <c r="W289" s="2"/>
       <c r="X289" s="2"/>
+      <c r="Y289" s="2"/>
     </row>
     <row r="290">
       <c r="A290" s="2"/>
@@ -8383,6 +8696,7 @@
       <c r="V290" s="2"/>
       <c r="W290" s="2"/>
       <c r="X290" s="2"/>
+      <c r="Y290" s="2"/>
     </row>
     <row r="291">
       <c r="A291" s="2"/>
@@ -8409,6 +8723,7 @@
       <c r="V291" s="2"/>
       <c r="W291" s="2"/>
       <c r="X291" s="2"/>
+      <c r="Y291" s="2"/>
     </row>
     <row r="292">
       <c r="A292" s="2"/>
@@ -8435,6 +8750,7 @@
       <c r="V292" s="2"/>
       <c r="W292" s="2"/>
       <c r="X292" s="2"/>
+      <c r="Y292" s="2"/>
     </row>
     <row r="293">
       <c r="A293" s="2"/>
@@ -8461,6 +8777,7 @@
       <c r="V293" s="2"/>
       <c r="W293" s="2"/>
       <c r="X293" s="2"/>
+      <c r="Y293" s="2"/>
     </row>
     <row r="294">
       <c r="A294" s="2"/>
@@ -8487,6 +8804,7 @@
       <c r="V294" s="2"/>
       <c r="W294" s="2"/>
       <c r="X294" s="2"/>
+      <c r="Y294" s="2"/>
     </row>
     <row r="295">
       <c r="A295" s="2"/>
@@ -8513,6 +8831,7 @@
       <c r="V295" s="2"/>
       <c r="W295" s="2"/>
       <c r="X295" s="2"/>
+      <c r="Y295" s="2"/>
     </row>
     <row r="296">
       <c r="A296" s="2"/>
@@ -8539,6 +8858,7 @@
       <c r="V296" s="2"/>
       <c r="W296" s="2"/>
       <c r="X296" s="2"/>
+      <c r="Y296" s="2"/>
     </row>
     <row r="297">
       <c r="A297" s="2"/>
@@ -8565,6 +8885,7 @@
       <c r="V297" s="2"/>
       <c r="W297" s="2"/>
       <c r="X297" s="2"/>
+      <c r="Y297" s="2"/>
     </row>
     <row r="298">
       <c r="A298" s="2"/>
@@ -8591,6 +8912,7 @@
       <c r="V298" s="2"/>
       <c r="W298" s="2"/>
       <c r="X298" s="2"/>
+      <c r="Y298" s="2"/>
     </row>
     <row r="299">
       <c r="A299" s="2"/>
@@ -8617,6 +8939,7 @@
       <c r="V299" s="2"/>
       <c r="W299" s="2"/>
       <c r="X299" s="2"/>
+      <c r="Y299" s="2"/>
     </row>
     <row r="300">
       <c r="A300" s="2"/>
@@ -8643,6 +8966,7 @@
       <c r="V300" s="2"/>
       <c r="W300" s="2"/>
       <c r="X300" s="2"/>
+      <c r="Y300" s="2"/>
     </row>
     <row r="301">
       <c r="A301" s="2"/>
@@ -8669,6 +8993,7 @@
       <c r="V301" s="2"/>
       <c r="W301" s="2"/>
       <c r="X301" s="2"/>
+      <c r="Y301" s="2"/>
     </row>
     <row r="302">
       <c r="A302" s="2"/>
@@ -8695,6 +9020,7 @@
       <c r="V302" s="2"/>
       <c r="W302" s="2"/>
       <c r="X302" s="2"/>
+      <c r="Y302" s="2"/>
     </row>
     <row r="303">
       <c r="A303" s="2"/>
@@ -8721,6 +9047,7 @@
       <c r="V303" s="2"/>
       <c r="W303" s="2"/>
       <c r="X303" s="2"/>
+      <c r="Y303" s="2"/>
     </row>
     <row r="304">
       <c r="A304" s="2"/>
@@ -8747,6 +9074,7 @@
       <c r="V304" s="2"/>
       <c r="W304" s="2"/>
       <c r="X304" s="2"/>
+      <c r="Y304" s="2"/>
     </row>
     <row r="305">
       <c r="A305" s="2"/>
@@ -8773,6 +9101,7 @@
       <c r="V305" s="2"/>
       <c r="W305" s="2"/>
       <c r="X305" s="2"/>
+      <c r="Y305" s="2"/>
     </row>
     <row r="306">
       <c r="A306" s="2"/>
@@ -8799,6 +9128,7 @@
       <c r="V306" s="2"/>
       <c r="W306" s="2"/>
       <c r="X306" s="2"/>
+      <c r="Y306" s="2"/>
     </row>
     <row r="307">
       <c r="A307" s="2"/>
@@ -8825,6 +9155,7 @@
       <c r="V307" s="2"/>
       <c r="W307" s="2"/>
       <c r="X307" s="2"/>
+      <c r="Y307" s="2"/>
     </row>
     <row r="308">
       <c r="A308" s="2"/>
@@ -8851,6 +9182,7 @@
       <c r="V308" s="2"/>
       <c r="W308" s="2"/>
       <c r="X308" s="2"/>
+      <c r="Y308" s="2"/>
     </row>
     <row r="309">
       <c r="A309" s="2"/>
@@ -8877,6 +9209,7 @@
       <c r="V309" s="2"/>
       <c r="W309" s="2"/>
       <c r="X309" s="2"/>
+      <c r="Y309" s="2"/>
     </row>
     <row r="310">
       <c r="A310" s="2"/>
@@ -8903,6 +9236,7 @@
       <c r="V310" s="2"/>
       <c r="W310" s="2"/>
       <c r="X310" s="2"/>
+      <c r="Y310" s="2"/>
     </row>
     <row r="311">
       <c r="A311" s="2"/>
@@ -8929,6 +9263,7 @@
       <c r="V311" s="2"/>
       <c r="W311" s="2"/>
       <c r="X311" s="2"/>
+      <c r="Y311" s="2"/>
     </row>
     <row r="312">
       <c r="A312" s="2"/>
@@ -8955,6 +9290,7 @@
       <c r="V312" s="2"/>
       <c r="W312" s="2"/>
       <c r="X312" s="2"/>
+      <c r="Y312" s="2"/>
     </row>
     <row r="313">
       <c r="A313" s="2"/>
@@ -8981,6 +9317,7 @@
       <c r="V313" s="2"/>
       <c r="W313" s="2"/>
       <c r="X313" s="2"/>
+      <c r="Y313" s="2"/>
     </row>
     <row r="314">
       <c r="A314" s="2"/>
@@ -9007,6 +9344,7 @@
       <c r="V314" s="2"/>
       <c r="W314" s="2"/>
       <c r="X314" s="2"/>
+      <c r="Y314" s="2"/>
     </row>
     <row r="315">
       <c r="A315" s="2"/>
@@ -9033,6 +9371,7 @@
       <c r="V315" s="2"/>
       <c r="W315" s="2"/>
       <c r="X315" s="2"/>
+      <c r="Y315" s="2"/>
     </row>
     <row r="316">
       <c r="A316" s="2"/>
@@ -9059,6 +9398,7 @@
       <c r="V316" s="2"/>
       <c r="W316" s="2"/>
       <c r="X316" s="2"/>
+      <c r="Y316" s="2"/>
     </row>
     <row r="317">
       <c r="A317" s="2"/>
@@ -9085,6 +9425,7 @@
       <c r="V317" s="2"/>
       <c r="W317" s="2"/>
       <c r="X317" s="2"/>
+      <c r="Y317" s="2"/>
     </row>
     <row r="318">
       <c r="A318" s="2"/>
@@ -9111,6 +9452,7 @@
       <c r="V318" s="2"/>
       <c r="W318" s="2"/>
       <c r="X318" s="2"/>
+      <c r="Y318" s="2"/>
     </row>
     <row r="319">
       <c r="A319" s="2"/>
@@ -9137,6 +9479,7 @@
       <c r="V319" s="2"/>
       <c r="W319" s="2"/>
       <c r="X319" s="2"/>
+      <c r="Y319" s="2"/>
     </row>
     <row r="320">
       <c r="A320" s="2"/>
@@ -9163,6 +9506,7 @@
       <c r="V320" s="2"/>
       <c r="W320" s="2"/>
       <c r="X320" s="2"/>
+      <c r="Y320" s="2"/>
     </row>
     <row r="321">
       <c r="A321" s="2"/>
@@ -9189,6 +9533,7 @@
       <c r="V321" s="2"/>
       <c r="W321" s="2"/>
       <c r="X321" s="2"/>
+      <c r="Y321" s="2"/>
     </row>
     <row r="322">
       <c r="A322" s="2"/>
@@ -9215,6 +9560,7 @@
       <c r="V322" s="2"/>
       <c r="W322" s="2"/>
       <c r="X322" s="2"/>
+      <c r="Y322" s="2"/>
     </row>
     <row r="323">
       <c r="A323" s="2"/>
@@ -9241,6 +9587,7 @@
       <c r="V323" s="2"/>
       <c r="W323" s="2"/>
       <c r="X323" s="2"/>
+      <c r="Y323" s="2"/>
     </row>
     <row r="324">
       <c r="A324" s="2"/>
@@ -9267,6 +9614,7 @@
       <c r="V324" s="2"/>
       <c r="W324" s="2"/>
       <c r="X324" s="2"/>
+      <c r="Y324" s="2"/>
     </row>
     <row r="325">
       <c r="A325" s="2"/>
@@ -9293,6 +9641,7 @@
       <c r="V325" s="2"/>
       <c r="W325" s="2"/>
       <c r="X325" s="2"/>
+      <c r="Y325" s="2"/>
     </row>
     <row r="326">
       <c r="A326" s="2"/>
@@ -9319,6 +9668,7 @@
       <c r="V326" s="2"/>
       <c r="W326" s="2"/>
       <c r="X326" s="2"/>
+      <c r="Y326" s="2"/>
     </row>
     <row r="327">
       <c r="A327" s="2"/>
@@ -9345,6 +9695,7 @@
       <c r="V327" s="2"/>
       <c r="W327" s="2"/>
       <c r="X327" s="2"/>
+      <c r="Y327" s="2"/>
     </row>
     <row r="328">
       <c r="A328" s="2"/>
@@ -9371,6 +9722,7 @@
       <c r="V328" s="2"/>
       <c r="W328" s="2"/>
       <c r="X328" s="2"/>
+      <c r="Y328" s="2"/>
     </row>
     <row r="329">
       <c r="A329" s="2"/>
@@ -9397,6 +9749,7 @@
       <c r="V329" s="2"/>
       <c r="W329" s="2"/>
       <c r="X329" s="2"/>
+      <c r="Y329" s="2"/>
     </row>
     <row r="330">
       <c r="A330" s="2"/>
@@ -9423,6 +9776,7 @@
       <c r="V330" s="2"/>
       <c r="W330" s="2"/>
       <c r="X330" s="2"/>
+      <c r="Y330" s="2"/>
     </row>
     <row r="331">
       <c r="A331" s="2"/>
@@ -9449,6 +9803,7 @@
       <c r="V331" s="2"/>
       <c r="W331" s="2"/>
       <c r="X331" s="2"/>
+      <c r="Y331" s="2"/>
     </row>
     <row r="332">
       <c r="A332" s="2"/>
@@ -9475,6 +9830,7 @@
       <c r="V332" s="2"/>
       <c r="W332" s="2"/>
       <c r="X332" s="2"/>
+      <c r="Y332" s="2"/>
     </row>
     <row r="333">
       <c r="A333" s="2"/>
@@ -9501,6 +9857,7 @@
       <c r="V333" s="2"/>
       <c r="W333" s="2"/>
       <c r="X333" s="2"/>
+      <c r="Y333" s="2"/>
     </row>
     <row r="334">
       <c r="A334" s="2"/>
@@ -9527,6 +9884,7 @@
       <c r="V334" s="2"/>
       <c r="W334" s="2"/>
       <c r="X334" s="2"/>
+      <c r="Y334" s="2"/>
     </row>
     <row r="335">
       <c r="A335" s="2"/>
@@ -9553,6 +9911,7 @@
       <c r="V335" s="2"/>
       <c r="W335" s="2"/>
       <c r="X335" s="2"/>
+      <c r="Y335" s="2"/>
     </row>
     <row r="336">
       <c r="A336" s="2"/>
@@ -9579,6 +9938,7 @@
       <c r="V336" s="2"/>
       <c r="W336" s="2"/>
       <c r="X336" s="2"/>
+      <c r="Y336" s="2"/>
     </row>
     <row r="337">
       <c r="A337" s="2"/>
@@ -9605,6 +9965,7 @@
       <c r="V337" s="2"/>
       <c r="W337" s="2"/>
       <c r="X337" s="2"/>
+      <c r="Y337" s="2"/>
     </row>
     <row r="338">
       <c r="A338" s="2"/>
@@ -9631,6 +9992,7 @@
       <c r="V338" s="2"/>
       <c r="W338" s="2"/>
       <c r="X338" s="2"/>
+      <c r="Y338" s="2"/>
     </row>
     <row r="339">
       <c r="A339" s="2"/>
@@ -9657,6 +10019,7 @@
       <c r="V339" s="2"/>
       <c r="W339" s="2"/>
       <c r="X339" s="2"/>
+      <c r="Y339" s="2"/>
     </row>
     <row r="340">
       <c r="A340" s="2"/>
@@ -9683,6 +10046,7 @@
       <c r="V340" s="2"/>
       <c r="W340" s="2"/>
       <c r="X340" s="2"/>
+      <c r="Y340" s="2"/>
     </row>
     <row r="341">
       <c r="A341" s="2"/>
@@ -9709,6 +10073,7 @@
       <c r="V341" s="2"/>
       <c r="W341" s="2"/>
       <c r="X341" s="2"/>
+      <c r="Y341" s="2"/>
     </row>
     <row r="342">
       <c r="A342" s="2"/>
@@ -9735,6 +10100,7 @@
       <c r="V342" s="2"/>
       <c r="W342" s="2"/>
       <c r="X342" s="2"/>
+      <c r="Y342" s="2"/>
     </row>
     <row r="343">
       <c r="A343" s="2"/>
@@ -9761,6 +10127,7 @@
       <c r="V343" s="2"/>
       <c r="W343" s="2"/>
       <c r="X343" s="2"/>
+      <c r="Y343" s="2"/>
     </row>
     <row r="344">
       <c r="A344" s="2"/>
@@ -9787,6 +10154,7 @@
       <c r="V344" s="2"/>
       <c r="W344" s="2"/>
       <c r="X344" s="2"/>
+      <c r="Y344" s="2"/>
     </row>
     <row r="345">
       <c r="A345" s="2"/>
@@ -9813,6 +10181,7 @@
       <c r="V345" s="2"/>
       <c r="W345" s="2"/>
       <c r="X345" s="2"/>
+      <c r="Y345" s="2"/>
     </row>
     <row r="346">
       <c r="A346" s="2"/>
@@ -9839,6 +10208,7 @@
       <c r="V346" s="2"/>
       <c r="W346" s="2"/>
       <c r="X346" s="2"/>
+      <c r="Y346" s="2"/>
     </row>
     <row r="347">
       <c r="A347" s="2"/>
@@ -9865,6 +10235,7 @@
       <c r="V347" s="2"/>
       <c r="W347" s="2"/>
       <c r="X347" s="2"/>
+      <c r="Y347" s="2"/>
     </row>
     <row r="348">
       <c r="A348" s="2"/>
@@ -9891,6 +10262,7 @@
       <c r="V348" s="2"/>
       <c r="W348" s="2"/>
       <c r="X348" s="2"/>
+      <c r="Y348" s="2"/>
     </row>
     <row r="349">
       <c r="A349" s="2"/>
@@ -9917,6 +10289,7 @@
       <c r="V349" s="2"/>
       <c r="W349" s="2"/>
       <c r="X349" s="2"/>
+      <c r="Y349" s="2"/>
     </row>
     <row r="350">
       <c r="A350" s="2"/>
@@ -9943,6 +10316,7 @@
       <c r="V350" s="2"/>
       <c r="W350" s="2"/>
       <c r="X350" s="2"/>
+      <c r="Y350" s="2"/>
     </row>
     <row r="351">
       <c r="A351" s="2"/>
@@ -9969,6 +10343,7 @@
       <c r="V351" s="2"/>
       <c r="W351" s="2"/>
       <c r="X351" s="2"/>
+      <c r="Y351" s="2"/>
     </row>
     <row r="352">
       <c r="A352" s="2"/>
@@ -9995,6 +10370,7 @@
       <c r="V352" s="2"/>
       <c r="W352" s="2"/>
       <c r="X352" s="2"/>
+      <c r="Y352" s="2"/>
     </row>
     <row r="353">
       <c r="A353" s="2"/>
@@ -10021,6 +10397,7 @@
       <c r="V353" s="2"/>
       <c r="W353" s="2"/>
       <c r="X353" s="2"/>
+      <c r="Y353" s="2"/>
     </row>
     <row r="354">
       <c r="A354" s="2"/>
@@ -10047,6 +10424,7 @@
       <c r="V354" s="2"/>
       <c r="W354" s="2"/>
       <c r="X354" s="2"/>
+      <c r="Y354" s="2"/>
     </row>
     <row r="355">
       <c r="A355" s="2"/>
@@ -10073,6 +10451,7 @@
       <c r="V355" s="2"/>
       <c r="W355" s="2"/>
       <c r="X355" s="2"/>
+      <c r="Y355" s="2"/>
     </row>
     <row r="356">
       <c r="A356" s="2"/>
@@ -10099,6 +10478,7 @@
       <c r="V356" s="2"/>
       <c r="W356" s="2"/>
       <c r="X356" s="2"/>
+      <c r="Y356" s="2"/>
     </row>
     <row r="357">
       <c r="A357" s="2"/>
@@ -10125,6 +10505,7 @@
       <c r="V357" s="2"/>
       <c r="W357" s="2"/>
       <c r="X357" s="2"/>
+      <c r="Y357" s="2"/>
     </row>
     <row r="358">
       <c r="A358" s="2"/>
@@ -10151,6 +10532,7 @@
       <c r="V358" s="2"/>
       <c r="W358" s="2"/>
       <c r="X358" s="2"/>
+      <c r="Y358" s="2"/>
     </row>
     <row r="359">
       <c r="A359" s="2"/>
@@ -10177,6 +10559,7 @@
       <c r="V359" s="2"/>
       <c r="W359" s="2"/>
       <c r="X359" s="2"/>
+      <c r="Y359" s="2"/>
     </row>
     <row r="360">
       <c r="A360" s="2"/>
@@ -10203,6 +10586,7 @@
       <c r="V360" s="2"/>
       <c r="W360" s="2"/>
       <c r="X360" s="2"/>
+      <c r="Y360" s="2"/>
     </row>
     <row r="361">
       <c r="A361" s="2"/>
@@ -10229,6 +10613,7 @@
       <c r="V361" s="2"/>
       <c r="W361" s="2"/>
       <c r="X361" s="2"/>
+      <c r="Y361" s="2"/>
     </row>
     <row r="362">
       <c r="A362" s="2"/>
@@ -10255,6 +10640,7 @@
       <c r="V362" s="2"/>
       <c r="W362" s="2"/>
       <c r="X362" s="2"/>
+      <c r="Y362" s="2"/>
     </row>
     <row r="363">
       <c r="A363" s="2"/>
@@ -10281,6 +10667,7 @@
       <c r="V363" s="2"/>
       <c r="W363" s="2"/>
       <c r="X363" s="2"/>
+      <c r="Y363" s="2"/>
     </row>
     <row r="364">
       <c r="A364" s="2"/>
@@ -10307,6 +10694,7 @@
       <c r="V364" s="2"/>
       <c r="W364" s="2"/>
       <c r="X364" s="2"/>
+      <c r="Y364" s="2"/>
     </row>
     <row r="365">
       <c r="A365" s="2"/>
@@ -10333,6 +10721,7 @@
       <c r="V365" s="2"/>
       <c r="W365" s="2"/>
       <c r="X365" s="2"/>
+      <c r="Y365" s="2"/>
     </row>
     <row r="366">
       <c r="A366" s="2"/>
@@ -10359,6 +10748,7 @@
       <c r="V366" s="2"/>
       <c r="W366" s="2"/>
       <c r="X366" s="2"/>
+      <c r="Y366" s="2"/>
     </row>
     <row r="367">
       <c r="A367" s="2"/>
@@ -10385,6 +10775,7 @@
       <c r="V367" s="2"/>
       <c r="W367" s="2"/>
       <c r="X367" s="2"/>
+      <c r="Y367" s="2"/>
     </row>
     <row r="368">
       <c r="A368" s="2"/>
@@ -10411,6 +10802,7 @@
       <c r="V368" s="2"/>
       <c r="W368" s="2"/>
       <c r="X368" s="2"/>
+      <c r="Y368" s="2"/>
     </row>
     <row r="369">
       <c r="A369" s="2"/>
@@ -10437,6 +10829,7 @@
       <c r="V369" s="2"/>
       <c r="W369" s="2"/>
       <c r="X369" s="2"/>
+      <c r="Y369" s="2"/>
     </row>
     <row r="370">
       <c r="A370" s="2"/>
@@ -10463,6 +10856,7 @@
       <c r="V370" s="2"/>
       <c r="W370" s="2"/>
       <c r="X370" s="2"/>
+      <c r="Y370" s="2"/>
     </row>
     <row r="371">
       <c r="A371" s="2"/>
@@ -10489,6 +10883,7 @@
       <c r="V371" s="2"/>
       <c r="W371" s="2"/>
       <c r="X371" s="2"/>
+      <c r="Y371" s="2"/>
     </row>
     <row r="372">
       <c r="A372" s="2"/>
@@ -10515,6 +10910,7 @@
       <c r="V372" s="2"/>
       <c r="W372" s="2"/>
       <c r="X372" s="2"/>
+      <c r="Y372" s="2"/>
     </row>
     <row r="373">
       <c r="A373" s="2"/>
@@ -10541,6 +10937,7 @@
       <c r="V373" s="2"/>
       <c r="W373" s="2"/>
       <c r="X373" s="2"/>
+      <c r="Y373" s="2"/>
     </row>
     <row r="374">
       <c r="A374" s="2"/>
@@ -10567,6 +10964,7 @@
       <c r="V374" s="2"/>
       <c r="W374" s="2"/>
       <c r="X374" s="2"/>
+      <c r="Y374" s="2"/>
     </row>
     <row r="375">
       <c r="A375" s="2"/>
@@ -10593,6 +10991,7 @@
       <c r="V375" s="2"/>
       <c r="W375" s="2"/>
       <c r="X375" s="2"/>
+      <c r="Y375" s="2"/>
     </row>
     <row r="376">
       <c r="A376" s="2"/>
@@ -10619,6 +11018,7 @@
       <c r="V376" s="2"/>
       <c r="W376" s="2"/>
       <c r="X376" s="2"/>
+      <c r="Y376" s="2"/>
     </row>
     <row r="377">
       <c r="A377" s="2"/>
@@ -10645,6 +11045,7 @@
       <c r="V377" s="2"/>
       <c r="W377" s="2"/>
       <c r="X377" s="2"/>
+      <c r="Y377" s="2"/>
     </row>
     <row r="378">
       <c r="A378" s="2"/>
@@ -10671,6 +11072,7 @@
       <c r="V378" s="2"/>
       <c r="W378" s="2"/>
       <c r="X378" s="2"/>
+      <c r="Y378" s="2"/>
     </row>
     <row r="379">
       <c r="A379" s="2"/>
@@ -10697,6 +11099,7 @@
       <c r="V379" s="2"/>
       <c r="W379" s="2"/>
       <c r="X379" s="2"/>
+      <c r="Y379" s="2"/>
     </row>
     <row r="380">
       <c r="A380" s="2"/>
@@ -10723,6 +11126,7 @@
       <c r="V380" s="2"/>
       <c r="W380" s="2"/>
       <c r="X380" s="2"/>
+      <c r="Y380" s="2"/>
     </row>
     <row r="381">
       <c r="A381" s="2"/>
@@ -10749,6 +11153,7 @@
       <c r="V381" s="2"/>
       <c r="W381" s="2"/>
       <c r="X381" s="2"/>
+      <c r="Y381" s="2"/>
     </row>
     <row r="382">
       <c r="A382" s="2"/>
@@ -10775,6 +11180,7 @@
       <c r="V382" s="2"/>
       <c r="W382" s="2"/>
       <c r="X382" s="2"/>
+      <c r="Y382" s="2"/>
     </row>
     <row r="383">
       <c r="A383" s="2"/>
@@ -10801,6 +11207,7 @@
       <c r="V383" s="2"/>
       <c r="W383" s="2"/>
       <c r="X383" s="2"/>
+      <c r="Y383" s="2"/>
     </row>
     <row r="384">
       <c r="A384" s="2"/>
@@ -10827,6 +11234,7 @@
       <c r="V384" s="2"/>
       <c r="W384" s="2"/>
       <c r="X384" s="2"/>
+      <c r="Y384" s="2"/>
     </row>
     <row r="385">
       <c r="A385" s="2"/>
@@ -10853,6 +11261,7 @@
       <c r="V385" s="2"/>
       <c r="W385" s="2"/>
       <c r="X385" s="2"/>
+      <c r="Y385" s="2"/>
     </row>
     <row r="386">
       <c r="A386" s="2"/>
@@ -10879,6 +11288,7 @@
       <c r="V386" s="2"/>
       <c r="W386" s="2"/>
       <c r="X386" s="2"/>
+      <c r="Y386" s="2"/>
     </row>
     <row r="387">
       <c r="A387" s="2"/>
@@ -10905,6 +11315,7 @@
       <c r="V387" s="2"/>
       <c r="W387" s="2"/>
       <c r="X387" s="2"/>
+      <c r="Y387" s="2"/>
     </row>
     <row r="388">
       <c r="A388" s="2"/>
@@ -10931,6 +11342,7 @@
       <c r="V388" s="2"/>
       <c r="W388" s="2"/>
       <c r="X388" s="2"/>
+      <c r="Y388" s="2"/>
     </row>
     <row r="389">
       <c r="A389" s="2"/>
@@ -10957,6 +11369,7 @@
       <c r="V389" s="2"/>
       <c r="W389" s="2"/>
       <c r="X389" s="2"/>
+      <c r="Y389" s="2"/>
     </row>
     <row r="390">
       <c r="A390" s="2"/>
@@ -10983,6 +11396,7 @@
       <c r="V390" s="2"/>
       <c r="W390" s="2"/>
       <c r="X390" s="2"/>
+      <c r="Y390" s="2"/>
     </row>
     <row r="391">
       <c r="A391" s="2"/>
@@ -11009,6 +11423,7 @@
       <c r="V391" s="2"/>
       <c r="W391" s="2"/>
       <c r="X391" s="2"/>
+      <c r="Y391" s="2"/>
     </row>
     <row r="392">
       <c r="A392" s="2"/>
@@ -11035,6 +11450,7 @@
       <c r="V392" s="2"/>
       <c r="W392" s="2"/>
       <c r="X392" s="2"/>
+      <c r="Y392" s="2"/>
     </row>
     <row r="393">
       <c r="A393" s="2"/>
@@ -11061,6 +11477,7 @@
       <c r="V393" s="2"/>
       <c r="W393" s="2"/>
       <c r="X393" s="2"/>
+      <c r="Y393" s="2"/>
     </row>
     <row r="394">
       <c r="A394" s="2"/>
@@ -11087,6 +11504,7 @@
       <c r="V394" s="2"/>
       <c r="W394" s="2"/>
       <c r="X394" s="2"/>
+      <c r="Y394" s="2"/>
     </row>
     <row r="395">
       <c r="A395" s="2"/>
@@ -11113,6 +11531,7 @@
       <c r="V395" s="2"/>
       <c r="W395" s="2"/>
       <c r="X395" s="2"/>
+      <c r="Y395" s="2"/>
     </row>
     <row r="396">
       <c r="A396" s="2"/>
@@ -11139,6 +11558,7 @@
       <c r="V396" s="2"/>
       <c r="W396" s="2"/>
       <c r="X396" s="2"/>
+      <c r="Y396" s="2"/>
     </row>
     <row r="397">
       <c r="A397" s="2"/>
@@ -11165,6 +11585,7 @@
       <c r="V397" s="2"/>
       <c r="W397" s="2"/>
       <c r="X397" s="2"/>
+      <c r="Y397" s="2"/>
     </row>
     <row r="398">
       <c r="A398" s="2"/>
@@ -11191,6 +11612,7 @@
       <c r="V398" s="2"/>
       <c r="W398" s="2"/>
       <c r="X398" s="2"/>
+      <c r="Y398" s="2"/>
     </row>
     <row r="399">
       <c r="A399" s="2"/>
@@ -11217,6 +11639,7 @@
       <c r="V399" s="2"/>
       <c r="W399" s="2"/>
       <c r="X399" s="2"/>
+      <c r="Y399" s="2"/>
     </row>
     <row r="400">
       <c r="A400" s="2"/>
@@ -11243,6 +11666,7 @@
       <c r="V400" s="2"/>
       <c r="W400" s="2"/>
       <c r="X400" s="2"/>
+      <c r="Y400" s="2"/>
     </row>
     <row r="401">
       <c r="A401" s="2"/>
@@ -11269,6 +11693,7 @@
       <c r="V401" s="2"/>
       <c r="W401" s="2"/>
       <c r="X401" s="2"/>
+      <c r="Y401" s="2"/>
     </row>
     <row r="402">
       <c r="A402" s="2"/>
@@ -11295,6 +11720,7 @@
       <c r="V402" s="2"/>
       <c r="W402" s="2"/>
       <c r="X402" s="2"/>
+      <c r="Y402" s="2"/>
     </row>
     <row r="403">
       <c r="A403" s="2"/>
@@ -11321,6 +11747,7 @@
       <c r="V403" s="2"/>
       <c r="W403" s="2"/>
       <c r="X403" s="2"/>
+      <c r="Y403" s="2"/>
     </row>
     <row r="404">
       <c r="A404" s="2"/>
@@ -11347,6 +11774,7 @@
       <c r="V404" s="2"/>
       <c r="W404" s="2"/>
       <c r="X404" s="2"/>
+      <c r="Y404" s="2"/>
     </row>
     <row r="405">
       <c r="A405" s="2"/>
@@ -11373,6 +11801,7 @@
       <c r="V405" s="2"/>
       <c r="W405" s="2"/>
       <c r="X405" s="2"/>
+      <c r="Y405" s="2"/>
     </row>
     <row r="406">
       <c r="A406" s="2"/>
@@ -11399,6 +11828,7 @@
       <c r="V406" s="2"/>
       <c r="W406" s="2"/>
       <c r="X406" s="2"/>
+      <c r="Y406" s="2"/>
     </row>
     <row r="407">
       <c r="A407" s="2"/>
@@ -11425,6 +11855,7 @@
       <c r="V407" s="2"/>
       <c r="W407" s="2"/>
       <c r="X407" s="2"/>
+      <c r="Y407" s="2"/>
     </row>
     <row r="408">
       <c r="A408" s="2"/>
@@ -11451,6 +11882,7 @@
       <c r="V408" s="2"/>
       <c r="W408" s="2"/>
       <c r="X408" s="2"/>
+      <c r="Y408" s="2"/>
     </row>
     <row r="409">
       <c r="A409" s="2"/>
@@ -11477,6 +11909,7 @@
       <c r="V409" s="2"/>
       <c r="W409" s="2"/>
       <c r="X409" s="2"/>
+      <c r="Y409" s="2"/>
     </row>
     <row r="410">
       <c r="A410" s="2"/>
@@ -11503,6 +11936,7 @@
       <c r="V410" s="2"/>
       <c r="W410" s="2"/>
       <c r="X410" s="2"/>
+      <c r="Y410" s="2"/>
     </row>
     <row r="411">
       <c r="A411" s="2"/>
@@ -11529,6 +11963,7 @@
       <c r="V411" s="2"/>
       <c r="W411" s="2"/>
       <c r="X411" s="2"/>
+      <c r="Y411" s="2"/>
     </row>
     <row r="412">
       <c r="A412" s="2"/>
@@ -11555,6 +11990,7 @@
       <c r="V412" s="2"/>
       <c r="W412" s="2"/>
       <c r="X412" s="2"/>
+      <c r="Y412" s="2"/>
     </row>
     <row r="413">
       <c r="A413" s="2"/>
@@ -11581,6 +12017,7 @@
       <c r="V413" s="2"/>
       <c r="W413" s="2"/>
       <c r="X413" s="2"/>
+      <c r="Y413" s="2"/>
     </row>
     <row r="414">
       <c r="A414" s="2"/>
@@ -11607,6 +12044,7 @@
       <c r="V414" s="2"/>
       <c r="W414" s="2"/>
       <c r="X414" s="2"/>
+      <c r="Y414" s="2"/>
     </row>
     <row r="415">
       <c r="A415" s="2"/>
@@ -11633,6 +12071,7 @@
       <c r="V415" s="2"/>
       <c r="W415" s="2"/>
       <c r="X415" s="2"/>
+      <c r="Y415" s="2"/>
     </row>
     <row r="416">
       <c r="A416" s="2"/>
@@ -11659,6 +12098,7 @@
       <c r="V416" s="2"/>
       <c r="W416" s="2"/>
       <c r="X416" s="2"/>
+      <c r="Y416" s="2"/>
     </row>
     <row r="417">
       <c r="A417" s="2"/>
@@ -11685,6 +12125,7 @@
       <c r="V417" s="2"/>
       <c r="W417" s="2"/>
       <c r="X417" s="2"/>
+      <c r="Y417" s="2"/>
     </row>
     <row r="418">
       <c r="A418" s="2"/>
@@ -11711,6 +12152,7 @@
       <c r="V418" s="2"/>
       <c r="W418" s="2"/>
       <c r="X418" s="2"/>
+      <c r="Y418" s="2"/>
     </row>
     <row r="419">
       <c r="A419" s="2"/>
@@ -11737,6 +12179,7 @@
       <c r="V419" s="2"/>
       <c r="W419" s="2"/>
       <c r="X419" s="2"/>
+      <c r="Y419" s="2"/>
     </row>
     <row r="420">
       <c r="A420" s="2"/>
@@ -11763,6 +12206,7 @@
       <c r="V420" s="2"/>
       <c r="W420" s="2"/>
       <c r="X420" s="2"/>
+      <c r="Y420" s="2"/>
     </row>
     <row r="421">
       <c r="A421" s="2"/>
@@ -11789,6 +12233,7 @@
       <c r="V421" s="2"/>
       <c r="W421" s="2"/>
       <c r="X421" s="2"/>
+      <c r="Y421" s="2"/>
     </row>
     <row r="422">
       <c r="A422" s="2"/>
@@ -11815,6 +12260,7 @@
       <c r="V422" s="2"/>
       <c r="W422" s="2"/>
       <c r="X422" s="2"/>
+      <c r="Y422" s="2"/>
     </row>
     <row r="423">
       <c r="A423" s="2"/>
@@ -11841,6 +12287,7 @@
       <c r="V423" s="2"/>
       <c r="W423" s="2"/>
       <c r="X423" s="2"/>
+      <c r="Y423" s="2"/>
     </row>
     <row r="424">
       <c r="A424" s="2"/>
@@ -11867,6 +12314,7 @@
       <c r="V424" s="2"/>
       <c r="W424" s="2"/>
       <c r="X424" s="2"/>
+      <c r="Y424" s="2"/>
     </row>
     <row r="425">
       <c r="A425" s="2"/>
@@ -11893,6 +12341,7 @@
       <c r="V425" s="2"/>
       <c r="W425" s="2"/>
       <c r="X425" s="2"/>
+      <c r="Y425" s="2"/>
     </row>
     <row r="426">
       <c r="A426" s="2"/>
@@ -11919,6 +12368,7 @@
       <c r="V426" s="2"/>
       <c r="W426" s="2"/>
       <c r="X426" s="2"/>
+      <c r="Y426" s="2"/>
     </row>
     <row r="427">
       <c r="A427" s="2"/>
@@ -11945,6 +12395,7 @@
       <c r="V427" s="2"/>
       <c r="W427" s="2"/>
       <c r="X427" s="2"/>
+      <c r="Y427" s="2"/>
     </row>
     <row r="428">
       <c r="A428" s="2"/>
@@ -11971,6 +12422,7 @@
       <c r="V428" s="2"/>
       <c r="W428" s="2"/>
       <c r="X428" s="2"/>
+      <c r="Y428" s="2"/>
     </row>
     <row r="429">
       <c r="A429" s="2"/>
@@ -11997,6 +12449,7 @@
       <c r="V429" s="2"/>
       <c r="W429" s="2"/>
       <c r="X429" s="2"/>
+      <c r="Y429" s="2"/>
     </row>
     <row r="430">
       <c r="A430" s="2"/>
@@ -12023,6 +12476,7 @@
       <c r="V430" s="2"/>
       <c r="W430" s="2"/>
       <c r="X430" s="2"/>
+      <c r="Y430" s="2"/>
     </row>
     <row r="431">
       <c r="A431" s="2"/>
@@ -12049,6 +12503,7 @@
       <c r="V431" s="2"/>
       <c r="W431" s="2"/>
       <c r="X431" s="2"/>
+      <c r="Y431" s="2"/>
     </row>
     <row r="432">
       <c r="A432" s="2"/>
@@ -12075,6 +12530,7 @@
       <c r="V432" s="2"/>
       <c r="W432" s="2"/>
       <c r="X432" s="2"/>
+      <c r="Y432" s="2"/>
     </row>
     <row r="433">
       <c r="A433" s="2"/>
@@ -12101,6 +12557,7 @@
       <c r="V433" s="2"/>
       <c r="W433" s="2"/>
       <c r="X433" s="2"/>
+      <c r="Y433" s="2"/>
     </row>
     <row r="434">
       <c r="A434" s="2"/>
@@ -12127,6 +12584,7 @@
       <c r="V434" s="2"/>
       <c r="W434" s="2"/>
       <c r="X434" s="2"/>
+      <c r="Y434" s="2"/>
     </row>
     <row r="435">
       <c r="A435" s="2"/>
@@ -12153,6 +12611,7 @@
       <c r="V435" s="2"/>
       <c r="W435" s="2"/>
       <c r="X435" s="2"/>
+      <c r="Y435" s="2"/>
     </row>
     <row r="436">
       <c r="A436" s="2"/>
@@ -12179,6 +12638,7 @@
       <c r="V436" s="2"/>
       <c r="W436" s="2"/>
       <c r="X436" s="2"/>
+      <c r="Y436" s="2"/>
     </row>
     <row r="437">
       <c r="A437" s="2"/>
@@ -12205,6 +12665,7 @@
       <c r="V437" s="2"/>
       <c r="W437" s="2"/>
       <c r="X437" s="2"/>
+      <c r="Y437" s="2"/>
     </row>
     <row r="438">
       <c r="A438" s="2"/>
@@ -12231,6 +12692,7 @@
       <c r="V438" s="2"/>
       <c r="W438" s="2"/>
       <c r="X438" s="2"/>
+      <c r="Y438" s="2"/>
     </row>
     <row r="439">
       <c r="A439" s="2"/>
@@ -12257,6 +12719,7 @@
       <c r="V439" s="2"/>
       <c r="W439" s="2"/>
       <c r="X439" s="2"/>
+      <c r="Y439" s="2"/>
     </row>
     <row r="440">
       <c r="A440" s="2"/>
@@ -12283,6 +12746,7 @@
       <c r="V440" s="2"/>
       <c r="W440" s="2"/>
       <c r="X440" s="2"/>
+      <c r="Y440" s="2"/>
     </row>
     <row r="441">
       <c r="A441" s="2"/>
@@ -12309,6 +12773,7 @@
       <c r="V441" s="2"/>
       <c r="W441" s="2"/>
       <c r="X441" s="2"/>
+      <c r="Y441" s="2"/>
     </row>
     <row r="442">
       <c r="A442" s="2"/>
@@ -12335,6 +12800,7 @@
       <c r="V442" s="2"/>
       <c r="W442" s="2"/>
       <c r="X442" s="2"/>
+      <c r="Y442" s="2"/>
     </row>
     <row r="443">
       <c r="A443" s="2"/>
@@ -12361,6 +12827,7 @@
       <c r="V443" s="2"/>
       <c r="W443" s="2"/>
       <c r="X443" s="2"/>
+      <c r="Y443" s="2"/>
     </row>
     <row r="444">
       <c r="A444" s="2"/>
@@ -12387,6 +12854,7 @@
       <c r="V444" s="2"/>
       <c r="W444" s="2"/>
       <c r="X444" s="2"/>
+      <c r="Y444" s="2"/>
     </row>
     <row r="445">
       <c r="A445" s="2"/>
@@ -12413,6 +12881,7 @@
       <c r="V445" s="2"/>
       <c r="W445" s="2"/>
       <c r="X445" s="2"/>
+      <c r="Y445" s="2"/>
     </row>
     <row r="446">
       <c r="A446" s="2"/>
@@ -12439,6 +12908,7 @@
       <c r="V446" s="2"/>
       <c r="W446" s="2"/>
       <c r="X446" s="2"/>
+      <c r="Y446" s="2"/>
     </row>
     <row r="447">
       <c r="A447" s="2"/>
@@ -12465,6 +12935,7 @@
       <c r="V447" s="2"/>
       <c r="W447" s="2"/>
       <c r="X447" s="2"/>
+      <c r="Y447" s="2"/>
     </row>
     <row r="448">
       <c r="A448" s="2"/>
@@ -12491,6 +12962,7 @@
       <c r="V448" s="2"/>
       <c r="W448" s="2"/>
       <c r="X448" s="2"/>
+      <c r="Y448" s="2"/>
     </row>
     <row r="449">
       <c r="A449" s="2"/>
@@ -12517,6 +12989,7 @@
       <c r="V449" s="2"/>
       <c r="W449" s="2"/>
       <c r="X449" s="2"/>
+      <c r="Y449" s="2"/>
     </row>
     <row r="450">
       <c r="A450" s="2"/>
@@ -12543,6 +13016,7 @@
       <c r="V450" s="2"/>
       <c r="W450" s="2"/>
       <c r="X450" s="2"/>
+      <c r="Y450" s="2"/>
     </row>
     <row r="451">
       <c r="A451" s="2"/>
@@ -12569,6 +13043,7 @@
       <c r="V451" s="2"/>
       <c r="W451" s="2"/>
       <c r="X451" s="2"/>
+      <c r="Y451" s="2"/>
     </row>
     <row r="452">
       <c r="A452" s="2"/>
@@ -12595,6 +13070,7 @@
       <c r="V452" s="2"/>
       <c r="W452" s="2"/>
       <c r="X452" s="2"/>
+      <c r="Y452" s="2"/>
     </row>
     <row r="453">
       <c r="A453" s="2"/>
@@ -12621,6 +13097,7 @@
       <c r="V453" s="2"/>
       <c r="W453" s="2"/>
       <c r="X453" s="2"/>
+      <c r="Y453" s="2"/>
     </row>
     <row r="454">
       <c r="A454" s="2"/>
@@ -12647,6 +13124,7 @@
       <c r="V454" s="2"/>
       <c r="W454" s="2"/>
       <c r="X454" s="2"/>
+      <c r="Y454" s="2"/>
     </row>
     <row r="455">
       <c r="A455" s="2"/>
@@ -12673,6 +13151,7 @@
       <c r="V455" s="2"/>
       <c r="W455" s="2"/>
       <c r="X455" s="2"/>
+      <c r="Y455" s="2"/>
     </row>
     <row r="456">
       <c r="A456" s="2"/>
@@ -12699,6 +13178,7 @@
       <c r="V456" s="2"/>
       <c r="W456" s="2"/>
       <c r="X456" s="2"/>
+      <c r="Y456" s="2"/>
     </row>
     <row r="457">
       <c r="A457" s="2"/>
@@ -12725,6 +13205,7 @@
       <c r="V457" s="2"/>
       <c r="W457" s="2"/>
       <c r="X457" s="2"/>
+      <c r="Y457" s="2"/>
     </row>
     <row r="458">
       <c r="A458" s="2"/>
@@ -12751,6 +13232,7 @@
       <c r="V458" s="2"/>
       <c r="W458" s="2"/>
       <c r="X458" s="2"/>
+      <c r="Y458" s="2"/>
     </row>
     <row r="459">
       <c r="A459" s="2"/>
@@ -12777,6 +13259,7 @@
       <c r="V459" s="2"/>
       <c r="W459" s="2"/>
       <c r="X459" s="2"/>
+      <c r="Y459" s="2"/>
     </row>
     <row r="460">
       <c r="A460" s="2"/>
@@ -12803,6 +13286,7 @@
       <c r="V460" s="2"/>
       <c r="W460" s="2"/>
       <c r="X460" s="2"/>
+      <c r="Y460" s="2"/>
     </row>
     <row r="461">
       <c r="A461" s="2"/>
@@ -12829,6 +13313,7 @@
       <c r="V461" s="2"/>
       <c r="W461" s="2"/>
       <c r="X461" s="2"/>
+      <c r="Y461" s="2"/>
     </row>
     <row r="462">
       <c r="A462" s="2"/>
@@ -12855,6 +13340,7 @@
       <c r="V462" s="2"/>
       <c r="W462" s="2"/>
       <c r="X462" s="2"/>
+      <c r="Y462" s="2"/>
     </row>
     <row r="463">
       <c r="A463" s="2"/>
@@ -12881,6 +13367,7 @@
       <c r="V463" s="2"/>
       <c r="W463" s="2"/>
       <c r="X463" s="2"/>
+      <c r="Y463" s="2"/>
     </row>
     <row r="464">
       <c r="A464" s="2"/>
@@ -12907,6 +13394,7 @@
       <c r="V464" s="2"/>
       <c r="W464" s="2"/>
       <c r="X464" s="2"/>
+      <c r="Y464" s="2"/>
     </row>
     <row r="465">
       <c r="A465" s="2"/>
@@ -12933,6 +13421,7 @@
       <c r="V465" s="2"/>
       <c r="W465" s="2"/>
       <c r="X465" s="2"/>
+      <c r="Y465" s="2"/>
     </row>
     <row r="466">
       <c r="A466" s="2"/>
@@ -12959,6 +13448,7 @@
       <c r="V466" s="2"/>
       <c r="W466" s="2"/>
       <c r="X466" s="2"/>
+      <c r="Y466" s="2"/>
     </row>
     <row r="467">
       <c r="A467" s="2"/>
@@ -12985,6 +13475,7 @@
       <c r="V467" s="2"/>
       <c r="W467" s="2"/>
       <c r="X467" s="2"/>
+      <c r="Y467" s="2"/>
     </row>
     <row r="468">
       <c r="A468" s="2"/>
@@ -13011,6 +13502,7 @@
       <c r="V468" s="2"/>
       <c r="W468" s="2"/>
       <c r="X468" s="2"/>
+      <c r="Y468" s="2"/>
     </row>
     <row r="469">
       <c r="A469" s="2"/>
@@ -13037,6 +13529,7 @@
       <c r="V469" s="2"/>
       <c r="W469" s="2"/>
       <c r="X469" s="2"/>
+      <c r="Y469" s="2"/>
     </row>
     <row r="470">
       <c r="A470" s="2"/>
@@ -13063,6 +13556,7 @@
       <c r="V470" s="2"/>
       <c r="W470" s="2"/>
       <c r="X470" s="2"/>
+      <c r="Y470" s="2"/>
     </row>
     <row r="471">
       <c r="A471" s="2"/>
@@ -13089,6 +13583,7 @@
       <c r="V471" s="2"/>
       <c r="W471" s="2"/>
       <c r="X471" s="2"/>
+      <c r="Y471" s="2"/>
     </row>
     <row r="472">
       <c r="A472" s="2"/>
@@ -13115,6 +13610,7 @@
       <c r="V472" s="2"/>
       <c r="W472" s="2"/>
       <c r="X472" s="2"/>
+      <c r="Y472" s="2"/>
     </row>
     <row r="473">
       <c r="A473" s="2"/>
@@ -13141,6 +13637,7 @@
       <c r="V473" s="2"/>
       <c r="W473" s="2"/>
       <c r="X473" s="2"/>
+      <c r="Y473" s="2"/>
     </row>
     <row r="474">
       <c r="A474" s="2"/>
@@ -13167,6 +13664,7 @@
       <c r="V474" s="2"/>
       <c r="W474" s="2"/>
       <c r="X474" s="2"/>
+      <c r="Y474" s="2"/>
     </row>
     <row r="475">
       <c r="A475" s="2"/>
@@ -13193,6 +13691,7 @@
       <c r="V475" s="2"/>
       <c r="W475" s="2"/>
       <c r="X475" s="2"/>
+      <c r="Y475" s="2"/>
     </row>
     <row r="476">
       <c r="A476" s="2"/>
@@ -13219,6 +13718,7 @@
       <c r="V476" s="2"/>
       <c r="W476" s="2"/>
       <c r="X476" s="2"/>
+      <c r="Y476" s="2"/>
     </row>
     <row r="477">
       <c r="A477" s="2"/>
@@ -13245,6 +13745,7 @@
       <c r="V477" s="2"/>
       <c r="W477" s="2"/>
       <c r="X477" s="2"/>
+      <c r="Y477" s="2"/>
     </row>
     <row r="478">
       <c r="A478" s="2"/>
@@ -13271,6 +13772,7 @@
       <c r="V478" s="2"/>
       <c r="W478" s="2"/>
       <c r="X478" s="2"/>
+      <c r="Y478" s="2"/>
     </row>
     <row r="479">
       <c r="A479" s="2"/>
@@ -13297,6 +13799,7 @@
       <c r="V479" s="2"/>
       <c r="W479" s="2"/>
       <c r="X479" s="2"/>
+      <c r="Y479" s="2"/>
     </row>
     <row r="480">
       <c r="A480" s="2"/>
@@ -13323,6 +13826,7 @@
       <c r="V480" s="2"/>
       <c r="W480" s="2"/>
       <c r="X480" s="2"/>
+      <c r="Y480" s="2"/>
     </row>
     <row r="481">
       <c r="A481" s="2"/>
@@ -13349,6 +13853,7 @@
       <c r="V481" s="2"/>
       <c r="W481" s="2"/>
       <c r="X481" s="2"/>
+      <c r="Y481" s="2"/>
     </row>
     <row r="482">
       <c r="A482" s="2"/>
@@ -13375,6 +13880,7 @@
       <c r="V482" s="2"/>
       <c r="W482" s="2"/>
       <c r="X482" s="2"/>
+      <c r="Y482" s="2"/>
     </row>
     <row r="483">
       <c r="A483" s="2"/>
@@ -13401,6 +13907,7 @@
       <c r="V483" s="2"/>
       <c r="W483" s="2"/>
       <c r="X483" s="2"/>
+      <c r="Y483" s="2"/>
     </row>
     <row r="484">
       <c r="A484" s="2"/>
@@ -13427,6 +13934,7 @@
       <c r="V484" s="2"/>
       <c r="W484" s="2"/>
       <c r="X484" s="2"/>
+      <c r="Y484" s="2"/>
     </row>
     <row r="485">
       <c r="A485" s="2"/>
@@ -13453,6 +13961,7 @@
       <c r="V485" s="2"/>
       <c r="W485" s="2"/>
       <c r="X485" s="2"/>
+      <c r="Y485" s="2"/>
     </row>
     <row r="486">
       <c r="A486" s="2"/>
@@ -13479,6 +13988,7 @@
       <c r="V486" s="2"/>
       <c r="W486" s="2"/>
       <c r="X486" s="2"/>
+      <c r="Y486" s="2"/>
     </row>
     <row r="487">
       <c r="A487" s="2"/>
@@ -13505,6 +14015,7 @@
       <c r="V487" s="2"/>
       <c r="W487" s="2"/>
       <c r="X487" s="2"/>
+      <c r="Y487" s="2"/>
     </row>
     <row r="488">
       <c r="A488" s="2"/>
@@ -13531,6 +14042,7 @@
       <c r="V488" s="2"/>
       <c r="W488" s="2"/>
       <c r="X488" s="2"/>
+      <c r="Y488" s="2"/>
     </row>
     <row r="489">
       <c r="A489" s="2"/>
@@ -13557,6 +14069,7 @@
       <c r="V489" s="2"/>
       <c r="W489" s="2"/>
       <c r="X489" s="2"/>
+      <c r="Y489" s="2"/>
     </row>
     <row r="490">
       <c r="A490" s="2"/>
@@ -13583,6 +14096,7 @@
       <c r="V490" s="2"/>
       <c r="W490" s="2"/>
       <c r="X490" s="2"/>
+      <c r="Y490" s="2"/>
     </row>
     <row r="491">
       <c r="A491" s="2"/>
@@ -13609,6 +14123,7 @@
       <c r="V491" s="2"/>
       <c r="W491" s="2"/>
       <c r="X491" s="2"/>
+      <c r="Y491" s="2"/>
     </row>
     <row r="492">
       <c r="A492" s="2"/>
@@ -13635,6 +14150,7 @@
       <c r="V492" s="2"/>
       <c r="W492" s="2"/>
       <c r="X492" s="2"/>
+      <c r="Y492" s="2"/>
     </row>
     <row r="493">
       <c r="A493" s="2"/>
@@ -13661,6 +14177,7 @@
       <c r="V493" s="2"/>
       <c r="W493" s="2"/>
       <c r="X493" s="2"/>
+      <c r="Y493" s="2"/>
     </row>
     <row r="494">
       <c r="A494" s="2"/>
@@ -13687,6 +14204,7 @@
       <c r="V494" s="2"/>
       <c r="W494" s="2"/>
       <c r="X494" s="2"/>
+      <c r="Y494" s="2"/>
     </row>
     <row r="495">
       <c r="A495" s="2"/>
@@ -13713,6 +14231,7 @@
       <c r="V495" s="2"/>
       <c r="W495" s="2"/>
       <c r="X495" s="2"/>
+      <c r="Y495" s="2"/>
     </row>
     <row r="496">
       <c r="A496" s="2"/>
@@ -13739,6 +14258,7 @@
       <c r="V496" s="2"/>
       <c r="W496" s="2"/>
       <c r="X496" s="2"/>
+      <c r="Y496" s="2"/>
     </row>
     <row r="497">
       <c r="A497" s="2"/>
@@ -13765,6 +14285,7 @@
       <c r="V497" s="2"/>
       <c r="W497" s="2"/>
       <c r="X497" s="2"/>
+      <c r="Y497" s="2"/>
     </row>
     <row r="498">
       <c r="A498" s="2"/>
@@ -13791,6 +14312,7 @@
       <c r="V498" s="2"/>
       <c r="W498" s="2"/>
       <c r="X498" s="2"/>
+      <c r="Y498" s="2"/>
     </row>
     <row r="499">
       <c r="A499" s="2"/>
@@ -13817,6 +14339,7 @@
       <c r="V499" s="2"/>
       <c r="W499" s="2"/>
       <c r="X499" s="2"/>
+      <c r="Y499" s="2"/>
     </row>
     <row r="500">
       <c r="A500" s="2"/>
@@ -13843,6 +14366,7 @@
       <c r="V500" s="2"/>
       <c r="W500" s="2"/>
       <c r="X500" s="2"/>
+      <c r="Y500" s="2"/>
     </row>
     <row r="501">
       <c r="A501" s="2"/>
@@ -13869,6 +14393,7 @@
       <c r="V501" s="2"/>
       <c r="W501" s="2"/>
       <c r="X501" s="2"/>
+      <c r="Y501" s="2"/>
     </row>
     <row r="502">
       <c r="A502" s="2"/>
@@ -13895,6 +14420,7 @@
       <c r="V502" s="2"/>
       <c r="W502" s="2"/>
       <c r="X502" s="2"/>
+      <c r="Y502" s="2"/>
     </row>
     <row r="503">
       <c r="A503" s="2"/>
@@ -13921,6 +14447,7 @@
       <c r="V503" s="2"/>
       <c r="W503" s="2"/>
       <c r="X503" s="2"/>
+      <c r="Y503" s="2"/>
     </row>
     <row r="504">
       <c r="A504" s="2"/>
@@ -13947,6 +14474,7 @@
       <c r="V504" s="2"/>
       <c r="W504" s="2"/>
       <c r="X504" s="2"/>
+      <c r="Y504" s="2"/>
     </row>
     <row r="505">
       <c r="A505" s="2"/>
@@ -13973,6 +14501,7 @@
       <c r="V505" s="2"/>
       <c r="W505" s="2"/>
       <c r="X505" s="2"/>
+      <c r="Y505" s="2"/>
     </row>
     <row r="506">
       <c r="A506" s="2"/>
@@ -13999,6 +14528,7 @@
       <c r="V506" s="2"/>
       <c r="W506" s="2"/>
       <c r="X506" s="2"/>
+      <c r="Y506" s="2"/>
     </row>
     <row r="507">
       <c r="A507" s="2"/>
@@ -14025,6 +14555,7 @@
       <c r="V507" s="2"/>
       <c r="W507" s="2"/>
       <c r="X507" s="2"/>
+      <c r="Y507" s="2"/>
     </row>
     <row r="508">
       <c r="A508" s="2"/>
@@ -14051,6 +14582,7 @@
       <c r="V508" s="2"/>
       <c r="W508" s="2"/>
       <c r="X508" s="2"/>
+      <c r="Y508" s="2"/>
     </row>
     <row r="509">
       <c r="A509" s="2"/>
@@ -14077,6 +14609,7 @@
       <c r="V509" s="2"/>
       <c r="W509" s="2"/>
       <c r="X509" s="2"/>
+      <c r="Y509" s="2"/>
     </row>
     <row r="510">
       <c r="A510" s="2"/>
@@ -14103,6 +14636,7 @@
       <c r="V510" s="2"/>
       <c r="W510" s="2"/>
       <c r="X510" s="2"/>
+      <c r="Y510" s="2"/>
     </row>
     <row r="511">
       <c r="A511" s="2"/>
@@ -14129,6 +14663,7 @@
       <c r="V511" s="2"/>
       <c r="W511" s="2"/>
       <c r="X511" s="2"/>
+      <c r="Y511" s="2"/>
     </row>
     <row r="512">
       <c r="A512" s="2"/>
@@ -14155,6 +14690,7 @@
       <c r="V512" s="2"/>
       <c r="W512" s="2"/>
       <c r="X512" s="2"/>
+      <c r="Y512" s="2"/>
     </row>
     <row r="513">
       <c r="A513" s="2"/>
@@ -14181,6 +14717,7 @@
       <c r="V513" s="2"/>
       <c r="W513" s="2"/>
       <c r="X513" s="2"/>
+      <c r="Y513" s="2"/>
     </row>
     <row r="514">
       <c r="A514" s="2"/>
@@ -14207,6 +14744,7 @@
       <c r="V514" s="2"/>
       <c r="W514" s="2"/>
       <c r="X514" s="2"/>
+      <c r="Y514" s="2"/>
     </row>
     <row r="515">
       <c r="A515" s="2"/>
@@ -14233,6 +14771,7 @@
       <c r="V515" s="2"/>
       <c r="W515" s="2"/>
       <c r="X515" s="2"/>
+      <c r="Y515" s="2"/>
     </row>
     <row r="516">
       <c r="A516" s="2"/>
@@ -14259,6 +14798,7 @@
       <c r="V516" s="2"/>
       <c r="W516" s="2"/>
       <c r="X516" s="2"/>
+      <c r="Y516" s="2"/>
     </row>
     <row r="517">
       <c r="A517" s="2"/>
@@ -14285,6 +14825,7 @@
       <c r="V517" s="2"/>
       <c r="W517" s="2"/>
       <c r="X517" s="2"/>
+      <c r="Y517" s="2"/>
     </row>
     <row r="518">
       <c r="A518" s="2"/>
@@ -14311,6 +14852,7 @@
       <c r="V518" s="2"/>
       <c r="W518" s="2"/>
       <c r="X518" s="2"/>
+      <c r="Y518" s="2"/>
     </row>
     <row r="519">
       <c r="A519" s="2"/>
@@ -14337,6 +14879,7 @@
       <c r="V519" s="2"/>
       <c r="W519" s="2"/>
       <c r="X519" s="2"/>
+      <c r="Y519" s="2"/>
     </row>
     <row r="520">
       <c r="A520" s="2"/>
@@ -14363,6 +14906,7 @@
       <c r="V520" s="2"/>
       <c r="W520" s="2"/>
       <c r="X520" s="2"/>
+      <c r="Y520" s="2"/>
     </row>
     <row r="521">
       <c r="A521" s="2"/>
@@ -14389,6 +14933,7 @@
       <c r="V521" s="2"/>
       <c r="W521" s="2"/>
       <c r="X521" s="2"/>
+      <c r="Y521" s="2"/>
     </row>
     <row r="522">
       <c r="A522" s="2"/>
@@ -14415,6 +14960,7 @@
       <c r="V522" s="2"/>
       <c r="W522" s="2"/>
       <c r="X522" s="2"/>
+      <c r="Y522" s="2"/>
     </row>
     <row r="523">
       <c r="A523" s="2"/>
@@ -14441,6 +14987,7 @@
       <c r="V523" s="2"/>
       <c r="W523" s="2"/>
       <c r="X523" s="2"/>
+      <c r="Y523" s="2"/>
     </row>
     <row r="524">
       <c r="A524" s="2"/>
@@ -14467,6 +15014,7 @@
       <c r="V524" s="2"/>
       <c r="W524" s="2"/>
       <c r="X524" s="2"/>
+      <c r="Y524" s="2"/>
     </row>
     <row r="525">
       <c r="A525" s="2"/>
@@ -14493,6 +15041,7 @@
       <c r="V525" s="2"/>
       <c r="W525" s="2"/>
       <c r="X525" s="2"/>
+      <c r="Y525" s="2"/>
     </row>
     <row r="526">
       <c r="A526" s="2"/>
@@ -14519,6 +15068,7 @@
       <c r="V526" s="2"/>
       <c r="W526" s="2"/>
       <c r="X526" s="2"/>
+      <c r="Y526" s="2"/>
     </row>
     <row r="527">
       <c r="A527" s="2"/>
@@ -14545,6 +15095,7 @@
       <c r="V527" s="2"/>
       <c r="W527" s="2"/>
       <c r="X527" s="2"/>
+      <c r="Y527" s="2"/>
     </row>
     <row r="528">
       <c r="A528" s="2"/>
@@ -14571,6 +15122,7 @@
       <c r="V528" s="2"/>
       <c r="W528" s="2"/>
       <c r="X528" s="2"/>
+      <c r="Y528" s="2"/>
     </row>
     <row r="529">
       <c r="A529" s="2"/>
@@ -14597,6 +15149,7 @@
       <c r="V529" s="2"/>
       <c r="W529" s="2"/>
       <c r="X529" s="2"/>
+      <c r="Y529" s="2"/>
     </row>
     <row r="530">
       <c r="A530" s="2"/>
@@ -14623,6 +15176,7 @@
       <c r="V530" s="2"/>
       <c r="W530" s="2"/>
       <c r="X530" s="2"/>
+      <c r="Y530" s="2"/>
     </row>
     <row r="531">
       <c r="A531" s="2"/>
@@ -14649,6 +15203,7 @@
       <c r="V531" s="2"/>
       <c r="W531" s="2"/>
       <c r="X531" s="2"/>
+      <c r="Y531" s="2"/>
     </row>
     <row r="532">
       <c r="A532" s="2"/>
@@ -14675,6 +15230,7 @@
       <c r="V532" s="2"/>
       <c r="W532" s="2"/>
       <c r="X532" s="2"/>
+      <c r="Y532" s="2"/>
     </row>
     <row r="533">
       <c r="A533" s="2"/>
@@ -14701,6 +15257,7 @@
       <c r="V533" s="2"/>
       <c r="W533" s="2"/>
       <c r="X533" s="2"/>
+      <c r="Y533" s="2"/>
     </row>
     <row r="534">
       <c r="A534" s="2"/>
@@ -14727,6 +15284,7 @@
       <c r="V534" s="2"/>
       <c r="W534" s="2"/>
       <c r="X534" s="2"/>
+      <c r="Y534" s="2"/>
     </row>
     <row r="535">
       <c r="A535" s="2"/>
@@ -14753,6 +15311,7 @@
       <c r="V535" s="2"/>
       <c r="W535" s="2"/>
       <c r="X535" s="2"/>
+      <c r="Y535" s="2"/>
     </row>
     <row r="536">
       <c r="A536" s="2"/>
@@ -14779,6 +15338,7 @@
       <c r="V536" s="2"/>
       <c r="W536" s="2"/>
       <c r="X536" s="2"/>
+      <c r="Y536" s="2"/>
     </row>
     <row r="537">
       <c r="A537" s="2"/>
@@ -14805,6 +15365,7 @@
       <c r="V537" s="2"/>
       <c r="W537" s="2"/>
       <c r="X537" s="2"/>
+      <c r="Y537" s="2"/>
     </row>
     <row r="538">
       <c r="A538" s="2"/>
@@ -14831,6 +15392,7 @@
       <c r="V538" s="2"/>
       <c r="W538" s="2"/>
       <c r="X538" s="2"/>
+      <c r="Y538" s="2"/>
     </row>
     <row r="539">
       <c r="A539" s="2"/>
@@ -14857,6 +15419,7 @@
       <c r="V539" s="2"/>
       <c r="W539" s="2"/>
       <c r="X539" s="2"/>
+      <c r="Y539" s="2"/>
     </row>
     <row r="540">
       <c r="A540" s="2"/>
@@ -14883,6 +15446,7 @@
       <c r="V540" s="2"/>
       <c r="W540" s="2"/>
       <c r="X540" s="2"/>
+      <c r="Y540" s="2"/>
     </row>
     <row r="541">
       <c r="A541" s="2"/>
@@ -14909,6 +15473,7 @@
       <c r="V541" s="2"/>
       <c r="W541" s="2"/>
       <c r="X541" s="2"/>
+      <c r="Y541" s="2"/>
     </row>
     <row r="542">
       <c r="A542" s="2"/>
@@ -14935,6 +15500,7 @@
       <c r="V542" s="2"/>
       <c r="W542" s="2"/>
       <c r="X542" s="2"/>
+      <c r="Y542" s="2"/>
     </row>
     <row r="543">
       <c r="A543" s="2"/>
@@ -14961,6 +15527,7 @@
       <c r="V543" s="2"/>
       <c r="W543" s="2"/>
       <c r="X543" s="2"/>
+      <c r="Y543" s="2"/>
     </row>
     <row r="544">
       <c r="A544" s="2"/>
@@ -14987,6 +15554,7 @@
       <c r="V544" s="2"/>
       <c r="W544" s="2"/>
       <c r="X544" s="2"/>
+      <c r="Y544" s="2"/>
     </row>
     <row r="545">
       <c r="A545" s="2"/>
@@ -15013,6 +15581,7 @@
       <c r="V545" s="2"/>
       <c r="W545" s="2"/>
       <c r="X545" s="2"/>
+      <c r="Y545" s="2"/>
     </row>
     <row r="546">
       <c r="A546" s="2"/>
@@ -15039,6 +15608,7 @@
       <c r="V546" s="2"/>
       <c r="W546" s="2"/>
       <c r="X546" s="2"/>
+      <c r="Y546" s="2"/>
     </row>
     <row r="547">
       <c r="A547" s="2"/>
@@ -15065,6 +15635,7 @@
       <c r="V547" s="2"/>
       <c r="W547" s="2"/>
       <c r="X547" s="2"/>
+      <c r="Y547" s="2"/>
     </row>
     <row r="548">
       <c r="A548" s="2"/>
@@ -15091,6 +15662,7 @@
       <c r="V548" s="2"/>
       <c r="W548" s="2"/>
       <c r="X548" s="2"/>
+      <c r="Y548" s="2"/>
     </row>
     <row r="549">
       <c r="A549" s="2"/>
@@ -15117,6 +15689,7 @@
       <c r="V549" s="2"/>
       <c r="W549" s="2"/>
       <c r="X549" s="2"/>
+      <c r="Y549" s="2"/>
     </row>
     <row r="550">
       <c r="A550" s="2"/>
@@ -15143,6 +15716,7 @@
       <c r="V550" s="2"/>
       <c r="W550" s="2"/>
       <c r="X550" s="2"/>
+      <c r="Y550" s="2"/>
     </row>
     <row r="551">
       <c r="A551" s="2"/>
@@ -15169,6 +15743,7 @@
       <c r="V551" s="2"/>
       <c r="W551" s="2"/>
       <c r="X551" s="2"/>
+      <c r="Y551" s="2"/>
     </row>
     <row r="552">
       <c r="A552" s="2"/>
@@ -15195,6 +15770,7 @@
       <c r="V552" s="2"/>
       <c r="W552" s="2"/>
       <c r="X552" s="2"/>
+      <c r="Y552" s="2"/>
     </row>
     <row r="553">
       <c r="A553" s="2"/>
@@ -15221,6 +15797,7 @@
       <c r="V553" s="2"/>
       <c r="W553" s="2"/>
       <c r="X553" s="2"/>
+      <c r="Y553" s="2"/>
     </row>
     <row r="554">
       <c r="A554" s="2"/>
@@ -15247,6 +15824,7 @@
       <c r="V554" s="2"/>
       <c r="W554" s="2"/>
       <c r="X554" s="2"/>
+      <c r="Y554" s="2"/>
     </row>
     <row r="555">
       <c r="A555" s="2"/>
@@ -15273,6 +15851,7 @@
       <c r="V555" s="2"/>
       <c r="W555" s="2"/>
       <c r="X555" s="2"/>
+      <c r="Y555" s="2"/>
     </row>
     <row r="556">
       <c r="A556" s="2"/>
@@ -15299,6 +15878,7 @@
       <c r="V556" s="2"/>
       <c r="W556" s="2"/>
       <c r="X556" s="2"/>
+      <c r="Y556" s="2"/>
     </row>
     <row r="557">
       <c r="A557" s="2"/>
@@ -15325,6 +15905,7 @@
       <c r="V557" s="2"/>
       <c r="W557" s="2"/>
       <c r="X557" s="2"/>
+      <c r="Y557" s="2"/>
     </row>
     <row r="558">
       <c r="A558" s="2"/>
@@ -15351,6 +15932,7 @@
       <c r="V558" s="2"/>
       <c r="W558" s="2"/>
       <c r="X558" s="2"/>
+      <c r="Y558" s="2"/>
     </row>
     <row r="559">
       <c r="A559" s="2"/>
@@ -15377,6 +15959,7 @@
       <c r="V559" s="2"/>
       <c r="W559" s="2"/>
       <c r="X559" s="2"/>
+      <c r="Y559" s="2"/>
     </row>
     <row r="560">
       <c r="A560" s="2"/>
@@ -15403,6 +15986,7 @@
       <c r="V560" s="2"/>
       <c r="W560" s="2"/>
       <c r="X560" s="2"/>
+      <c r="Y560" s="2"/>
     </row>
     <row r="561">
       <c r="A561" s="2"/>
@@ -15429,6 +16013,7 @@
       <c r="V561" s="2"/>
       <c r="W561" s="2"/>
       <c r="X561" s="2"/>
+      <c r="Y561" s="2"/>
     </row>
     <row r="562">
       <c r="A562" s="2"/>
@@ -15455,6 +16040,7 @@
       <c r="V562" s="2"/>
       <c r="W562" s="2"/>
       <c r="X562" s="2"/>
+      <c r="Y562" s="2"/>
     </row>
     <row r="563">
       <c r="A563" s="2"/>
@@ -15481,6 +16067,7 @@
       <c r="V563" s="2"/>
       <c r="W563" s="2"/>
       <c r="X563" s="2"/>
+      <c r="Y563" s="2"/>
     </row>
     <row r="564">
       <c r="A564" s="2"/>
@@ -15507,6 +16094,7 @@
       <c r="V564" s="2"/>
       <c r="W564" s="2"/>
       <c r="X564" s="2"/>
+      <c r="Y564" s="2"/>
     </row>
     <row r="565">
       <c r="A565" s="2"/>
@@ -15533,6 +16121,7 @@
       <c r="V565" s="2"/>
       <c r="W565" s="2"/>
       <c r="X565" s="2"/>
+      <c r="Y565" s="2"/>
     </row>
     <row r="566">
       <c r="A566" s="2"/>
@@ -15559,6 +16148,7 @@
       <c r="V566" s="2"/>
       <c r="W566" s="2"/>
       <c r="X566" s="2"/>
+      <c r="Y566" s="2"/>
     </row>
     <row r="567">
       <c r="A567" s="2"/>
@@ -15585,6 +16175,7 @@
       <c r="V567" s="2"/>
       <c r="W567" s="2"/>
       <c r="X567" s="2"/>
+      <c r="Y567" s="2"/>
     </row>
     <row r="568">
       <c r="A568" s="2"/>
@@ -15611,6 +16202,7 @@
       <c r="V568" s="2"/>
       <c r="W568" s="2"/>
       <c r="X568" s="2"/>
+      <c r="Y568" s="2"/>
     </row>
     <row r="569">
       <c r="A569" s="2"/>
@@ -15637,6 +16229,7 @@
       <c r="V569" s="2"/>
       <c r="W569" s="2"/>
       <c r="X569" s="2"/>
+      <c r="Y569" s="2"/>
     </row>
     <row r="570">
       <c r="A570" s="2"/>
@@ -15663,6 +16256,7 @@
       <c r="V570" s="2"/>
       <c r="W570" s="2"/>
       <c r="X570" s="2"/>
+      <c r="Y570" s="2"/>
     </row>
     <row r="571">
       <c r="A571" s="2"/>
@@ -15689,6 +16283,7 @@
       <c r="V571" s="2"/>
       <c r="W571" s="2"/>
       <c r="X571" s="2"/>
+      <c r="Y571" s="2"/>
     </row>
     <row r="572">
       <c r="A572" s="2"/>
@@ -15715,6 +16310,7 @@
       <c r="V572" s="2"/>
       <c r="W572" s="2"/>
       <c r="X572" s="2"/>
+      <c r="Y572" s="2"/>
     </row>
     <row r="573">
       <c r="A573" s="2"/>
@@ -15741,6 +16337,7 @@
       <c r="V573" s="2"/>
       <c r="W573" s="2"/>
       <c r="X573" s="2"/>
+      <c r="Y573" s="2"/>
     </row>
     <row r="574">
       <c r="A574" s="2"/>
@@ -15767,6 +16364,7 @@
       <c r="V574" s="2"/>
       <c r="W574" s="2"/>
       <c r="X574" s="2"/>
+      <c r="Y574" s="2"/>
     </row>
     <row r="575">
       <c r="A575" s="2"/>
@@ -15793,6 +16391,7 @@
       <c r="V575" s="2"/>
       <c r="W575" s="2"/>
       <c r="X575" s="2"/>
+      <c r="Y575" s="2"/>
     </row>
     <row r="576">
       <c r="A576" s="2"/>
@@ -15819,6 +16418,7 @@
       <c r="V576" s="2"/>
       <c r="W576" s="2"/>
       <c r="X576" s="2"/>
+      <c r="Y576" s="2"/>
     </row>
     <row r="577">
       <c r="A577" s="2"/>
@@ -15845,6 +16445,7 @@
       <c r="V577" s="2"/>
       <c r="W577" s="2"/>
       <c r="X577" s="2"/>
+      <c r="Y577" s="2"/>
     </row>
     <row r="578">
       <c r="A578" s="2"/>
@@ -15871,6 +16472,7 @@
       <c r="V578" s="2"/>
       <c r="W578" s="2"/>
       <c r="X578" s="2"/>
+      <c r="Y578" s="2"/>
     </row>
     <row r="579">
       <c r="A579" s="2"/>
@@ -15897,6 +16499,7 @@
       <c r="V579" s="2"/>
       <c r="W579" s="2"/>
       <c r="X579" s="2"/>
+      <c r="Y579" s="2"/>
     </row>
     <row r="580">
       <c r="A580" s="2"/>
@@ -15923,6 +16526,7 @@
       <c r="V580" s="2"/>
       <c r="W580" s="2"/>
       <c r="X580" s="2"/>
+      <c r="Y580" s="2"/>
     </row>
     <row r="581">
       <c r="A581" s="2"/>
@@ -15949,6 +16553,7 @@
       <c r="V581" s="2"/>
       <c r="W581" s="2"/>
       <c r="X581" s="2"/>
+      <c r="Y581" s="2"/>
     </row>
     <row r="582">
       <c r="A582" s="2"/>
@@ -15975,6 +16580,7 @@
       <c r="V582" s="2"/>
       <c r="W582" s="2"/>
       <c r="X582" s="2"/>
+      <c r="Y582" s="2"/>
     </row>
     <row r="583">
       <c r="A583" s="2"/>
@@ -16001,6 +16607,7 @@
       <c r="V583" s="2"/>
       <c r="W583" s="2"/>
       <c r="X583" s="2"/>
+      <c r="Y583" s="2"/>
     </row>
     <row r="584">
       <c r="A584" s="2"/>
@@ -16027,6 +16634,7 @@
       <c r="V584" s="2"/>
       <c r="W584" s="2"/>
       <c r="X584" s="2"/>
+      <c r="Y584" s="2"/>
     </row>
     <row r="585">
       <c r="A585" s="2"/>
@@ -16053,6 +16661,7 @@
       <c r="V585" s="2"/>
       <c r="W585" s="2"/>
       <c r="X585" s="2"/>
+      <c r="Y585" s="2"/>
     </row>
     <row r="586">
       <c r="A586" s="2"/>
@@ -16079,6 +16688,7 @@
       <c r="V586" s="2"/>
       <c r="W586" s="2"/>
       <c r="X586" s="2"/>
+      <c r="Y586" s="2"/>
     </row>
     <row r="587">
       <c r="A587" s="2"/>
@@ -16105,6 +16715,7 @@
       <c r="V587" s="2"/>
       <c r="W587" s="2"/>
       <c r="X587" s="2"/>
+      <c r="Y587" s="2"/>
     </row>
     <row r="588">
       <c r="A588" s="2"/>
@@ -16131,6 +16742,7 @@
       <c r="V588" s="2"/>
       <c r="W588" s="2"/>
       <c r="X588" s="2"/>
+      <c r="Y588" s="2"/>
     </row>
     <row r="589">
       <c r="A589" s="2"/>
@@ -16157,6 +16769,7 @@
       <c r="V589" s="2"/>
       <c r="W589" s="2"/>
       <c r="X589" s="2"/>
+      <c r="Y589" s="2"/>
     </row>
     <row r="590">
       <c r="A590" s="2"/>
@@ -16183,6 +16796,7 @@
       <c r="V590" s="2"/>
       <c r="W590" s="2"/>
       <c r="X590" s="2"/>
+      <c r="Y590" s="2"/>
     </row>
     <row r="591">
       <c r="A591" s="2"/>
@@ -16209,6 +16823,7 @@
       <c r="V591" s="2"/>
       <c r="W591" s="2"/>
       <c r="X591" s="2"/>
+      <c r="Y591" s="2"/>
     </row>
     <row r="592">
       <c r="A592" s="2"/>
@@ -16235,6 +16850,7 @@
       <c r="V592" s="2"/>
       <c r="W592" s="2"/>
       <c r="X592" s="2"/>
+      <c r="Y592" s="2"/>
     </row>
     <row r="593">
       <c r="A593" s="2"/>
@@ -16261,6 +16877,7 @@
       <c r="V593" s="2"/>
       <c r="W593" s="2"/>
       <c r="X593" s="2"/>
+      <c r="Y593" s="2"/>
     </row>
     <row r="594">
       <c r="A594" s="2"/>
@@ -16287,6 +16904,7 @@
       <c r="V594" s="2"/>
       <c r="W594" s="2"/>
       <c r="X594" s="2"/>
+      <c r="Y594" s="2"/>
     </row>
     <row r="595">
       <c r="A595" s="2"/>
@@ -16313,6 +16931,7 @@
       <c r="V595" s="2"/>
       <c r="W595" s="2"/>
       <c r="X595" s="2"/>
+      <c r="Y595" s="2"/>
     </row>
     <row r="596">
       <c r="A596" s="2"/>
@@ -16339,6 +16958,7 @@
       <c r="V596" s="2"/>
       <c r="W596" s="2"/>
       <c r="X596" s="2"/>
+      <c r="Y596" s="2"/>
     </row>
     <row r="597">
       <c r="A597" s="2"/>
@@ -16365,6 +16985,7 @@
       <c r="V597" s="2"/>
       <c r="W597" s="2"/>
       <c r="X597" s="2"/>
+      <c r="Y597" s="2"/>
     </row>
     <row r="598">
       <c r="A598" s="2"/>
@@ -16391,6 +17012,7 @@
       <c r="V598" s="2"/>
       <c r="W598" s="2"/>
       <c r="X598" s="2"/>
+      <c r="Y598" s="2"/>
     </row>
     <row r="599">
       <c r="A599" s="2"/>
@@ -16417,6 +17039,7 @@
       <c r="V599" s="2"/>
       <c r="W599" s="2"/>
       <c r="X599" s="2"/>
+      <c r="Y599" s="2"/>
     </row>
     <row r="600">
       <c r="A600" s="2"/>
@@ -16443,6 +17066,7 @@
       <c r="V600" s="2"/>
       <c r="W600" s="2"/>
       <c r="X600" s="2"/>
+      <c r="Y600" s="2"/>
     </row>
     <row r="601">
       <c r="A601" s="2"/>
@@ -16469,6 +17093,7 @@
       <c r="V601" s="2"/>
       <c r="W601" s="2"/>
       <c r="X601" s="2"/>
+      <c r="Y601" s="2"/>
     </row>
     <row r="602">
       <c r="A602" s="2"/>
@@ -16495,6 +17120,7 @@
       <c r="V602" s="2"/>
       <c r="W602" s="2"/>
       <c r="X602" s="2"/>
+      <c r="Y602" s="2"/>
     </row>
     <row r="603">
       <c r="A603" s="2"/>
@@ -16521,6 +17147,7 @@
       <c r="V603" s="2"/>
       <c r="W603" s="2"/>
       <c r="X603" s="2"/>
+      <c r="Y603" s="2"/>
     </row>
     <row r="604">
       <c r="A604" s="2"/>
@@ -16547,6 +17174,7 @@
       <c r="V604" s="2"/>
       <c r="W604" s="2"/>
       <c r="X604" s="2"/>
+      <c r="Y604" s="2"/>
     </row>
     <row r="605">
       <c r="A605" s="2"/>
@@ -16573,6 +17201,7 @@
       <c r="V605" s="2"/>
       <c r="W605" s="2"/>
       <c r="X605" s="2"/>
+      <c r="Y605" s="2"/>
     </row>
     <row r="606">
       <c r="A606" s="2"/>
@@ -16599,6 +17228,7 @@
       <c r="V606" s="2"/>
       <c r="W606" s="2"/>
       <c r="X606" s="2"/>
+      <c r="Y606" s="2"/>
     </row>
     <row r="607">
       <c r="A607" s="2"/>
@@ -16625,6 +17255,7 @@
       <c r="V607" s="2"/>
       <c r="W607" s="2"/>
       <c r="X607" s="2"/>
+      <c r="Y607" s="2"/>
     </row>
     <row r="608">
       <c r="A608" s="2"/>
@@ -16651,6 +17282,7 @@
       <c r="V608" s="2"/>
       <c r="W608" s="2"/>
       <c r="X608" s="2"/>
+      <c r="Y608" s="2"/>
     </row>
     <row r="609">
       <c r="A609" s="2"/>
@@ -16677,6 +17309,7 @@
       <c r="V609" s="2"/>
       <c r="W609" s="2"/>
       <c r="X609" s="2"/>
+      <c r="Y609" s="2"/>
     </row>
     <row r="610">
       <c r="A610" s="2"/>
@@ -16703,6 +17336,7 @@
       <c r="V610" s="2"/>
       <c r="W610" s="2"/>
       <c r="X610" s="2"/>
+      <c r="Y610" s="2"/>
     </row>
     <row r="611">
       <c r="A611" s="2"/>
@@ -16729,6 +17363,7 @@
       <c r="V611" s="2"/>
       <c r="W611" s="2"/>
       <c r="X611" s="2"/>
+      <c r="Y611" s="2"/>
     </row>
     <row r="612">
       <c r="A612" s="2"/>
@@ -16755,6 +17390,7 @@
       <c r="V612" s="2"/>
       <c r="W612" s="2"/>
       <c r="X612" s="2"/>
+      <c r="Y612" s="2"/>
     </row>
     <row r="613">
       <c r="A613" s="2"/>
@@ -16781,6 +17417,7 @@
       <c r="V613" s="2"/>
       <c r="W613" s="2"/>
       <c r="X613" s="2"/>
+      <c r="Y613" s="2"/>
     </row>
     <row r="614">
       <c r="A614" s="2"/>
@@ -16807,6 +17444,7 @@
       <c r="V614" s="2"/>
       <c r="W614" s="2"/>
       <c r="X614" s="2"/>
+      <c r="Y614" s="2"/>
     </row>
     <row r="615">
       <c r="A615" s="2"/>
@@ -16833,6 +17471,7 @@
       <c r="V615" s="2"/>
       <c r="W615" s="2"/>
       <c r="X615" s="2"/>
+      <c r="Y615" s="2"/>
     </row>
     <row r="616">
       <c r="A616" s="2"/>
@@ -16859,6 +17498,7 @@
       <c r="V616" s="2"/>
       <c r="W616" s="2"/>
       <c r="X616" s="2"/>
+      <c r="Y616" s="2"/>
     </row>
     <row r="617">
       <c r="A617" s="2"/>
@@ -16885,6 +17525,7 @@
       <c r="V617" s="2"/>
       <c r="W617" s="2"/>
       <c r="X617" s="2"/>
+      <c r="Y617" s="2"/>
     </row>
     <row r="618">
       <c r="A618" s="2"/>
@@ -16911,6 +17552,7 @@
       <c r="V618" s="2"/>
       <c r="W618" s="2"/>
       <c r="X618" s="2"/>
+      <c r="Y618" s="2"/>
     </row>
     <row r="619">
       <c r="A619" s="2"/>
@@ -16937,6 +17579,7 @@
       <c r="V619" s="2"/>
       <c r="W619" s="2"/>
       <c r="X619" s="2"/>
+      <c r="Y619" s="2"/>
     </row>
     <row r="620">
       <c r="A620" s="2"/>
@@ -16963,6 +17606,7 @@
       <c r="V620" s="2"/>
       <c r="W620" s="2"/>
       <c r="X620" s="2"/>
+      <c r="Y620" s="2"/>
     </row>
     <row r="621">
       <c r="A621" s="2"/>
@@ -16989,6 +17633,7 @@
       <c r="V621" s="2"/>
       <c r="W621" s="2"/>
       <c r="X621" s="2"/>
+      <c r="Y621" s="2"/>
     </row>
     <row r="622">
       <c r="A622" s="2"/>
@@ -17015,6 +17660,7 @@
       <c r="V622" s="2"/>
       <c r="W622" s="2"/>
       <c r="X622" s="2"/>
+      <c r="Y622" s="2"/>
     </row>
     <row r="623">
       <c r="A623" s="2"/>
@@ -17041,6 +17687,7 @@
       <c r="V623" s="2"/>
       <c r="W623" s="2"/>
       <c r="X623" s="2"/>
+      <c r="Y623" s="2"/>
     </row>
     <row r="624">
       <c r="A624" s="2"/>
@@ -17067,6 +17714,7 @@
       <c r="V624" s="2"/>
       <c r="W624" s="2"/>
       <c r="X624" s="2"/>
+      <c r="Y624" s="2"/>
     </row>
     <row r="625">
       <c r="A625" s="2"/>
@@ -17093,6 +17741,7 @@
       <c r="V625" s="2"/>
       <c r="W625" s="2"/>
       <c r="X625" s="2"/>
+      <c r="Y625" s="2"/>
     </row>
     <row r="626">
       <c r="A626" s="2"/>
@@ -17119,6 +17768,7 @@
       <c r="V626" s="2"/>
       <c r="W626" s="2"/>
       <c r="X626" s="2"/>
+      <c r="Y626" s="2"/>
     </row>
     <row r="627">
       <c r="A627" s="2"/>
@@ -17145,6 +17795,7 @@
       <c r="V627" s="2"/>
       <c r="W627" s="2"/>
       <c r="X627" s="2"/>
+      <c r="Y627" s="2"/>
     </row>
     <row r="628">
       <c r="A628" s="2"/>
@@ -17171,6 +17822,7 @@
       <c r="V628" s="2"/>
       <c r="W628" s="2"/>
       <c r="X628" s="2"/>
+      <c r="Y628" s="2"/>
     </row>
     <row r="629">
       <c r="A629" s="2"/>
@@ -17197,6 +17849,7 @@
       <c r="V629" s="2"/>
       <c r="W629" s="2"/>
       <c r="X629" s="2"/>
+      <c r="Y629" s="2"/>
     </row>
     <row r="630">
       <c r="A630" s="2"/>
@@ -17223,6 +17876,7 @@
       <c r="V630" s="2"/>
       <c r="W630" s="2"/>
       <c r="X630" s="2"/>
+      <c r="Y630" s="2"/>
     </row>
     <row r="631">
       <c r="A631" s="2"/>
@@ -17249,6 +17903,7 @@
       <c r="V631" s="2"/>
       <c r="W631" s="2"/>
       <c r="X631" s="2"/>
+      <c r="Y631" s="2"/>
     </row>
     <row r="632">
       <c r="A632" s="2"/>
@@ -17275,6 +17930,7 @@
       <c r="V632" s="2"/>
       <c r="W632" s="2"/>
       <c r="X632" s="2"/>
+      <c r="Y632" s="2"/>
     </row>
     <row r="633">
       <c r="A633" s="2"/>
@@ -17301,6 +17957,7 @@
       <c r="V633" s="2"/>
       <c r="W633" s="2"/>
       <c r="X633" s="2"/>
+      <c r="Y633" s="2"/>
     </row>
     <row r="634">
       <c r="A634" s="2"/>
@@ -17327,6 +17984,7 @@
       <c r="V634" s="2"/>
       <c r="W634" s="2"/>
       <c r="X634" s="2"/>
+      <c r="Y634" s="2"/>
     </row>
     <row r="635">
       <c r="A635" s="2"/>
@@ -17353,6 +18011,7 @@
       <c r="V635" s="2"/>
       <c r="W635" s="2"/>
       <c r="X635" s="2"/>
+      <c r="Y635" s="2"/>
     </row>
     <row r="636">
       <c r="A636" s="2"/>
@@ -17379,6 +18038,7 @@
       <c r="V636" s="2"/>
       <c r="W636" s="2"/>
       <c r="X636" s="2"/>
+      <c r="Y636" s="2"/>
     </row>
     <row r="637">
       <c r="A637" s="2"/>
@@ -17405,6 +18065,7 @@
       <c r="V637" s="2"/>
       <c r="W637" s="2"/>
       <c r="X637" s="2"/>
+      <c r="Y637" s="2"/>
     </row>
     <row r="638">
       <c r="A638" s="2"/>
@@ -17431,6 +18092,7 @@
       <c r="V638" s="2"/>
       <c r="W638" s="2"/>
       <c r="X638" s="2"/>
+      <c r="Y638" s="2"/>
     </row>
     <row r="639">
       <c r="A639" s="2"/>
@@ -17457,6 +18119,7 @@
       <c r="V639" s="2"/>
       <c r="W639" s="2"/>
       <c r="X639" s="2"/>
+      <c r="Y639" s="2"/>
     </row>
     <row r="640">
       <c r="A640" s="2"/>
@@ -17483,6 +18146,7 @@
       <c r="V640" s="2"/>
       <c r="W640" s="2"/>
       <c r="X640" s="2"/>
+      <c r="Y640" s="2"/>
     </row>
     <row r="641">
       <c r="A641" s="2"/>
@@ -17509,6 +18173,7 @@
       <c r="V641" s="2"/>
       <c r="W641" s="2"/>
       <c r="X641" s="2"/>
+      <c r="Y641" s="2"/>
     </row>
     <row r="642">
       <c r="A642" s="2"/>
@@ -17535,6 +18200,7 @@
       <c r="V642" s="2"/>
       <c r="W642" s="2"/>
       <c r="X642" s="2"/>
+      <c r="Y642" s="2"/>
     </row>
     <row r="643">
       <c r="A643" s="2"/>
@@ -17561,6 +18227,7 @@
       <c r="V643" s="2"/>
       <c r="W643" s="2"/>
       <c r="X643" s="2"/>
+      <c r="Y643" s="2"/>
     </row>
     <row r="644">
       <c r="A644" s="2"/>
@@ -17587,6 +18254,7 @@
       <c r="V644" s="2"/>
       <c r="W644" s="2"/>
       <c r="X644" s="2"/>
+      <c r="Y644" s="2"/>
     </row>
     <row r="645">
       <c r="A645" s="2"/>
@@ -17613,6 +18281,7 @@
       <c r="V645" s="2"/>
       <c r="W645" s="2"/>
       <c r="X645" s="2"/>
+      <c r="Y645" s="2"/>
     </row>
     <row r="646">
       <c r="A646" s="2"/>
@@ -17639,6 +18308,7 @@
       <c r="V646" s="2"/>
       <c r="W646" s="2"/>
       <c r="X646" s="2"/>
+      <c r="Y646" s="2"/>
     </row>
     <row r="647">
       <c r="A647" s="2"/>
@@ -17665,6 +18335,7 @@
       <c r="V647" s="2"/>
       <c r="W647" s="2"/>
       <c r="X647" s="2"/>
+      <c r="Y647" s="2"/>
     </row>
     <row r="648">
       <c r="A648" s="2"/>
@@ -17691,6 +18362,7 @@
       <c r="V648" s="2"/>
       <c r="W648" s="2"/>
       <c r="X648" s="2"/>
+      <c r="Y648" s="2"/>
     </row>
     <row r="649">
       <c r="A649" s="2"/>
@@ -17717,6 +18389,7 @@
       <c r="V649" s="2"/>
       <c r="W649" s="2"/>
       <c r="X649" s="2"/>
+      <c r="Y649" s="2"/>
     </row>
     <row r="650">
       <c r="A650" s="2"/>
@@ -17743,6 +18416,7 @@
       <c r="V650" s="2"/>
       <c r="W650" s="2"/>
       <c r="X650" s="2"/>
+      <c r="Y650" s="2"/>
     </row>
     <row r="651">
       <c r="A651" s="2"/>
@@ -17769,6 +18443,7 @@
       <c r="V651" s="2"/>
       <c r="W651" s="2"/>
       <c r="X651" s="2"/>
+      <c r="Y651" s="2"/>
     </row>
     <row r="652">
       <c r="A652" s="2"/>
@@ -17795,6 +18470,7 @@
       <c r="V652" s="2"/>
       <c r="W652" s="2"/>
       <c r="X652" s="2"/>
+      <c r="Y652" s="2"/>
     </row>
     <row r="653">
       <c r="A653" s="2"/>
@@ -17821,6 +18497,7 @@
       <c r="V653" s="2"/>
       <c r="W653" s="2"/>
       <c r="X653" s="2"/>
+      <c r="Y653" s="2"/>
     </row>
     <row r="654">
       <c r="A654" s="2"/>
@@ -17847,6 +18524,7 @@
       <c r="V654" s="2"/>
       <c r="W654" s="2"/>
       <c r="X654" s="2"/>
+      <c r="Y654" s="2"/>
     </row>
     <row r="655">
       <c r="A655" s="2"/>
@@ -17873,6 +18551,7 @@
       <c r="V655" s="2"/>
       <c r="W655" s="2"/>
       <c r="X655" s="2"/>
+      <c r="Y655" s="2"/>
     </row>
     <row r="656">
       <c r="A656" s="2"/>
@@ -17899,6 +18578,7 @@
       <c r="V656" s="2"/>
       <c r="W656" s="2"/>
       <c r="X656" s="2"/>
+      <c r="Y656" s="2"/>
     </row>
     <row r="657">
       <c r="A657" s="2"/>
@@ -17925,6 +18605,7 @@
       <c r="V657" s="2"/>
       <c r="W657" s="2"/>
       <c r="X657" s="2"/>
+      <c r="Y657" s="2"/>
     </row>
     <row r="658">
       <c r="A658" s="2"/>
@@ -17951,6 +18632,7 @@
       <c r="V658" s="2"/>
       <c r="W658" s="2"/>
       <c r="X658" s="2"/>
+      <c r="Y658" s="2"/>
     </row>
     <row r="659">
       <c r="A659" s="2"/>
@@ -17977,6 +18659,7 @@
       <c r="V659" s="2"/>
       <c r="W659" s="2"/>
       <c r="X659" s="2"/>
+      <c r="Y659" s="2"/>
     </row>
     <row r="660">
       <c r="A660" s="2"/>
@@ -18003,6 +18686,7 @@
       <c r="V660" s="2"/>
       <c r="W660" s="2"/>
       <c r="X660" s="2"/>
+      <c r="Y660" s="2"/>
     </row>
     <row r="661">
       <c r="A661" s="2"/>
@@ -18029,6 +18713,7 @@
       <c r="V661" s="2"/>
       <c r="W661" s="2"/>
       <c r="X661" s="2"/>
+      <c r="Y661" s="2"/>
     </row>
     <row r="662">
       <c r="A662" s="2"/>
@@ -18055,6 +18740,7 @@
       <c r="V662" s="2"/>
       <c r="W662" s="2"/>
       <c r="X662" s="2"/>
+      <c r="Y662" s="2"/>
     </row>
     <row r="663">
       <c r="A663" s="2"/>
@@ -18081,6 +18767,7 @@
       <c r="V663" s="2"/>
       <c r="W663" s="2"/>
       <c r="X663" s="2"/>
+      <c r="Y663" s="2"/>
     </row>
     <row r="664">
       <c r="A664" s="2"/>
@@ -18107,6 +18794,7 @@
       <c r="V664" s="2"/>
       <c r="W664" s="2"/>
       <c r="X664" s="2"/>
+      <c r="Y664" s="2"/>
     </row>
     <row r="665">
       <c r="A665" s="2"/>
@@ -18133,6 +18821,7 @@
       <c r="V665" s="2"/>
       <c r="W665" s="2"/>
       <c r="X665" s="2"/>
+      <c r="Y665" s="2"/>
     </row>
     <row r="666">
       <c r="A666" s="2"/>
@@ -18159,6 +18848,7 @@
       <c r="V666" s="2"/>
       <c r="W666" s="2"/>
       <c r="X666" s="2"/>
+      <c r="Y666" s="2"/>
     </row>
     <row r="667">
       <c r="A667" s="2"/>
@@ -18185,6 +18875,7 @@
       <c r="V667" s="2"/>
       <c r="W667" s="2"/>
       <c r="X667" s="2"/>
+      <c r="Y667" s="2"/>
     </row>
     <row r="668">
       <c r="A668" s="2"/>
@@ -18211,6 +18902,7 @@
       <c r="V668" s="2"/>
       <c r="W668" s="2"/>
       <c r="X668" s="2"/>
+      <c r="Y668" s="2"/>
     </row>
     <row r="669">
       <c r="A669" s="2"/>
@@ -18237,6 +18929,7 @@
       <c r="V669" s="2"/>
       <c r="W669" s="2"/>
       <c r="X669" s="2"/>
+      <c r="Y669" s="2"/>
     </row>
     <row r="670">
       <c r="A670" s="2"/>
@@ -18263,6 +18956,7 @@
       <c r="V670" s="2"/>
       <c r="W670" s="2"/>
       <c r="X670" s="2"/>
+      <c r="Y670" s="2"/>
     </row>
     <row r="671">
       <c r="A671" s="2"/>
@@ -18289,6 +18983,7 @@
       <c r="V671" s="2"/>
       <c r="W671" s="2"/>
       <c r="X671" s="2"/>
+      <c r="Y671" s="2"/>
     </row>
     <row r="672">
       <c r="A672" s="2"/>
@@ -18315,6 +19010,7 @@
       <c r="V672" s="2"/>
       <c r="W672" s="2"/>
       <c r="X672" s="2"/>
+      <c r="Y672" s="2"/>
     </row>
     <row r="673">
       <c r="A673" s="2"/>
@@ -18341,6 +19037,7 @@
       <c r="V673" s="2"/>
       <c r="W673" s="2"/>
       <c r="X673" s="2"/>
+      <c r="Y673" s="2"/>
     </row>
     <row r="674">
       <c r="A674" s="2"/>
@@ -18367,6 +19064,7 @@
       <c r="V674" s="2"/>
       <c r="W674" s="2"/>
       <c r="X674" s="2"/>
+      <c r="Y674" s="2"/>
     </row>
     <row r="675">
       <c r="A675" s="2"/>
@@ -18393,6 +19091,7 @@
       <c r="V675" s="2"/>
       <c r="W675" s="2"/>
       <c r="X675" s="2"/>
+      <c r="Y675" s="2"/>
     </row>
     <row r="676">
       <c r="A676" s="2"/>
@@ -18419,6 +19118,7 @@
       <c r="V676" s="2"/>
       <c r="W676" s="2"/>
       <c r="X676" s="2"/>
+      <c r="Y676" s="2"/>
     </row>
     <row r="677">
       <c r="A677" s="2"/>
@@ -18445,6 +19145,7 @@
       <c r="V677" s="2"/>
       <c r="W677" s="2"/>
       <c r="X677" s="2"/>
+      <c r="Y677" s="2"/>
     </row>
     <row r="678">
       <c r="A678" s="2"/>
@@ -18471,6 +19172,7 @@
       <c r="V678" s="2"/>
       <c r="W678" s="2"/>
       <c r="X678" s="2"/>
+      <c r="Y678" s="2"/>
     </row>
     <row r="679">
       <c r="A679" s="2"/>
@@ -18497,6 +19199,7 @@
       <c r="V679" s="2"/>
       <c r="W679" s="2"/>
       <c r="X679" s="2"/>
+      <c r="Y679" s="2"/>
     </row>
     <row r="680">
       <c r="A680" s="2"/>
@@ -18523,6 +19226,7 @@
       <c r="V680" s="2"/>
       <c r="W680" s="2"/>
       <c r="X680" s="2"/>
+      <c r="Y680" s="2"/>
     </row>
     <row r="681">
       <c r="A681" s="2"/>
@@ -18549,6 +19253,7 @@
       <c r="V681" s="2"/>
       <c r="W681" s="2"/>
       <c r="X681" s="2"/>
+      <c r="Y681" s="2"/>
     </row>
     <row r="682">
       <c r="A682" s="2"/>
@@ -18575,6 +19280,7 @@
       <c r="V682" s="2"/>
       <c r="W682" s="2"/>
       <c r="X682" s="2"/>
+      <c r="Y682" s="2"/>
     </row>
     <row r="683">
       <c r="A683" s="2"/>
@@ -18601,6 +19307,7 @@
       <c r="V683" s="2"/>
       <c r="W683" s="2"/>
       <c r="X683" s="2"/>
+      <c r="Y683" s="2"/>
     </row>
     <row r="684">
       <c r="A684" s="2"/>
@@ -18627,6 +19334,7 @@
       <c r="V684" s="2"/>
       <c r="W684" s="2"/>
       <c r="X684" s="2"/>
+      <c r="Y684" s="2"/>
     </row>
     <row r="685">
       <c r="A685" s="2"/>
@@ -18653,6 +19361,7 @@
       <c r="V685" s="2"/>
       <c r="W685" s="2"/>
       <c r="X685" s="2"/>
+      <c r="Y685" s="2"/>
     </row>
     <row r="686">
       <c r="A686" s="2"/>
@@ -18679,6 +19388,7 @@
       <c r="V686" s="2"/>
       <c r="W686" s="2"/>
       <c r="X686" s="2"/>
+      <c r="Y686" s="2"/>
     </row>
     <row r="687">
       <c r="A687" s="2"/>
@@ -18705,6 +19415,7 @@
       <c r="V687" s="2"/>
       <c r="W687" s="2"/>
       <c r="X687" s="2"/>
+      <c r="Y687" s="2"/>
     </row>
     <row r="688">
       <c r="A688" s="2"/>
@@ -18731,6 +19442,7 @@
       <c r="V688" s="2"/>
       <c r="W688" s="2"/>
       <c r="X688" s="2"/>
+      <c r="Y688" s="2"/>
     </row>
     <row r="689">
       <c r="A689" s="2"/>
@@ -18757,6 +19469,7 @@
       <c r="V689" s="2"/>
       <c r="W689" s="2"/>
       <c r="X689" s="2"/>
+      <c r="Y689" s="2"/>
     </row>
     <row r="690">
       <c r="A690" s="2"/>
@@ -18783,6 +19496,7 @@
       <c r="V690" s="2"/>
       <c r="W690" s="2"/>
       <c r="X690" s="2"/>
+      <c r="Y690" s="2"/>
     </row>
     <row r="691">
       <c r="A691" s="2"/>
@@ -18809,6 +19523,7 @@
       <c r="V691" s="2"/>
       <c r="W691" s="2"/>
       <c r="X691" s="2"/>
+      <c r="Y691" s="2"/>
     </row>
     <row r="692">
       <c r="A692" s="2"/>
@@ -18835,6 +19550,7 @@
       <c r="V692" s="2"/>
       <c r="W692" s="2"/>
       <c r="X692" s="2"/>
+      <c r="Y692" s="2"/>
     </row>
     <row r="693">
       <c r="A693" s="2"/>
@@ -18861,6 +19577,7 @@
       <c r="V693" s="2"/>
       <c r="W693" s="2"/>
       <c r="X693" s="2"/>
+      <c r="Y693" s="2"/>
     </row>
     <row r="694">
       <c r="A694" s="2"/>
@@ -18887,6 +19604,7 @@
       <c r="V694" s="2"/>
       <c r="W694" s="2"/>
       <c r="X694" s="2"/>
+      <c r="Y694" s="2"/>
     </row>
     <row r="695">
       <c r="A695" s="2"/>
@@ -18913,6 +19631,7 @@
       <c r="V695" s="2"/>
       <c r="W695" s="2"/>
       <c r="X695" s="2"/>
+      <c r="Y695" s="2"/>
     </row>
     <row r="696">
       <c r="A696" s="2"/>
@@ -18939,6 +19658,7 @@
       <c r="V696" s="2"/>
       <c r="W696" s="2"/>
       <c r="X696" s="2"/>
+      <c r="Y696" s="2"/>
     </row>
     <row r="697">
       <c r="A697" s="2"/>
@@ -18965,6 +19685,7 @@
       <c r="V697" s="2"/>
       <c r="W697" s="2"/>
       <c r="X697" s="2"/>
+      <c r="Y697" s="2"/>
     </row>
     <row r="698">
       <c r="A698" s="2"/>
@@ -18991,6 +19712,7 @@
       <c r="V698" s="2"/>
       <c r="W698" s="2"/>
       <c r="X698" s="2"/>
+      <c r="Y698" s="2"/>
     </row>
     <row r="699">
       <c r="A699" s="2"/>
@@ -19017,6 +19739,7 @@
       <c r="V699" s="2"/>
       <c r="W699" s="2"/>
       <c r="X699" s="2"/>
+      <c r="Y699" s="2"/>
     </row>
     <row r="700">
       <c r="A700" s="2"/>
@@ -19043,6 +19766,7 @@
       <c r="V700" s="2"/>
       <c r="W700" s="2"/>
       <c r="X700" s="2"/>
+      <c r="Y700" s="2"/>
     </row>
     <row r="701">
       <c r="A701" s="2"/>
@@ -19069,6 +19793,7 @@
       <c r="V701" s="2"/>
       <c r="W701" s="2"/>
       <c r="X701" s="2"/>
+      <c r="Y701" s="2"/>
     </row>
     <row r="702">
       <c r="A702" s="2"/>
@@ -19095,6 +19820,7 @@
       <c r="V702" s="2"/>
       <c r="W702" s="2"/>
       <c r="X702" s="2"/>
+      <c r="Y702" s="2"/>
     </row>
     <row r="703">
       <c r="A703" s="2"/>
@@ -19121,6 +19847,7 @@
       <c r="V703" s="2"/>
       <c r="W703" s="2"/>
       <c r="X703" s="2"/>
+      <c r="Y703" s="2"/>
     </row>
     <row r="704">
       <c r="A704" s="2"/>
@@ -19147,6 +19874,7 @@
       <c r="V704" s="2"/>
       <c r="W704" s="2"/>
       <c r="X704" s="2"/>
+      <c r="Y704" s="2"/>
     </row>
     <row r="705">
       <c r="A705" s="2"/>
@@ -19173,6 +19901,7 @@
       <c r="V705" s="2"/>
       <c r="W705" s="2"/>
       <c r="X705" s="2"/>
+      <c r="Y705" s="2"/>
     </row>
     <row r="706">
       <c r="A706" s="2"/>
@@ -19199,6 +19928,7 @@
       <c r="V706" s="2"/>
       <c r="W706" s="2"/>
       <c r="X706" s="2"/>
+      <c r="Y706" s="2"/>
     </row>
     <row r="707">
       <c r="A707" s="2"/>
@@ -19225,6 +19955,7 @@
       <c r="V707" s="2"/>
       <c r="W707" s="2"/>
       <c r="X707" s="2"/>
+      <c r="Y707" s="2"/>
     </row>
     <row r="708">
       <c r="A708" s="2"/>
@@ -19251,6 +19982,7 @@
       <c r="V708" s="2"/>
       <c r="W708" s="2"/>
       <c r="X708" s="2"/>
+      <c r="Y708" s="2"/>
     </row>
     <row r="709">
       <c r="A709" s="2"/>
@@ -19277,6 +20009,7 @@
       <c r="V709" s="2"/>
       <c r="W709" s="2"/>
       <c r="X709" s="2"/>
+      <c r="Y709" s="2"/>
     </row>
     <row r="710">
       <c r="A710" s="2"/>
@@ -19303,6 +20036,7 @@
       <c r="V710" s="2"/>
       <c r="W710" s="2"/>
       <c r="X710" s="2"/>
+      <c r="Y710" s="2"/>
     </row>
     <row r="711">
       <c r="A711" s="2"/>
@@ -19329,6 +20063,7 @@
       <c r="V711" s="2"/>
       <c r="W711" s="2"/>
       <c r="X711" s="2"/>
+      <c r="Y711" s="2"/>
     </row>
     <row r="712">
       <c r="A712" s="2"/>
@@ -19355,6 +20090,7 @@
       <c r="V712" s="2"/>
       <c r="W712" s="2"/>
       <c r="X712" s="2"/>
+      <c r="Y712" s="2"/>
     </row>
     <row r="713">
       <c r="A713" s="2"/>
@@ -19381,6 +20117,7 @@
       <c r="V713" s="2"/>
       <c r="W713" s="2"/>
       <c r="X713" s="2"/>
+      <c r="Y713" s="2"/>
     </row>
     <row r="714">
       <c r="A714" s="2"/>
@@ -19407,6 +20144,7 @@
       <c r="V714" s="2"/>
       <c r="W714" s="2"/>
       <c r="X714" s="2"/>
+      <c r="Y714" s="2"/>
     </row>
     <row r="715">
       <c r="A715" s="2"/>
@@ -19433,6 +20171,7 @@
       <c r="V715" s="2"/>
       <c r="W715" s="2"/>
       <c r="X715" s="2"/>
+      <c r="Y715" s="2"/>
     </row>
     <row r="716">
       <c r="A716" s="2"/>
@@ -19459,6 +20198,7 @@
       <c r="V716" s="2"/>
       <c r="W716" s="2"/>
       <c r="X716" s="2"/>
+      <c r="Y716" s="2"/>
     </row>
     <row r="717">
       <c r="A717" s="2"/>
@@ -19485,6 +20225,7 @@
       <c r="V717" s="2"/>
       <c r="W717" s="2"/>
       <c r="X717" s="2"/>
+      <c r="Y717" s="2"/>
     </row>
     <row r="718">
       <c r="A718" s="2"/>
@@ -19511,6 +20252,7 @@
       <c r="V718" s="2"/>
       <c r="W718" s="2"/>
       <c r="X718" s="2"/>
+      <c r="Y718" s="2"/>
     </row>
     <row r="719">
       <c r="A719" s="2"/>
@@ -19537,6 +20279,7 @@
       <c r="V719" s="2"/>
       <c r="W719" s="2"/>
       <c r="X719" s="2"/>
+      <c r="Y719" s="2"/>
     </row>
     <row r="720">
       <c r="A720" s="2"/>
@@ -19563,6 +20306,7 @@
       <c r="V720" s="2"/>
       <c r="W720" s="2"/>
       <c r="X720" s="2"/>
+      <c r="Y720" s="2"/>
     </row>
     <row r="721">
       <c r="A721" s="2"/>
@@ -19589,6 +20333,7 @@
       <c r="V721" s="2"/>
       <c r="W721" s="2"/>
       <c r="X721" s="2"/>
+      <c r="Y721" s="2"/>
     </row>
     <row r="722">
       <c r="A722" s="2"/>
@@ -19615,6 +20360,7 @@
       <c r="V722" s="2"/>
       <c r="W722" s="2"/>
       <c r="X722" s="2"/>
+      <c r="Y722" s="2"/>
     </row>
     <row r="723">
       <c r="A723" s="2"/>
@@ -19641,6 +20387,7 @@
       <c r="V723" s="2"/>
       <c r="W723" s="2"/>
       <c r="X723" s="2"/>
+      <c r="Y723" s="2"/>
     </row>
     <row r="724">
       <c r="A724" s="2"/>
@@ -19667,6 +20414,7 @@
       <c r="V724" s="2"/>
       <c r="W724" s="2"/>
       <c r="X724" s="2"/>
+      <c r="Y724" s="2"/>
     </row>
     <row r="725">
       <c r="A725" s="2"/>
@@ -19693,6 +20441,7 @@
       <c r="V725" s="2"/>
       <c r="W725" s="2"/>
       <c r="X725" s="2"/>
+      <c r="Y725" s="2"/>
     </row>
     <row r="726">
       <c r="A726" s="2"/>
@@ -19719,6 +20468,7 @@
       <c r="V726" s="2"/>
       <c r="W726" s="2"/>
       <c r="X726" s="2"/>
+      <c r="Y726" s="2"/>
     </row>
     <row r="727">
       <c r="A727" s="2"/>
@@ -19745,6 +20495,7 @@
       <c r="V727" s="2"/>
       <c r="W727" s="2"/>
       <c r="X727" s="2"/>
+      <c r="Y727" s="2"/>
     </row>
     <row r="728">
       <c r="A728" s="2"/>
@@ -19771,6 +20522,7 @@
       <c r="V728" s="2"/>
       <c r="W728" s="2"/>
       <c r="X728" s="2"/>
+      <c r="Y728" s="2"/>
     </row>
     <row r="729">
       <c r="A729" s="2"/>
@@ -19797,6 +20549,7 @@
       <c r="V729" s="2"/>
       <c r="W729" s="2"/>
       <c r="X729" s="2"/>
+      <c r="Y729" s="2"/>
     </row>
     <row r="730">
       <c r="A730" s="2"/>
@@ -19823,6 +20576,7 @@
       <c r="V730" s="2"/>
       <c r="W730" s="2"/>
       <c r="X730" s="2"/>
+      <c r="Y730" s="2"/>
     </row>
     <row r="731">
       <c r="A731" s="2"/>
@@ -19849,6 +20603,7 @@
       <c r="V731" s="2"/>
       <c r="W731" s="2"/>
       <c r="X731" s="2"/>
+      <c r="Y731" s="2"/>
     </row>
     <row r="732">
       <c r="A732" s="2"/>
@@ -19875,6 +20630,7 @@
       <c r="V732" s="2"/>
       <c r="W732" s="2"/>
       <c r="X732" s="2"/>
+      <c r="Y732" s="2"/>
     </row>
     <row r="733">
       <c r="A733" s="2"/>
@@ -19901,6 +20657,7 @@
       <c r="V733" s="2"/>
       <c r="W733" s="2"/>
       <c r="X733" s="2"/>
+      <c r="Y733" s="2"/>
     </row>
     <row r="734">
       <c r="A734" s="2"/>
@@ -19927,6 +20684,7 @@
       <c r="V734" s="2"/>
       <c r="W734" s="2"/>
       <c r="X734" s="2"/>
+      <c r="Y734" s="2"/>
     </row>
     <row r="735">
       <c r="A735" s="2"/>
@@ -19953,6 +20711,7 @@
       <c r="V735" s="2"/>
       <c r="W735" s="2"/>
       <c r="X735" s="2"/>
+      <c r="Y735" s="2"/>
     </row>
     <row r="736">
       <c r="A736" s="2"/>
@@ -19979,6 +20738,7 @@
       <c r="V736" s="2"/>
       <c r="W736" s="2"/>
       <c r="X736" s="2"/>
+      <c r="Y736" s="2"/>
     </row>
     <row r="737">
       <c r="A737" s="2"/>
@@ -20005,6 +20765,7 @@
       <c r="V737" s="2"/>
       <c r="W737" s="2"/>
       <c r="X737" s="2"/>
+      <c r="Y737" s="2"/>
     </row>
     <row r="738">
       <c r="A738" s="2"/>
@@ -20031,6 +20792,7 @@
       <c r="V738" s="2"/>
       <c r="W738" s="2"/>
       <c r="X738" s="2"/>
+      <c r="Y738" s="2"/>
     </row>
     <row r="739">
       <c r="A739" s="2"/>
@@ -20057,6 +20819,7 @@
       <c r="V739" s="2"/>
       <c r="W739" s="2"/>
       <c r="X739" s="2"/>
+      <c r="Y739" s="2"/>
     </row>
     <row r="740">
       <c r="A740" s="2"/>
@@ -20083,6 +20846,7 @@
       <c r="V740" s="2"/>
       <c r="W740" s="2"/>
       <c r="X740" s="2"/>
+      <c r="Y740" s="2"/>
     </row>
     <row r="741">
       <c r="A741" s="2"/>
@@ -20109,6 +20873,7 @@
       <c r="V741" s="2"/>
       <c r="W741" s="2"/>
       <c r="X741" s="2"/>
+      <c r="Y741" s="2"/>
     </row>
     <row r="742">
       <c r="A742" s="2"/>
@@ -20135,6 +20900,7 @@
       <c r="V742" s="2"/>
       <c r="W742" s="2"/>
       <c r="X742" s="2"/>
+      <c r="Y742" s="2"/>
     </row>
     <row r="743">
       <c r="A743" s="2"/>
@@ -20161,6 +20927,7 @@
       <c r="V743" s="2"/>
       <c r="W743" s="2"/>
       <c r="X743" s="2"/>
+      <c r="Y743" s="2"/>
     </row>
     <row r="744">
       <c r="A744" s="2"/>
@@ -20187,6 +20954,7 @@
       <c r="V744" s="2"/>
       <c r="W744" s="2"/>
       <c r="X744" s="2"/>
+      <c r="Y744" s="2"/>
     </row>
     <row r="745">
       <c r="A745" s="2"/>
@@ -20213,6 +20981,7 @@
       <c r="V745" s="2"/>
       <c r="W745" s="2"/>
       <c r="X745" s="2"/>
+      <c r="Y745" s="2"/>
     </row>
     <row r="746">
       <c r="A746" s="2"/>
@@ -20239,6 +21008,7 @@
       <c r="V746" s="2"/>
       <c r="W746" s="2"/>
       <c r="X746" s="2"/>
+      <c r="Y746" s="2"/>
     </row>
     <row r="747">
       <c r="A747" s="2"/>
@@ -20265,6 +21035,7 @@
       <c r="V747" s="2"/>
       <c r="W747" s="2"/>
       <c r="X747" s="2"/>
+      <c r="Y747" s="2"/>
     </row>
     <row r="748">
       <c r="A748" s="2"/>
@@ -20291,6 +21062,7 @@
       <c r="V748" s="2"/>
       <c r="W748" s="2"/>
       <c r="X748" s="2"/>
+      <c r="Y748" s="2"/>
     </row>
     <row r="749">
       <c r="A749" s="2"/>
@@ -20317,6 +21089,7 @@
       <c r="V749" s="2"/>
       <c r="W749" s="2"/>
       <c r="X749" s="2"/>
+      <c r="Y749" s="2"/>
     </row>
     <row r="750">
       <c r="A750" s="2"/>
@@ -20343,6 +21116,7 @@
       <c r="V750" s="2"/>
       <c r="W750" s="2"/>
       <c r="X750" s="2"/>
+      <c r="Y750" s="2"/>
     </row>
     <row r="751">
       <c r="A751" s="2"/>
@@ -20369,6 +21143,7 @@
       <c r="V751" s="2"/>
       <c r="W751" s="2"/>
       <c r="X751" s="2"/>
+      <c r="Y751" s="2"/>
     </row>
     <row r="752">
       <c r="A752" s="2"/>
@@ -20395,6 +21170,7 @@
       <c r="V752" s="2"/>
       <c r="W752" s="2"/>
       <c r="X752" s="2"/>
+      <c r="Y752" s="2"/>
     </row>
     <row r="753">
       <c r="A753" s="2"/>
@@ -20421,6 +21197,7 @@
       <c r="V753" s="2"/>
       <c r="W753" s="2"/>
       <c r="X753" s="2"/>
+      <c r="Y753" s="2"/>
     </row>
     <row r="754">
       <c r="A754" s="2"/>
@@ -20447,6 +21224,7 @@
       <c r="V754" s="2"/>
       <c r="W754" s="2"/>
       <c r="X754" s="2"/>
+      <c r="Y754" s="2"/>
     </row>
     <row r="755">
       <c r="A755" s="2"/>
@@ -20473,6 +21251,7 @@
       <c r="V755" s="2"/>
       <c r="W755" s="2"/>
       <c r="X755" s="2"/>
+      <c r="Y755" s="2"/>
     </row>
     <row r="756">
       <c r="A756" s="2"/>
@@ -20499,6 +21278,7 @@
       <c r="V756" s="2"/>
       <c r="W756" s="2"/>
       <c r="X756" s="2"/>
+      <c r="Y756" s="2"/>
     </row>
     <row r="757">
       <c r="A757" s="2"/>
@@ -20525,6 +21305,7 @@
       <c r="V757" s="2"/>
       <c r="W757" s="2"/>
       <c r="X757" s="2"/>
+      <c r="Y757" s="2"/>
     </row>
     <row r="758">
       <c r="A758" s="2"/>
@@ -20551,6 +21332,7 @@
       <c r="V758" s="2"/>
       <c r="W758" s="2"/>
       <c r="X758" s="2"/>
+      <c r="Y758" s="2"/>
     </row>
     <row r="759">
       <c r="A759" s="2"/>
@@ -20577,6 +21359,7 @@
       <c r="V759" s="2"/>
       <c r="W759" s="2"/>
       <c r="X759" s="2"/>
+      <c r="Y759" s="2"/>
     </row>
     <row r="760">
       <c r="A760" s="2"/>
@@ -20603,6 +21386,7 @@
       <c r="V760" s="2"/>
       <c r="W760" s="2"/>
       <c r="X760" s="2"/>
+      <c r="Y760" s="2"/>
     </row>
     <row r="761">
       <c r="A761" s="2"/>
@@ -20629,6 +21413,7 @@
       <c r="V761" s="2"/>
       <c r="W761" s="2"/>
       <c r="X761" s="2"/>
+      <c r="Y761" s="2"/>
     </row>
     <row r="762">
       <c r="A762" s="2"/>
@@ -20655,6 +21440,7 @@
       <c r="V762" s="2"/>
       <c r="W762" s="2"/>
       <c r="X762" s="2"/>
+      <c r="Y762" s="2"/>
     </row>
     <row r="763">
       <c r="A763" s="2"/>
@@ -20681,6 +21467,7 @@
       <c r="V763" s="2"/>
       <c r="W763" s="2"/>
       <c r="X763" s="2"/>
+      <c r="Y763" s="2"/>
     </row>
     <row r="764">
       <c r="A764" s="2"/>
@@ -20707,6 +21494,7 @@
       <c r="V764" s="2"/>
       <c r="W764" s="2"/>
       <c r="X764" s="2"/>
+      <c r="Y764" s="2"/>
     </row>
     <row r="765">
       <c r="A765" s="2"/>
@@ -20733,6 +21521,7 @@
       <c r="V765" s="2"/>
       <c r="W765" s="2"/>
       <c r="X765" s="2"/>
+      <c r="Y765" s="2"/>
     </row>
     <row r="766">
       <c r="A766" s="2"/>
@@ -20759,6 +21548,7 @@
       <c r="V766" s="2"/>
       <c r="W766" s="2"/>
       <c r="X766" s="2"/>
+      <c r="Y766" s="2"/>
     </row>
     <row r="767">
       <c r="A767" s="2"/>
@@ -20785,6 +21575,7 @@
       <c r="V767" s="2"/>
       <c r="W767" s="2"/>
       <c r="X767" s="2"/>
+      <c r="Y767" s="2"/>
     </row>
     <row r="768">
       <c r="A768" s="2"/>
@@ -20811,6 +21602,7 @@
       <c r="V768" s="2"/>
       <c r="W768" s="2"/>
       <c r="X768" s="2"/>
+      <c r="Y768" s="2"/>
     </row>
     <row r="769">
       <c r="A769" s="2"/>
@@ -20837,6 +21629,7 @@
       <c r="V769" s="2"/>
       <c r="W769" s="2"/>
       <c r="X769" s="2"/>
+      <c r="Y769" s="2"/>
     </row>
     <row r="770">
       <c r="A770" s="2"/>
@@ -20863,6 +21656,7 @@
       <c r="V770" s="2"/>
       <c r="W770" s="2"/>
       <c r="X770" s="2"/>
+      <c r="Y770" s="2"/>
     </row>
     <row r="771">
       <c r="A771" s="2"/>
@@ -20889,6 +21683,7 @@
       <c r="V771" s="2"/>
       <c r="W771" s="2"/>
       <c r="X771" s="2"/>
+      <c r="Y771" s="2"/>
     </row>
     <row r="772">
       <c r="A772" s="2"/>
@@ -20915,6 +21710,7 @@
       <c r="V772" s="2"/>
       <c r="W772" s="2"/>
       <c r="X772" s="2"/>
+      <c r="Y772" s="2"/>
     </row>
     <row r="773">
       <c r="A773" s="2"/>
@@ -20941,6 +21737,7 @@
       <c r="V773" s="2"/>
       <c r="W773" s="2"/>
       <c r="X773" s="2"/>
+      <c r="Y773" s="2"/>
     </row>
     <row r="774">
       <c r="A774" s="2"/>
@@ -20967,6 +21764,7 @@
       <c r="V774" s="2"/>
       <c r="W774" s="2"/>
       <c r="X774" s="2"/>
+      <c r="Y774" s="2"/>
     </row>
     <row r="775">
       <c r="A775" s="2"/>
@@ -20993,6 +21791,7 @@
       <c r="V775" s="2"/>
       <c r="W775" s="2"/>
       <c r="X775" s="2"/>
+      <c r="Y775" s="2"/>
     </row>
     <row r="776">
       <c r="A776" s="2"/>
@@ -21019,6 +21818,7 @@
       <c r="V776" s="2"/>
       <c r="W776" s="2"/>
       <c r="X776" s="2"/>
+      <c r="Y776" s="2"/>
     </row>
     <row r="777">
       <c r="A777" s="2"/>
@@ -21045,6 +21845,7 @@
       <c r="V777" s="2"/>
       <c r="W777" s="2"/>
       <c r="X777" s="2"/>
+      <c r="Y777" s="2"/>
     </row>
     <row r="778">
       <c r="A778" s="2"/>
@@ -21071,6 +21872,7 @@
       <c r="V778" s="2"/>
       <c r="W778" s="2"/>
       <c r="X778" s="2"/>
+      <c r="Y778" s="2"/>
     </row>
     <row r="779">
       <c r="A779" s="2"/>
@@ -21097,6 +21899,7 @@
       <c r="V779" s="2"/>
       <c r="W779" s="2"/>
       <c r="X779" s="2"/>
+      <c r="Y779" s="2"/>
     </row>
     <row r="780">
       <c r="A780" s="2"/>
@@ -21123,6 +21926,7 @@
       <c r="V780" s="2"/>
       <c r="W780" s="2"/>
       <c r="X780" s="2"/>
+      <c r="Y780" s="2"/>
     </row>
     <row r="781">
       <c r="A781" s="2"/>
@@ -21149,6 +21953,7 @@
       <c r="V781" s="2"/>
       <c r="W781" s="2"/>
       <c r="X781" s="2"/>
+      <c r="Y781" s="2"/>
     </row>
     <row r="782">
       <c r="A782" s="2"/>
@@ -21175,6 +21980,7 @@
       <c r="V782" s="2"/>
       <c r="W782" s="2"/>
       <c r="X782" s="2"/>
+      <c r="Y782" s="2"/>
     </row>
     <row r="783">
       <c r="A783" s="2"/>
@@ -21201,6 +22007,7 @@
       <c r="V783" s="2"/>
       <c r="W783" s="2"/>
       <c r="X783" s="2"/>
+      <c r="Y783" s="2"/>
     </row>
     <row r="784">
       <c r="A784" s="2"/>
@@ -21227,6 +22034,7 @@
       <c r="V784" s="2"/>
       <c r="W784" s="2"/>
       <c r="X784" s="2"/>
+      <c r="Y784" s="2"/>
     </row>
     <row r="785">
       <c r="A785" s="2"/>
@@ -21253,6 +22061,7 @@
       <c r="V785" s="2"/>
       <c r="W785" s="2"/>
       <c r="X785" s="2"/>
+      <c r="Y785" s="2"/>
     </row>
     <row r="786">
       <c r="A786" s="2"/>
@@ -21279,6 +22088,7 @@
       <c r="V786" s="2"/>
       <c r="W786" s="2"/>
       <c r="X786" s="2"/>
+      <c r="Y786" s="2"/>
     </row>
     <row r="787">
       <c r="A787" s="2"/>
@@ -21305,6 +22115,7 @@
       <c r="V787" s="2"/>
       <c r="W787" s="2"/>
       <c r="X787" s="2"/>
+      <c r="Y787" s="2"/>
     </row>
     <row r="788">
       <c r="A788" s="2"/>
@@ -21331,6 +22142,7 @@
       <c r="V788" s="2"/>
       <c r="W788" s="2"/>
       <c r="X788" s="2"/>
+      <c r="Y788" s="2"/>
     </row>
     <row r="789">
       <c r="A789" s="2"/>
@@ -21357,6 +22169,7 @@
       <c r="V789" s="2"/>
       <c r="W789" s="2"/>
       <c r="X789" s="2"/>
+      <c r="Y789" s="2"/>
     </row>
     <row r="790">
       <c r="A790" s="2"/>
@@ -21383,6 +22196,7 @@
       <c r="V790" s="2"/>
       <c r="W790" s="2"/>
       <c r="X790" s="2"/>
+      <c r="Y790" s="2"/>
     </row>
     <row r="791">
       <c r="A791" s="2"/>
@@ -21409,6 +22223,7 @@
       <c r="V791" s="2"/>
       <c r="W791" s="2"/>
       <c r="X791" s="2"/>
+      <c r="Y791" s="2"/>
     </row>
     <row r="792">
       <c r="A792" s="2"/>
@@ -21435,6 +22250,7 @@
       <c r="V792" s="2"/>
       <c r="W792" s="2"/>
       <c r="X792" s="2"/>
+      <c r="Y792" s="2"/>
     </row>
     <row r="793">
       <c r="A793" s="2"/>
@@ -21461,6 +22277,7 @@
       <c r="V793" s="2"/>
       <c r="W793" s="2"/>
       <c r="X793" s="2"/>
+      <c r="Y793" s="2"/>
     </row>
     <row r="794">
       <c r="A794" s="2"/>
@@ -21487,6 +22304,7 @@
       <c r="V794" s="2"/>
       <c r="W794" s="2"/>
       <c r="X794" s="2"/>
+      <c r="Y794" s="2"/>
     </row>
     <row r="795">
       <c r="A795" s="2"/>
@@ -21513,6 +22331,7 @@
       <c r="V795" s="2"/>
       <c r="W795" s="2"/>
       <c r="X795" s="2"/>
+      <c r="Y795" s="2"/>
     </row>
     <row r="796">
       <c r="A796" s="2"/>
@@ -21539,6 +22358,7 @@
       <c r="V796" s="2"/>
       <c r="W796" s="2"/>
       <c r="X796" s="2"/>
+      <c r="Y796" s="2"/>
     </row>
     <row r="797">
       <c r="A797" s="2"/>
@@ -21565,6 +22385,7 @@
       <c r="V797" s="2"/>
       <c r="W797" s="2"/>
       <c r="X797" s="2"/>
+      <c r="Y797" s="2"/>
     </row>
     <row r="798">
       <c r="A798" s="2"/>
@@ -21591,6 +22412,7 @@
       <c r="V798" s="2"/>
       <c r="W798" s="2"/>
       <c r="X798" s="2"/>
+      <c r="Y798" s="2"/>
     </row>
     <row r="799">
       <c r="A799" s="2"/>
@@ -21617,6 +22439,7 @@
       <c r="V799" s="2"/>
       <c r="W799" s="2"/>
       <c r="X799" s="2"/>
+      <c r="Y799" s="2"/>
     </row>
     <row r="800">
       <c r="A800" s="2"/>
@@ -21643,6 +22466,7 @@
       <c r="V800" s="2"/>
       <c r="W800" s="2"/>
       <c r="X800" s="2"/>
+      <c r="Y800" s="2"/>
     </row>
     <row r="801">
       <c r="A801" s="2"/>
@@ -21669,6 +22493,7 @@
       <c r="V801" s="2"/>
       <c r="W801" s="2"/>
       <c r="X801" s="2"/>
+      <c r="Y801" s="2"/>
     </row>
     <row r="802">
       <c r="A802" s="2"/>
@@ -21695,6 +22520,7 @@
       <c r="V802" s="2"/>
       <c r="W802" s="2"/>
       <c r="X802" s="2"/>
+      <c r="Y802" s="2"/>
     </row>
     <row r="803">
       <c r="A803" s="2"/>
@@ -21721,6 +22547,7 @@
       <c r="V803" s="2"/>
       <c r="W803" s="2"/>
       <c r="X803" s="2"/>
+      <c r="Y803" s="2"/>
     </row>
     <row r="804">
       <c r="A804" s="2"/>
@@ -21747,6 +22574,7 @@
       <c r="V804" s="2"/>
       <c r="W804" s="2"/>
       <c r="X804" s="2"/>
+      <c r="Y804" s="2"/>
     </row>
     <row r="805">
       <c r="A805" s="2"/>
@@ -21773,6 +22601,7 @@
       <c r="V805" s="2"/>
       <c r="W805" s="2"/>
       <c r="X805" s="2"/>
+      <c r="Y805" s="2"/>
     </row>
     <row r="806">
       <c r="A806" s="2"/>
@@ -21799,6 +22628,7 @@
       <c r="V806" s="2"/>
       <c r="W806" s="2"/>
       <c r="X806" s="2"/>
+      <c r="Y806" s="2"/>
     </row>
     <row r="807">
       <c r="A807" s="2"/>
@@ -21825,6 +22655,7 @@
       <c r="V807" s="2"/>
       <c r="W807" s="2"/>
       <c r="X807" s="2"/>
+      <c r="Y807" s="2"/>
     </row>
     <row r="808">
       <c r="A808" s="2"/>
@@ -21851,6 +22682,7 @@
       <c r="V808" s="2"/>
       <c r="W808" s="2"/>
       <c r="X808" s="2"/>
+      <c r="Y808" s="2"/>
     </row>
     <row r="809">
       <c r="A809" s="2"/>
@@ -21877,6 +22709,7 @@
       <c r="V809" s="2"/>
       <c r="W809" s="2"/>
       <c r="X809" s="2"/>
+      <c r="Y809" s="2"/>
     </row>
     <row r="810">
       <c r="A810" s="2"/>
@@ -21903,6 +22736,7 @@
       <c r="V810" s="2"/>
       <c r="W810" s="2"/>
       <c r="X810" s="2"/>
+      <c r="Y810" s="2"/>
     </row>
     <row r="811">
       <c r="A811" s="2"/>
@@ -21929,6 +22763,7 @@
       <c r="V811" s="2"/>
       <c r="W811" s="2"/>
       <c r="X811" s="2"/>
+      <c r="Y811" s="2"/>
     </row>
     <row r="812">
       <c r="A812" s="2"/>
@@ -21955,6 +22790,7 @@
       <c r="V812" s="2"/>
       <c r="W812" s="2"/>
       <c r="X812" s="2"/>
+      <c r="Y812" s="2"/>
     </row>
     <row r="813">
       <c r="A813" s="2"/>
@@ -21981,6 +22817,7 @@
       <c r="V813" s="2"/>
       <c r="W813" s="2"/>
       <c r="X813" s="2"/>
+      <c r="Y813" s="2"/>
     </row>
     <row r="814">
       <c r="A814" s="2"/>
@@ -22007,6 +22844,7 @@
       <c r="V814" s="2"/>
       <c r="W814" s="2"/>
       <c r="X814" s="2"/>
+      <c r="Y814" s="2"/>
     </row>
     <row r="815">
       <c r="A815" s="2"/>
@@ -22033,6 +22871,7 @@
       <c r="V815" s="2"/>
       <c r="W815" s="2"/>
       <c r="X815" s="2"/>
+      <c r="Y815" s="2"/>
     </row>
     <row r="816">
       <c r="A816" s="2"/>
@@ -22059,6 +22898,7 @@
       <c r="V816" s="2"/>
       <c r="W816" s="2"/>
       <c r="X816" s="2"/>
+      <c r="Y816" s="2"/>
     </row>
     <row r="817">
       <c r="A817" s="2"/>
@@ -22085,6 +22925,7 @@
       <c r="V817" s="2"/>
       <c r="W817" s="2"/>
       <c r="X817" s="2"/>
+      <c r="Y817" s="2"/>
     </row>
     <row r="818">
       <c r="A818" s="2"/>
@@ -22111,6 +22952,7 @@
       <c r="V818" s="2"/>
       <c r="W818" s="2"/>
       <c r="X818" s="2"/>
+      <c r="Y818" s="2"/>
     </row>
     <row r="819">
       <c r="A819" s="2"/>
@@ -22137,6 +22979,7 @@
       <c r="V819" s="2"/>
       <c r="W819" s="2"/>
       <c r="X819" s="2"/>
+      <c r="Y819" s="2"/>
     </row>
     <row r="820">
       <c r="A820" s="2"/>
@@ -22163,6 +23006,7 @@
       <c r="V820" s="2"/>
       <c r="W820" s="2"/>
       <c r="X820" s="2"/>
+      <c r="Y820" s="2"/>
     </row>
     <row r="821">
       <c r="A821" s="2"/>
@@ -22189,6 +23033,7 @@
       <c r="V821" s="2"/>
       <c r="W821" s="2"/>
       <c r="X821" s="2"/>
+      <c r="Y821" s="2"/>
     </row>
     <row r="822">
       <c r="A822" s="2"/>
@@ -22215,6 +23060,7 @@
       <c r="V822" s="2"/>
       <c r="W822" s="2"/>
       <c r="X822" s="2"/>
+      <c r="Y822" s="2"/>
     </row>
     <row r="823">
       <c r="A823" s="2"/>
@@ -22241,6 +23087,7 @@
       <c r="V823" s="2"/>
       <c r="W823" s="2"/>
       <c r="X823" s="2"/>
+      <c r="Y823" s="2"/>
     </row>
     <row r="824">
       <c r="A824" s="2"/>
@@ -22267,6 +23114,7 @@
       <c r="V824" s="2"/>
       <c r="W824" s="2"/>
       <c r="X824" s="2"/>
+      <c r="Y824" s="2"/>
     </row>
     <row r="825">
       <c r="A825" s="2"/>
@@ -22293,6 +23141,7 @@
       <c r="V825" s="2"/>
       <c r="W825" s="2"/>
       <c r="X825" s="2"/>
+      <c r="Y825" s="2"/>
     </row>
     <row r="826">
       <c r="A826" s="2"/>
@@ -22319,6 +23168,7 @@
       <c r="V826" s="2"/>
       <c r="W826" s="2"/>
       <c r="X826" s="2"/>
+      <c r="Y826" s="2"/>
     </row>
     <row r="827">
       <c r="A827" s="2"/>
@@ -22345,6 +23195,7 @@
       <c r="V827" s="2"/>
       <c r="W827" s="2"/>
       <c r="X827" s="2"/>
+      <c r="Y827" s="2"/>
     </row>
     <row r="828">
       <c r="A828" s="2"/>
@@ -22371,6 +23222,7 @@
       <c r="V828" s="2"/>
       <c r="W828" s="2"/>
       <c r="X828" s="2"/>
+      <c r="Y828" s="2"/>
     </row>
     <row r="829">
       <c r="A829" s="2"/>
@@ -22397,6 +23249,7 @@
       <c r="V829" s="2"/>
       <c r="W829" s="2"/>
       <c r="X829" s="2"/>
+      <c r="Y829" s="2"/>
     </row>
     <row r="830">
       <c r="A830" s="2"/>
@@ -22423,6 +23276,7 @@
       <c r="V830" s="2"/>
       <c r="W830" s="2"/>
       <c r="X830" s="2"/>
+      <c r="Y830" s="2"/>
     </row>
     <row r="831">
       <c r="A831" s="2"/>
@@ -22449,6 +23303,7 @@
       <c r="V831" s="2"/>
       <c r="W831" s="2"/>
       <c r="X831" s="2"/>
+      <c r="Y831" s="2"/>
     </row>
     <row r="832">
       <c r="A832" s="2"/>
@@ -22475,6 +23330,7 @@
       <c r="V832" s="2"/>
       <c r="W832" s="2"/>
       <c r="X832" s="2"/>
+      <c r="Y832" s="2"/>
     </row>
     <row r="833">
       <c r="A833" s="2"/>
@@ -22501,6 +23357,7 @@
       <c r="V833" s="2"/>
       <c r="W833" s="2"/>
       <c r="X833" s="2"/>
+      <c r="Y833" s="2"/>
     </row>
     <row r="834">
       <c r="A834" s="2"/>
@@ -22527,6 +23384,7 @@
       <c r="V834" s="2"/>
       <c r="W834" s="2"/>
       <c r="X834" s="2"/>
+      <c r="Y834" s="2"/>
     </row>
     <row r="835">
       <c r="A835" s="2"/>
@@ -22553,6 +23411,7 @@
       <c r="V835" s="2"/>
       <c r="W835" s="2"/>
       <c r="X835" s="2"/>
+      <c r="Y835" s="2"/>
     </row>
     <row r="836">
       <c r="A836" s="2"/>
@@ -22579,6 +23438,7 @@
       <c r="V836" s="2"/>
       <c r="W836" s="2"/>
       <c r="X836" s="2"/>
+      <c r="Y836" s="2"/>
     </row>
     <row r="837">
       <c r="A837" s="2"/>
@@ -22605,6 +23465,7 @@
       <c r="V837" s="2"/>
       <c r="W837" s="2"/>
       <c r="X837" s="2"/>
+      <c r="Y837" s="2"/>
     </row>
     <row r="838">
       <c r="A838" s="2"/>
@@ -22631,6 +23492,7 @@
       <c r="V838" s="2"/>
       <c r="W838" s="2"/>
       <c r="X838" s="2"/>
+      <c r="Y838" s="2"/>
     </row>
     <row r="839">
       <c r="A839" s="2"/>
@@ -22657,6 +23519,7 @@
       <c r="V839" s="2"/>
       <c r="W839" s="2"/>
       <c r="X839" s="2"/>
+      <c r="Y839" s="2"/>
     </row>
     <row r="840">
       <c r="A840" s="2"/>
@@ -22683,6 +23546,7 @@
       <c r="V840" s="2"/>
       <c r="W840" s="2"/>
       <c r="X840" s="2"/>
+      <c r="Y840" s="2"/>
     </row>
     <row r="841">
       <c r="A841" s="2"/>
@@ -22709,6 +23573,7 @@
       <c r="V841" s="2"/>
       <c r="W841" s="2"/>
       <c r="X841" s="2"/>
+      <c r="Y841" s="2"/>
     </row>
     <row r="842">
       <c r="A842" s="2"/>
@@ -22735,6 +23600,7 @@
       <c r="V842" s="2"/>
       <c r="W842" s="2"/>
       <c r="X842" s="2"/>
+      <c r="Y842" s="2"/>
     </row>
     <row r="843">
       <c r="A843" s="2"/>
@@ -22761,6 +23627,7 @@
       <c r="V843" s="2"/>
       <c r="W843" s="2"/>
       <c r="X843" s="2"/>
+      <c r="Y843" s="2"/>
     </row>
     <row r="844">
       <c r="A844" s="2"/>
@@ -22787,6 +23654,7 @@
       <c r="V844" s="2"/>
       <c r="W844" s="2"/>
       <c r="X844" s="2"/>
+      <c r="Y844" s="2"/>
     </row>
     <row r="845">
       <c r="A845" s="2"/>
@@ -22813,6 +23681,7 @@
       <c r="V845" s="2"/>
       <c r="W845" s="2"/>
       <c r="X845" s="2"/>
+      <c r="Y845" s="2"/>
     </row>
     <row r="846">
       <c r="A846" s="2"/>
@@ -22839,6 +23708,7 @@
       <c r="V846" s="2"/>
       <c r="W846" s="2"/>
       <c r="X846" s="2"/>
+      <c r="Y846" s="2"/>
     </row>
     <row r="847">
       <c r="A847" s="2"/>
@@ -22865,6 +23735,7 @@
       <c r="V847" s="2"/>
       <c r="W847" s="2"/>
       <c r="X847" s="2"/>
+      <c r="Y847" s="2"/>
     </row>
     <row r="848">
       <c r="A848" s="2"/>
@@ -22891,6 +23762,7 @@
       <c r="V848" s="2"/>
       <c r="W848" s="2"/>
       <c r="X848" s="2"/>
+      <c r="Y848" s="2"/>
     </row>
     <row r="849">
       <c r="A849" s="2"/>
@@ -22917,6 +23789,7 @@
       <c r="V849" s="2"/>
       <c r="W849" s="2"/>
       <c r="X849" s="2"/>
+      <c r="Y849" s="2"/>
     </row>
     <row r="850">
       <c r="A850" s="2"/>
@@ -22943,6 +23816,7 @@
       <c r="V850" s="2"/>
       <c r="W850" s="2"/>
       <c r="X850" s="2"/>
+      <c r="Y850" s="2"/>
     </row>
     <row r="851">
       <c r="A851" s="2"/>
@@ -22969,6 +23843,7 @@
       <c r="V851" s="2"/>
       <c r="W851" s="2"/>
       <c r="X851" s="2"/>
+      <c r="Y851" s="2"/>
     </row>
     <row r="852">
       <c r="A852" s="2"/>
@@ -22995,6 +23870,7 @@
       <c r="V852" s="2"/>
       <c r="W852" s="2"/>
       <c r="X852" s="2"/>
+      <c r="Y852" s="2"/>
     </row>
     <row r="853">
       <c r="A853" s="2"/>
@@ -23021,6 +23897,7 @@
       <c r="V853" s="2"/>
       <c r="W853" s="2"/>
       <c r="X853" s="2"/>
+      <c r="Y853" s="2"/>
     </row>
     <row r="854">
       <c r="A854" s="2"/>
@@ -23047,6 +23924,7 @@
       <c r="V854" s="2"/>
       <c r="W854" s="2"/>
       <c r="X854" s="2"/>
+      <c r="Y854" s="2"/>
     </row>
     <row r="855">
       <c r="A855" s="2"/>
@@ -23073,6 +23951,7 @@
       <c r="V855" s="2"/>
       <c r="W855" s="2"/>
       <c r="X855" s="2"/>
+      <c r="Y855" s="2"/>
     </row>
     <row r="856">
       <c r="A856" s="2"/>
@@ -23099,6 +23978,7 @@
       <c r="V856" s="2"/>
       <c r="W856" s="2"/>
       <c r="X856" s="2"/>
+      <c r="Y856" s="2"/>
     </row>
     <row r="857">
       <c r="A857" s="2"/>
@@ -23125,6 +24005,7 @@
       <c r="V857" s="2"/>
       <c r="W857" s="2"/>
       <c r="X857" s="2"/>
+      <c r="Y857" s="2"/>
     </row>
     <row r="858">
       <c r="A858" s="2"/>
@@ -23151,6 +24032,7 @@
       <c r="V858" s="2"/>
       <c r="W858" s="2"/>
       <c r="X858" s="2"/>
+      <c r="Y858" s="2"/>
     </row>
     <row r="859">
       <c r="A859" s="2"/>
@@ -23177,6 +24059,7 @@
       <c r="V859" s="2"/>
       <c r="W859" s="2"/>
       <c r="X859" s="2"/>
+      <c r="Y859" s="2"/>
     </row>
     <row r="860">
       <c r="A860" s="2"/>
@@ -23203,6 +24086,7 @@
       <c r="V860" s="2"/>
       <c r="W860" s="2"/>
       <c r="X860" s="2"/>
+      <c r="Y860" s="2"/>
     </row>
     <row r="861">
       <c r="A861" s="2"/>
@@ -23229,6 +24113,7 @@
       <c r="V861" s="2"/>
       <c r="W861" s="2"/>
       <c r="X861" s="2"/>
+      <c r="Y861" s="2"/>
     </row>
     <row r="862">
       <c r="A862" s="2"/>
@@ -23255,6 +24140,7 @@
       <c r="V862" s="2"/>
       <c r="W862" s="2"/>
       <c r="X862" s="2"/>
+      <c r="Y862" s="2"/>
     </row>
     <row r="863">
       <c r="A863" s="2"/>
@@ -23281,6 +24167,7 @@
       <c r="V863" s="2"/>
       <c r="W863" s="2"/>
       <c r="X863" s="2"/>
+      <c r="Y863" s="2"/>
     </row>
     <row r="864">
       <c r="A864" s="2"/>
@@ -23307,6 +24194,7 @@
       <c r="V864" s="2"/>
       <c r="W864" s="2"/>
       <c r="X864" s="2"/>
+      <c r="Y864" s="2"/>
     </row>
     <row r="865">
       <c r="A865" s="2"/>
@@ -23333,6 +24221,7 @@
       <c r="V865" s="2"/>
       <c r="W865" s="2"/>
       <c r="X865" s="2"/>
+      <c r="Y865" s="2"/>
     </row>
     <row r="866">
       <c r="A866" s="2"/>
@@ -23359,6 +24248,7 @@
       <c r="V866" s="2"/>
       <c r="W866" s="2"/>
       <c r="X866" s="2"/>
+      <c r="Y866" s="2"/>
     </row>
     <row r="867">
       <c r="A867" s="2"/>
@@ -23385,6 +24275,7 @@
       <c r="V867" s="2"/>
       <c r="W867" s="2"/>
       <c r="X867" s="2"/>
+      <c r="Y867" s="2"/>
     </row>
     <row r="868">
       <c r="A868" s="2"/>
@@ -23411,6 +24302,7 @@
       <c r="V868" s="2"/>
       <c r="W868" s="2"/>
       <c r="X868" s="2"/>
+      <c r="Y868" s="2"/>
     </row>
     <row r="869">
       <c r="A869" s="2"/>
@@ -23437,6 +24329,7 @@
       <c r="V869" s="2"/>
       <c r="W869" s="2"/>
       <c r="X869" s="2"/>
+      <c r="Y869" s="2"/>
     </row>
     <row r="870">
       <c r="A870" s="2"/>
@@ -23463,6 +24356,7 @@
       <c r="V870" s="2"/>
       <c r="W870" s="2"/>
       <c r="X870" s="2"/>
+      <c r="Y870" s="2"/>
     </row>
     <row r="871">
       <c r="A871" s="2"/>
@@ -23489,6 +24383,7 @@
       <c r="V871" s="2"/>
       <c r="W871" s="2"/>
       <c r="X871" s="2"/>
+      <c r="Y871" s="2"/>
     </row>
     <row r="872">
       <c r="A872" s="2"/>
@@ -23515,6 +24410,7 @@
       <c r="V872" s="2"/>
       <c r="W872" s="2"/>
       <c r="X872" s="2"/>
+      <c r="Y872" s="2"/>
     </row>
     <row r="873">
       <c r="A873" s="2"/>
@@ -23541,6 +24437,7 @@
       <c r="V873" s="2"/>
       <c r="W873" s="2"/>
       <c r="X873" s="2"/>
+      <c r="Y873" s="2"/>
     </row>
     <row r="874">
       <c r="A874" s="2"/>
@@ -23567,6 +24464,7 @@
       <c r="V874" s="2"/>
       <c r="W874" s="2"/>
       <c r="X874" s="2"/>
+      <c r="Y874" s="2"/>
     </row>
     <row r="875">
       <c r="A875" s="2"/>
@@ -23593,6 +24491,7 @@
       <c r="V875" s="2"/>
       <c r="W875" s="2"/>
       <c r="X875" s="2"/>
+      <c r="Y875" s="2"/>
     </row>
     <row r="876">
       <c r="A876" s="2"/>
@@ -23619,6 +24518,7 @@
       <c r="V876" s="2"/>
       <c r="W876" s="2"/>
       <c r="X876" s="2"/>
+      <c r="Y876" s="2"/>
     </row>
     <row r="877">
       <c r="A877" s="2"/>
@@ -23645,6 +24545,7 @@
       <c r="V877" s="2"/>
       <c r="W877" s="2"/>
       <c r="X877" s="2"/>
+      <c r="Y877" s="2"/>
     </row>
     <row r="878">
       <c r="A878" s="2"/>
@@ -23671,6 +24572,7 @@
       <c r="V878" s="2"/>
       <c r="W878" s="2"/>
       <c r="X878" s="2"/>
+      <c r="Y878" s="2"/>
     </row>
     <row r="879">
       <c r="A879" s="2"/>
@@ -23697,6 +24599,7 @@
       <c r="V879" s="2"/>
       <c r="W879" s="2"/>
       <c r="X879" s="2"/>
+      <c r="Y879" s="2"/>
     </row>
     <row r="880">
       <c r="A880" s="2"/>
@@ -23723,6 +24626,7 @@
       <c r="V880" s="2"/>
       <c r="W880" s="2"/>
       <c r="X880" s="2"/>
+      <c r="Y880" s="2"/>
     </row>
     <row r="881">
       <c r="A881" s="2"/>
@@ -23749,6 +24653,7 @@
       <c r="V881" s="2"/>
       <c r="W881" s="2"/>
       <c r="X881" s="2"/>
+      <c r="Y881" s="2"/>
     </row>
     <row r="882">
       <c r="A882" s="2"/>
@@ -23775,6 +24680,7 @@
       <c r="V882" s="2"/>
       <c r="W882" s="2"/>
       <c r="X882" s="2"/>
+      <c r="Y882" s="2"/>
     </row>
     <row r="883">
       <c r="A883" s="2"/>
@@ -23801,6 +24707,7 @@
       <c r="V883" s="2"/>
       <c r="W883" s="2"/>
       <c r="X883" s="2"/>
+      <c r="Y883" s="2"/>
     </row>
     <row r="884">
       <c r="A884" s="2"/>
@@ -23827,6 +24734,7 @@
       <c r="V884" s="2"/>
       <c r="W884" s="2"/>
       <c r="X884" s="2"/>
+      <c r="Y884" s="2"/>
     </row>
     <row r="885">
       <c r="A885" s="2"/>
@@ -23853,6 +24761,7 @@
       <c r="V885" s="2"/>
       <c r="W885" s="2"/>
       <c r="X885" s="2"/>
+      <c r="Y885" s="2"/>
     </row>
     <row r="886">
       <c r="A886" s="2"/>
@@ -23879,6 +24788,7 @@
       <c r="V886" s="2"/>
       <c r="W886" s="2"/>
       <c r="X886" s="2"/>
+      <c r="Y886" s="2"/>
     </row>
     <row r="887">
       <c r="A887" s="2"/>
@@ -23905,6 +24815,7 @@
       <c r="V887" s="2"/>
       <c r="W887" s="2"/>
       <c r="X887" s="2"/>
+      <c r="Y887" s="2"/>
     </row>
     <row r="888">
       <c r="A888" s="2"/>
@@ -23931,6 +24842,7 @@
       <c r="V888" s="2"/>
       <c r="W888" s="2"/>
       <c r="X888" s="2"/>
+      <c r="Y888" s="2"/>
     </row>
     <row r="889">
       <c r="A889" s="2"/>
@@ -23957,6 +24869,7 @@
       <c r="V889" s="2"/>
       <c r="W889" s="2"/>
       <c r="X889" s="2"/>
+      <c r="Y889" s="2"/>
     </row>
     <row r="890">
       <c r="A890" s="2"/>
@@ -23983,6 +24896,7 @@
       <c r="V890" s="2"/>
       <c r="W890" s="2"/>
       <c r="X890" s="2"/>
+      <c r="Y890" s="2"/>
     </row>
     <row r="891">
       <c r="A891" s="2"/>
@@ -24009,6 +24923,7 @@
       <c r="V891" s="2"/>
       <c r="W891" s="2"/>
       <c r="X891" s="2"/>
+      <c r="Y891" s="2"/>
     </row>
     <row r="892">
       <c r="A892" s="2"/>
@@ -24035,6 +24950,7 @@
       <c r="V892" s="2"/>
       <c r="W892" s="2"/>
       <c r="X892" s="2"/>
+      <c r="Y892" s="2"/>
     </row>
     <row r="893">
       <c r="A893" s="2"/>
@@ -24061,6 +24977,7 @@
       <c r="V893" s="2"/>
       <c r="W893" s="2"/>
       <c r="X893" s="2"/>
+      <c r="Y893" s="2"/>
     </row>
     <row r="894">
       <c r="A894" s="2"/>
@@ -24087,6 +25004,7 @@
       <c r="V894" s="2"/>
       <c r="W894" s="2"/>
       <c r="X894" s="2"/>
+      <c r="Y894" s="2"/>
     </row>
     <row r="895">
       <c r="A895" s="2"/>
@@ -24113,6 +25031,7 @@
       <c r="V895" s="2"/>
       <c r="W895" s="2"/>
       <c r="X895" s="2"/>
+      <c r="Y895" s="2"/>
     </row>
     <row r="896">
       <c r="A896" s="2"/>
@@ -24139,6 +25058,7 @@
       <c r="V896" s="2"/>
       <c r="W896" s="2"/>
       <c r="X896" s="2"/>
+      <c r="Y896" s="2"/>
     </row>
     <row r="897">
       <c r="A897" s="2"/>
@@ -24165,6 +25085,7 @@
       <c r="V897" s="2"/>
       <c r="W897" s="2"/>
       <c r="X897" s="2"/>
+      <c r="Y897" s="2"/>
     </row>
     <row r="898">
       <c r="A898" s="2"/>
@@ -24191,6 +25112,7 @@
       <c r="V898" s="2"/>
       <c r="W898" s="2"/>
       <c r="X898" s="2"/>
+      <c r="Y898" s="2"/>
     </row>
     <row r="899">
       <c r="A899" s="2"/>
@@ -24217,6 +25139,7 @@
       <c r="V899" s="2"/>
       <c r="W899" s="2"/>
       <c r="X899" s="2"/>
+      <c r="Y899" s="2"/>
     </row>
     <row r="900">
       <c r="A900" s="2"/>
@@ -24243,6 +25166,7 @@
       <c r="V900" s="2"/>
       <c r="W900" s="2"/>
       <c r="X900" s="2"/>
+      <c r="Y900" s="2"/>
     </row>
     <row r="901">
       <c r="A901" s="2"/>
@@ -24269,6 +25193,7 @@
       <c r="V901" s="2"/>
       <c r="W901" s="2"/>
       <c r="X901" s="2"/>
+      <c r="Y901" s="2"/>
     </row>
     <row r="902">
       <c r="A902" s="2"/>
@@ -24295,6 +25220,7 @@
       <c r="V902" s="2"/>
       <c r="W902" s="2"/>
       <c r="X902" s="2"/>
+      <c r="Y902" s="2"/>
     </row>
     <row r="903">
       <c r="A903" s="2"/>
@@ -24321,6 +25247,7 @@
       <c r="V903" s="2"/>
       <c r="W903" s="2"/>
       <c r="X903" s="2"/>
+      <c r="Y903" s="2"/>
     </row>
     <row r="904">
       <c r="A904" s="2"/>
@@ -24347,6 +25274,7 @@
       <c r="V904" s="2"/>
       <c r="W904" s="2"/>
       <c r="X904" s="2"/>
+      <c r="Y904" s="2"/>
     </row>
     <row r="905">
       <c r="A905" s="2"/>
@@ -24373,6 +25301,7 @@
       <c r="V905" s="2"/>
       <c r="W905" s="2"/>
       <c r="X905" s="2"/>
+      <c r="Y905" s="2"/>
     </row>
     <row r="906">
       <c r="A906" s="2"/>
@@ -24399,6 +25328,7 @@
       <c r="V906" s="2"/>
       <c r="W906" s="2"/>
       <c r="X906" s="2"/>
+      <c r="Y906" s="2"/>
     </row>
     <row r="907">
       <c r="A907" s="2"/>
@@ -24425,6 +25355,7 @@
       <c r="V907" s="2"/>
       <c r="W907" s="2"/>
       <c r="X907" s="2"/>
+      <c r="Y907" s="2"/>
     </row>
     <row r="908">
       <c r="A908" s="2"/>
@@ -24451,6 +25382,7 @@
       <c r="V908" s="2"/>
       <c r="W908" s="2"/>
       <c r="X908" s="2"/>
+      <c r="Y908" s="2"/>
     </row>
     <row r="909">
       <c r="A909" s="2"/>
@@ -24477,6 +25409,7 @@
       <c r="V909" s="2"/>
       <c r="W909" s="2"/>
       <c r="X909" s="2"/>
+      <c r="Y909" s="2"/>
     </row>
     <row r="910">
       <c r="A910" s="2"/>
@@ -24503,6 +25436,7 @@
       <c r="V910" s="2"/>
       <c r="W910" s="2"/>
       <c r="X910" s="2"/>
+      <c r="Y910" s="2"/>
     </row>
     <row r="911">
       <c r="A911" s="2"/>
@@ -24529,6 +25463,7 @@
       <c r="V911" s="2"/>
       <c r="W911" s="2"/>
       <c r="X911" s="2"/>
+      <c r="Y911" s="2"/>
     </row>
     <row r="912">
       <c r="A912" s="2"/>
@@ -24555,6 +25490,7 @@
       <c r="V912" s="2"/>
       <c r="W912" s="2"/>
       <c r="X912" s="2"/>
+      <c r="Y912" s="2"/>
     </row>
     <row r="913">
       <c r="A913" s="2"/>
@@ -24581,6 +25517,7 @@
       <c r="V913" s="2"/>
       <c r="W913" s="2"/>
       <c r="X913" s="2"/>
+      <c r="Y913" s="2"/>
     </row>
     <row r="914">
       <c r="A914" s="2"/>
@@ -24607,6 +25544,7 @@
       <c r="V914" s="2"/>
       <c r="W914" s="2"/>
       <c r="X914" s="2"/>
+      <c r="Y914" s="2"/>
     </row>
     <row r="915">
       <c r="A915" s="2"/>
@@ -24633,6 +25571,7 @@
       <c r="V915" s="2"/>
       <c r="W915" s="2"/>
       <c r="X915" s="2"/>
+      <c r="Y915" s="2"/>
     </row>
     <row r="916">
       <c r="A916" s="2"/>
@@ -24659,6 +25598,7 @@
       <c r="V916" s="2"/>
       <c r="W916" s="2"/>
       <c r="X916" s="2"/>
+      <c r="Y916" s="2"/>
     </row>
     <row r="917">
       <c r="A917" s="2"/>
@@ -24685,6 +25625,7 @@
       <c r="V917" s="2"/>
       <c r="W917" s="2"/>
       <c r="X917" s="2"/>
+      <c r="Y917" s="2"/>
     </row>
     <row r="918">
       <c r="A918" s="2"/>
@@ -24711,6 +25652,7 @@
       <c r="V918" s="2"/>
       <c r="W918" s="2"/>
       <c r="X918" s="2"/>
+      <c r="Y918" s="2"/>
     </row>
     <row r="919">
       <c r="A919" s="2"/>
@@ -24737,6 +25679,7 @@
       <c r="V919" s="2"/>
       <c r="W919" s="2"/>
       <c r="X919" s="2"/>
+      <c r="Y919" s="2"/>
     </row>
     <row r="920">
       <c r="A920" s="2"/>
@@ -24763,6 +25706,7 @@
       <c r="V920" s="2"/>
       <c r="W920" s="2"/>
       <c r="X920" s="2"/>
+      <c r="Y920" s="2"/>
     </row>
     <row r="921">
       <c r="A921" s="2"/>
@@ -24789,6 +25733,7 @@
       <c r="V921" s="2"/>
       <c r="W921" s="2"/>
       <c r="X921" s="2"/>
+      <c r="Y921" s="2"/>
     </row>
     <row r="922">
       <c r="A922" s="2"/>
@@ -24815,6 +25760,7 @@
       <c r="V922" s="2"/>
       <c r="W922" s="2"/>
       <c r="X922" s="2"/>
+      <c r="Y922" s="2"/>
     </row>
     <row r="923">
       <c r="A923" s="2"/>
@@ -24841,6 +25787,7 @@
       <c r="V923" s="2"/>
       <c r="W923" s="2"/>
       <c r="X923" s="2"/>
+      <c r="Y923" s="2"/>
     </row>
     <row r="924">
       <c r="A924" s="2"/>
@@ -24867,6 +25814,7 @@
       <c r="V924" s="2"/>
       <c r="W924" s="2"/>
       <c r="X924" s="2"/>
+      <c r="Y924" s="2"/>
     </row>
     <row r="925">
       <c r="A925" s="2"/>
@@ -24893,6 +25841,7 @@
       <c r="V925" s="2"/>
       <c r="W925" s="2"/>
       <c r="X925" s="2"/>
+      <c r="Y925" s="2"/>
     </row>
     <row r="926">
       <c r="A926" s="2"/>
@@ -24919,6 +25868,7 @@
       <c r="V926" s="2"/>
       <c r="W926" s="2"/>
       <c r="X926" s="2"/>
+      <c r="Y926" s="2"/>
     </row>
     <row r="927">
       <c r="A927" s="2"/>
@@ -24945,6 +25895,7 @@
       <c r="V927" s="2"/>
       <c r="W927" s="2"/>
       <c r="X927" s="2"/>
+      <c r="Y927" s="2"/>
     </row>
     <row r="928">
       <c r="A928" s="2"/>
@@ -24971,6 +25922,7 @@
       <c r="V928" s="2"/>
       <c r="W928" s="2"/>
       <c r="X928" s="2"/>
+      <c r="Y928" s="2"/>
     </row>
     <row r="929">
       <c r="A929" s="2"/>
@@ -24997,6 +25949,7 @@
       <c r="V929" s="2"/>
       <c r="W929" s="2"/>
       <c r="X929" s="2"/>
+      <c r="Y929" s="2"/>
     </row>
     <row r="930">
       <c r="A930" s="2"/>
@@ -25023,6 +25976,7 @@
       <c r="V930" s="2"/>
       <c r="W930" s="2"/>
       <c r="X930" s="2"/>
+      <c r="Y930" s="2"/>
     </row>
     <row r="931">
       <c r="A931" s="2"/>
@@ -25049,6 +26003,7 @@
       <c r="V931" s="2"/>
       <c r="W931" s="2"/>
       <c r="X931" s="2"/>
+      <c r="Y931" s="2"/>
     </row>
     <row r="932">
       <c r="A932" s="2"/>
@@ -25075,6 +26030,7 @@
       <c r="V932" s="2"/>
       <c r="W932" s="2"/>
       <c r="X932" s="2"/>
+      <c r="Y932" s="2"/>
     </row>
     <row r="933">
       <c r="A933" s="2"/>
@@ -25101,6 +26057,7 @@
       <c r="V933" s="2"/>
       <c r="W933" s="2"/>
       <c r="X933" s="2"/>
+      <c r="Y933" s="2"/>
     </row>
     <row r="934">
       <c r="A934" s="2"/>
@@ -25127,6 +26084,7 @@
       <c r="V934" s="2"/>
       <c r="W934" s="2"/>
       <c r="X934" s="2"/>
+      <c r="Y934" s="2"/>
     </row>
     <row r="935">
       <c r="A935" s="2"/>
@@ -25153,6 +26111,7 @@
       <c r="V935" s="2"/>
       <c r="W935" s="2"/>
       <c r="X935" s="2"/>
+      <c r="Y935" s="2"/>
     </row>
     <row r="936">
       <c r="A936" s="2"/>
@@ -25179,6 +26138,7 @@
       <c r="V936" s="2"/>
       <c r="W936" s="2"/>
       <c r="X936" s="2"/>
+      <c r="Y936" s="2"/>
     </row>
     <row r="937">
       <c r="A937" s="2"/>
@@ -25205,6 +26165,7 @@
       <c r="V937" s="2"/>
       <c r="W937" s="2"/>
       <c r="X937" s="2"/>
+      <c r="Y937" s="2"/>
     </row>
     <row r="938">
       <c r="A938" s="2"/>
@@ -25231,6 +26192,7 @@
       <c r="V938" s="2"/>
       <c r="W938" s="2"/>
       <c r="X938" s="2"/>
+      <c r="Y938" s="2"/>
     </row>
     <row r="939">
       <c r="A939" s="2"/>
@@ -25257,6 +26219,7 @@
       <c r="V939" s="2"/>
       <c r="W939" s="2"/>
       <c r="X939" s="2"/>
+      <c r="Y939" s="2"/>
     </row>
     <row r="940">
       <c r="A940" s="2"/>
@@ -25283,6 +26246,7 @@
       <c r="V940" s="2"/>
       <c r="W940" s="2"/>
       <c r="X940" s="2"/>
+      <c r="Y940" s="2"/>
     </row>
     <row r="941">
       <c r="A941" s="2"/>
@@ -25309,6 +26273,7 @@
       <c r="V941" s="2"/>
       <c r="W941" s="2"/>
       <c r="X941" s="2"/>
+      <c r="Y941" s="2"/>
     </row>
     <row r="942">
       <c r="A942" s="2"/>
@@ -25335,6 +26300,7 @@
       <c r="V942" s="2"/>
       <c r="W942" s="2"/>
       <c r="X942" s="2"/>
+      <c r="Y942" s="2"/>
     </row>
     <row r="943">
       <c r="A943" s="2"/>
@@ -25361,6 +26327,7 @@
       <c r="V943" s="2"/>
       <c r="W943" s="2"/>
       <c r="X943" s="2"/>
+      <c r="Y943" s="2"/>
     </row>
     <row r="944">
       <c r="A944" s="2"/>
@@ -25387,6 +26354,7 @@
       <c r="V944" s="2"/>
       <c r="W944" s="2"/>
       <c r="X944" s="2"/>
+      <c r="Y944" s="2"/>
     </row>
     <row r="945">
       <c r="A945" s="2"/>
@@ -25413,6 +26381,7 @@
       <c r="V945" s="2"/>
       <c r="W945" s="2"/>
       <c r="X945" s="2"/>
+      <c r="Y945" s="2"/>
     </row>
     <row r="946">
       <c r="A946" s="2"/>
@@ -25439,6 +26408,7 @@
       <c r="V946" s="2"/>
       <c r="W946" s="2"/>
       <c r="X946" s="2"/>
+      <c r="Y946" s="2"/>
     </row>
     <row r="947">
       <c r="A947" s="2"/>
@@ -25465,6 +26435,7 @@
       <c r="V947" s="2"/>
       <c r="W947" s="2"/>
       <c r="X947" s="2"/>
+      <c r="Y947" s="2"/>
     </row>
     <row r="948">
       <c r="A948" s="2"/>
@@ -25491,6 +26462,7 @@
       <c r="V948" s="2"/>
       <c r="W948" s="2"/>
       <c r="X948" s="2"/>
+      <c r="Y948" s="2"/>
     </row>
     <row r="949">
       <c r="A949" s="2"/>
@@ -25517,6 +26489,7 @@
       <c r="V949" s="2"/>
       <c r="W949" s="2"/>
       <c r="X949" s="2"/>
+      <c r="Y949" s="2"/>
     </row>
     <row r="950">
       <c r="A950" s="2"/>
@@ -25543,6 +26516,7 @@
       <c r="V950" s="2"/>
       <c r="W950" s="2"/>
       <c r="X950" s="2"/>
+      <c r="Y950" s="2"/>
     </row>
     <row r="951">
       <c r="A951" s="2"/>
@@ -25569,6 +26543,7 @@
       <c r="V951" s="2"/>
       <c r="W951" s="2"/>
       <c r="X951" s="2"/>
+      <c r="Y951" s="2"/>
     </row>
     <row r="952">
       <c r="A952" s="2"/>
@@ -25595,6 +26570,7 @@
       <c r="V952" s="2"/>
       <c r="W952" s="2"/>
       <c r="X952" s="2"/>
+      <c r="Y952" s="2"/>
     </row>
     <row r="953">
       <c r="A953" s="2"/>
@@ -25621,6 +26597,7 @@
       <c r="V953" s="2"/>
       <c r="W953" s="2"/>
       <c r="X953" s="2"/>
+      <c r="Y953" s="2"/>
     </row>
     <row r="954">
       <c r="A954" s="2"/>
@@ -25647,6 +26624,7 @@
       <c r="V954" s="2"/>
       <c r="W954" s="2"/>
       <c r="X954" s="2"/>
+      <c r="Y954" s="2"/>
     </row>
     <row r="955">
       <c r="A955" s="2"/>
@@ -25673,6 +26651,7 @@
       <c r="V955" s="2"/>
       <c r="W955" s="2"/>
       <c r="X955" s="2"/>
+      <c r="Y955" s="2"/>
     </row>
     <row r="956">
       <c r="A956" s="2"/>
@@ -25699,6 +26678,7 @@
       <c r="V956" s="2"/>
       <c r="W956" s="2"/>
       <c r="X956" s="2"/>
+      <c r="Y956" s="2"/>
     </row>
     <row r="957">
       <c r="A957" s="2"/>
@@ -25725,6 +26705,7 @@
       <c r="V957" s="2"/>
       <c r="W957" s="2"/>
       <c r="X957" s="2"/>
+      <c r="Y957" s="2"/>
     </row>
     <row r="958">
       <c r="A958" s="2"/>
@@ -25751,6 +26732,7 @@
       <c r="V958" s="2"/>
       <c r="W958" s="2"/>
       <c r="X958" s="2"/>
+      <c r="Y958" s="2"/>
     </row>
     <row r="959">
       <c r="A959" s="2"/>
@@ -25777,6 +26759,7 @@
       <c r="V959" s="2"/>
       <c r="W959" s="2"/>
       <c r="X959" s="2"/>
+      <c r="Y959" s="2"/>
     </row>
     <row r="960">
       <c r="A960" s="2"/>
@@ -25803,6 +26786,7 @@
       <c r="V960" s="2"/>
       <c r="W960" s="2"/>
       <c r="X960" s="2"/>
+      <c r="Y960" s="2"/>
     </row>
     <row r="961">
       <c r="A961" s="2"/>
@@ -25829,6 +26813,7 @@
       <c r="V961" s="2"/>
       <c r="W961" s="2"/>
       <c r="X961" s="2"/>
+      <c r="Y961" s="2"/>
     </row>
     <row r="962">
       <c r="A962" s="2"/>
@@ -25855,6 +26840,7 @@
       <c r="V962" s="2"/>
       <c r="W962" s="2"/>
       <c r="X962" s="2"/>
+      <c r="Y962" s="2"/>
     </row>
     <row r="963">
       <c r="A963" s="2"/>
@@ -25881,6 +26867,7 @@
       <c r="V963" s="2"/>
       <c r="W963" s="2"/>
       <c r="X963" s="2"/>
+      <c r="Y963" s="2"/>
     </row>
     <row r="964">
       <c r="A964" s="2"/>
@@ -25907,6 +26894,7 @@
       <c r="V964" s="2"/>
       <c r="W964" s="2"/>
       <c r="X964" s="2"/>
+      <c r="Y964" s="2"/>
     </row>
     <row r="965">
       <c r="A965" s="2"/>
@@ -25933,6 +26921,7 @@
       <c r="V965" s="2"/>
       <c r="W965" s="2"/>
       <c r="X965" s="2"/>
+      <c r="Y965" s="2"/>
     </row>
     <row r="966">
       <c r="A966" s="2"/>
@@ -25959,6 +26948,7 @@
       <c r="V966" s="2"/>
       <c r="W966" s="2"/>
       <c r="X966" s="2"/>
+      <c r="Y966" s="2"/>
     </row>
     <row r="967">
       <c r="A967" s="2"/>
@@ -25985,6 +26975,7 @@
       <c r="V967" s="2"/>
       <c r="W967" s="2"/>
       <c r="X967" s="2"/>
+      <c r="Y967" s="2"/>
     </row>
     <row r="968">
       <c r="A968" s="2"/>
@@ -26011,6 +27002,7 @@
       <c r="V968" s="2"/>
       <c r="W968" s="2"/>
       <c r="X968" s="2"/>
+      <c r="Y968" s="2"/>
     </row>
     <row r="969">
       <c r="A969" s="2"/>
@@ -26037,6 +27029,7 @@
       <c r="V969" s="2"/>
       <c r="W969" s="2"/>
       <c r="X969" s="2"/>
+      <c r="Y969" s="2"/>
     </row>
     <row r="970">
       <c r="A970" s="2"/>
@@ -26063,6 +27056,7 @@
       <c r="V970" s="2"/>
       <c r="W970" s="2"/>
       <c r="X970" s="2"/>
+      <c r="Y970" s="2"/>
     </row>
     <row r="971">
       <c r="A971" s="2"/>
@@ -26089,6 +27083,7 @@
       <c r="V971" s="2"/>
       <c r="W971" s="2"/>
       <c r="X971" s="2"/>
+      <c r="Y971" s="2"/>
     </row>
     <row r="972">
       <c r="A972" s="2"/>
@@ -26115,6 +27110,7 @@
       <c r="V972" s="2"/>
       <c r="W972" s="2"/>
       <c r="X972" s="2"/>
+      <c r="Y972" s="2"/>
     </row>
     <row r="973">
       <c r="A973" s="2"/>
@@ -26141,6 +27137,7 @@
       <c r="V973" s="2"/>
       <c r="W973" s="2"/>
       <c r="X973" s="2"/>
+      <c r="Y973" s="2"/>
     </row>
     <row r="974">
       <c r="A974" s="2"/>
@@ -26167,6 +27164,7 @@
       <c r="V974" s="2"/>
       <c r="W974" s="2"/>
       <c r="X974" s="2"/>
+      <c r="Y974" s="2"/>
     </row>
     <row r="975">
       <c r="A975" s="2"/>
@@ -26193,6 +27191,7 @@
       <c r="V975" s="2"/>
       <c r="W975" s="2"/>
       <c r="X975" s="2"/>
+      <c r="Y975" s="2"/>
     </row>
     <row r="976">
       <c r="A976" s="2"/>
@@ -26219,6 +27218,7 @@
       <c r="V976" s="2"/>
       <c r="W976" s="2"/>
       <c r="X976" s="2"/>
+      <c r="Y976" s="2"/>
     </row>
     <row r="977">
       <c r="A977" s="2"/>
@@ -26245,6 +27245,7 @@
       <c r="V977" s="2"/>
       <c r="W977" s="2"/>
       <c r="X977" s="2"/>
+      <c r="Y977" s="2"/>
     </row>
     <row r="978">
       <c r="A978" s="2"/>
@@ -26271,6 +27272,7 @@
       <c r="V978" s="2"/>
       <c r="W978" s="2"/>
       <c r="X978" s="2"/>
+      <c r="Y978" s="2"/>
     </row>
     <row r="979">
       <c r="A979" s="2"/>
@@ -26297,6 +27299,7 @@
       <c r="V979" s="2"/>
       <c r="W979" s="2"/>
       <c r="X979" s="2"/>
+      <c r="Y979" s="2"/>
     </row>
     <row r="980">
       <c r="A980" s="2"/>
@@ -26323,6 +27326,7 @@
       <c r="V980" s="2"/>
       <c r="W980" s="2"/>
       <c r="X980" s="2"/>
+      <c r="Y980" s="2"/>
     </row>
     <row r="981">
       <c r="A981" s="2"/>
@@ -26349,6 +27353,7 @@
       <c r="V981" s="2"/>
       <c r="W981" s="2"/>
       <c r="X981" s="2"/>
+      <c r="Y981" s="2"/>
     </row>
     <row r="982">
       <c r="A982" s="2"/>
@@ -26375,6 +27380,7 @@
       <c r="V982" s="2"/>
       <c r="W982" s="2"/>
       <c r="X982" s="2"/>
+      <c r="Y982" s="2"/>
     </row>
     <row r="983">
       <c r="A983" s="2"/>
@@ -26401,6 +27407,7 @@
       <c r="V983" s="2"/>
       <c r="W983" s="2"/>
       <c r="X983" s="2"/>
+      <c r="Y983" s="2"/>
     </row>
     <row r="984">
       <c r="A984" s="2"/>
@@ -26427,6 +27434,7 @@
       <c r="V984" s="2"/>
       <c r="W984" s="2"/>
       <c r="X984" s="2"/>
+      <c r="Y984" s="2"/>
     </row>
     <row r="985">
       <c r="A985" s="2"/>
@@ -26453,6 +27461,7 @@
       <c r="V985" s="2"/>
       <c r="W985" s="2"/>
       <c r="X985" s="2"/>
+      <c r="Y985" s="2"/>
     </row>
     <row r="986">
       <c r="A986" s="2"/>
@@ -26479,6 +27488,7 @@
       <c r="V986" s="2"/>
       <c r="W986" s="2"/>
       <c r="X986" s="2"/>
+      <c r="Y986" s="2"/>
     </row>
     <row r="987">
       <c r="A987" s="2"/>
@@ -26505,6 +27515,7 @@
       <c r="V987" s="2"/>
       <c r="W987" s="2"/>
       <c r="X987" s="2"/>
+      <c r="Y987" s="2"/>
     </row>
     <row r="988">
       <c r="A988" s="2"/>
@@ -26531,6 +27542,7 @@
       <c r="V988" s="2"/>
       <c r="W988" s="2"/>
       <c r="X988" s="2"/>
+      <c r="Y988" s="2"/>
     </row>
     <row r="989">
       <c r="A989" s="2"/>
@@ -26557,6 +27569,7 @@
       <c r="V989" s="2"/>
       <c r="W989" s="2"/>
       <c r="X989" s="2"/>
+      <c r="Y989" s="2"/>
     </row>
     <row r="990">
       <c r="A990" s="2"/>
@@ -26583,6 +27596,7 @@
       <c r="V990" s="2"/>
       <c r="W990" s="2"/>
       <c r="X990" s="2"/>
+      <c r="Y990" s="2"/>
     </row>
     <row r="991">
       <c r="A991" s="2"/>
@@ -26609,6 +27623,7 @@
       <c r="V991" s="2"/>
       <c r="W991" s="2"/>
       <c r="X991" s="2"/>
+      <c r="Y991" s="2"/>
     </row>
     <row r="992">
       <c r="A992" s="2"/>
@@ -26635,6 +27650,7 @@
       <c r="V992" s="2"/>
       <c r="W992" s="2"/>
       <c r="X992" s="2"/>
+      <c r="Y992" s="2"/>
     </row>
     <row r="993">
       <c r="A993" s="2"/>
@@ -26661,6 +27677,7 @@
       <c r="V993" s="2"/>
       <c r="W993" s="2"/>
       <c r="X993" s="2"/>
+      <c r="Y993" s="2"/>
     </row>
     <row r="994">
       <c r="A994" s="2"/>
@@ -26687,6 +27704,7 @@
       <c r="V994" s="2"/>
       <c r="W994" s="2"/>
       <c r="X994" s="2"/>
+      <c r="Y994" s="2"/>
     </row>
     <row r="995">
       <c r="A995" s="2"/>
@@ -26713,6 +27731,7 @@
       <c r="V995" s="2"/>
       <c r="W995" s="2"/>
       <c r="X995" s="2"/>
+      <c r="Y995" s="2"/>
     </row>
     <row r="996">
       <c r="A996" s="2"/>
@@ -26739,6 +27758,7 @@
       <c r="V996" s="2"/>
       <c r="W996" s="2"/>
       <c r="X996" s="2"/>
+      <c r="Y996" s="2"/>
     </row>
     <row r="997">
       <c r="A997" s="2"/>
@@ -26765,6 +27785,7 @@
       <c r="V997" s="2"/>
       <c r="W997" s="2"/>
       <c r="X997" s="2"/>
+      <c r="Y997" s="2"/>
     </row>
     <row r="998">
       <c r="A998" s="2"/>
@@ -26791,6 +27812,7 @@
       <c r="V998" s="2"/>
       <c r="W998" s="2"/>
       <c r="X998" s="2"/>
+      <c r="Y998" s="2"/>
     </row>
     <row r="999">
       <c r="A999" s="2"/>
@@ -26817,6 +27839,7 @@
       <c r="V999" s="2"/>
       <c r="W999" s="2"/>
       <c r="X999" s="2"/>
+      <c r="Y999" s="2"/>
     </row>
     <row r="1000">
       <c r="A1000" s="2"/>
@@ -26843,10 +27866,11 @@
       <c r="V1000" s="2"/>
       <c r="W1000" s="2"/>
       <c r="X1000" s="2"/>
+      <c r="Y1000" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <drawing r:id="rId1"/>
   <tableParts count="1">
